--- a/docs/Portfolio_VAR.xlsx
+++ b/docs/Portfolio_VAR.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_packages\pyFinRisk\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF0693-4C4F-445F-9F23-EC2D036C14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30E1AA-C0EF-46D1-A265-00B074B0AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="16440" xr2:uid="{4B25372F-870B-4A45-8A4D-D63FBB30CA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio VAR" sheetId="1" r:id="rId1"/>
-    <sheet name="JPM Data" sheetId="2" r:id="rId2"/>
-    <sheet name="NVDA Data" sheetId="3" r:id="rId3"/>
-    <sheet name="LLY Data" sheetId="4" r:id="rId4"/>
+    <sheet name="SPY Data" sheetId="5" r:id="rId2"/>
+    <sheet name="JPM Data" sheetId="2" r:id="rId3"/>
+    <sheet name="NVDA Data" sheetId="3" r:id="rId4"/>
+    <sheet name="LLY Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Holdings</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>Individual VAR ($)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>SPY</t>
   </si>
 </sst>
 </file>
@@ -258,7 +265,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -273,16 +280,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -630,7 +631,7 @@
   <dimension ref="A1:N269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +664,7 @@
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -806,42 +807,42 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="B6" s="12">
         <f>SUM(B3:B5)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="12">
         <v>6000</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <f>SUM(D3:D5)</f>
         <v>2752430.0537109366</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6">
         <v>7.4974003262044485E-6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6">
         <v>1.302962560624621E-4</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6">
         <f>VARP('Portfolio VAR'!$D$18:$D$269)</f>
         <v>3.5365141235931972E-4</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="16">
         <f>K3*K5</f>
         <v>3.6805275587015122E-2</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="16">
         <f t="shared" ref="L6:M6" si="0">L3*L5</f>
         <v>2.6063821767628736E-2</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="16">
         <f t="shared" si="0"/>
         <v>2.0219207189433201E-2</v>
       </c>
@@ -850,18 +851,18 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
@@ -885,7 +886,7 @@
       <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -905,14 +906,14 @@
       <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10">
         <f>VARP('Portfolio VAR'!$F$18:$F$269)</f>
         <v>2.0491418582103136E-5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10">
         <v>9.883259668719173E-6</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>1.4815129873943736E-6</v>
       </c>
       <c r="J10" t="s">
@@ -935,14 +936,14 @@
       <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11">
         <v>9.883259668719173E-6</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11">
         <f>VARP('Portfolio VAR'!$G$18:$G$269)</f>
         <v>1.7130394784964511E-4</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11">
         <v>2.4400340678834549E-5</v>
       </c>
       <c r="I11" s="8"/>
@@ -966,28 +967,28 @@
       <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>1.4815129873943736E-6</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="10">
         <v>2.4400340678834549E-5</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <f>VARP('Portfolio VAR'!$H$18:$H$269)</f>
         <v>6.4167171185979682E-5</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="14">
         <f>K9*K11</f>
         <v>1.5644169602477314E-2</v>
       </c>
-      <c r="L12" s="20">
-        <f t="shared" ref="L12:M12" si="2">L9*L11</f>
+      <c r="L12" s="14">
+        <f t="shared" ref="L12" si="2">L9*L11</f>
         <v>1.107848920347106E-2</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="14">
         <f>M9*M11</f>
         <v>8.5942219275411853E-3</v>
       </c>
@@ -996,6 +997,21 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <f>SLOPE(_xlfn.ANCHORARRAY(B18),'SPY Data'!$C$3:$C$254)</f>
+        <v>0.71734466408875841</v>
+      </c>
+      <c r="C14">
+        <f>SLOPE(_xlfn.ANCHORARRAY(C18),'SPY Data'!$C$3:$C$254)</f>
+        <v>2.3843784827265293</v>
+      </c>
+      <c r="D14">
+        <f>SLOPE(_xlfn.ANCHORARRAY(D18),'SPY Data'!$C$3:$C$254)</f>
+        <v>0.59978867061257335</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1034,7 @@
         <v>1.0404111650873007E-2</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:H15" si="3">_xlfn.STDEV.S(_xlfn.ANCHORARRAY(C18))</f>
+        <f t="shared" ref="C15" si="3">_xlfn.STDEV.S(_xlfn.ANCHORARRAY(C18))</f>
         <v>3.1207322587394754E-2</v>
       </c>
       <c r="D15">
@@ -1040,7 +1056,7 @@
       <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="18">
         <f>$D$6*K6</f>
         <v>101303.94666081386</v>
       </c>
@@ -1063,15 +1079,15 @@
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="18">
         <f>$D$6*K12</f>
         <v>43059.482579209638</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="18">
         <f t="shared" ref="L16:M16" si="6">$D$6*L12</f>
         <v>30492.76663334588</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="18">
         <f t="shared" si="6"/>
         <v>23654.994721625895</v>
       </c>
@@ -1086,16 +1102,16 @@
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="4" cm="1">
@@ -1160,15 +1176,15 @@
       <c r="J19" t="s">
         <v>2</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="19">
         <f>$B$15*K18*$B$3</f>
         <v>4.0483438844711962E-3</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="19">
         <f t="shared" ref="L19:M19" si="7">$B$15*L18*$B$3</f>
         <v>2.8668529653980571E-3</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="19">
         <f t="shared" si="7"/>
         <v>2.2239829064906141E-3</v>
       </c>
@@ -1198,15 +1214,15 @@
       <c r="J20" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="19">
         <f>$C$15*$B$4*K18</f>
         <v>2.4213449522333716E-2</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="19">
         <f t="shared" ref="L20:M20" si="8">$C$15*$B$4*L18</f>
         <v>1.7146863395644047E-2</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="19">
         <f t="shared" si="8"/>
         <v>1.3301809179651141E-2</v>
       </c>
@@ -1236,15 +1252,15 @@
       <c r="J21" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="19">
         <f>$D$15*$B$5*K18</f>
         <v>2.1952148576755513E-2</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="19">
         <f t="shared" ref="L21:M21" si="9">$D$15*$B$5*L18</f>
         <v>1.5545512940620855E-2</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="19">
         <f t="shared" si="9"/>
         <v>1.2059549432724057E-2</v>
       </c>
@@ -1332,15 +1348,15 @@
       <c r="J24" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="18">
         <f>$B$15*K23*$C$3*'JPM Data'!$B$254</f>
         <v>4899.4657782118802</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="18">
         <f>$B$15*L23*$C$3*'JPM Data'!$B$254</f>
         <v>3469.5787699783705</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="18">
         <f>$B$15*M23*$C$3*'JPM Data'!$B$254</f>
         <v>2691.5520154983724</v>
       </c>
@@ -1370,15 +1386,15 @@
       <c r="J25" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="18">
         <f>$C$15*K23*$C$4*'NVDA Data'!$B$254</f>
         <v>13761.673644409686</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="18">
         <f>$C$15*L23*$C$4*'NVDA Data'!$B$254</f>
         <v>9745.3912074145828</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="18">
         <f>$C$15*M23*$C$4*'NVDA Data'!$B$254</f>
         <v>7560.0610578731312</v>
       </c>
@@ -1408,15 +1424,15 @@
       <c r="J26" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="18">
         <f>$D$15*K23*$C$5*'LLY Data'!$B$254</f>
         <v>103660.68240978617</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="18">
         <f>$D$15*L23*$C$5*'LLY Data'!$B$254</f>
         <v>73407.779388904353</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="18">
         <f>$D$15*M23*$C$5*'LLY Data'!$B$254</f>
         <v>56946.640980483375</v>
       </c>
@@ -7017,11 +7033,3072 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10429B7-D921-4878-B446-8F94187785FF}">
+  <dimension ref="A1:C254"/>
+  <sheetViews>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C254"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B2">
+        <v>413.01001000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B3">
+        <v>410.25</v>
+      </c>
+      <c r="C3">
+        <f>B3/B2-1</f>
+        <v>-6.6826709599605572E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B4">
+        <v>415.23001099999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">B4/B3-1</f>
+        <v>1.2138966483851377E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B5">
+        <v>419.23001099999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9.6332150712488129E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B6">
+        <v>418.61999500000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1.4550866684016617E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B7">
+        <v>418.790009</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.0612966898523339E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B8">
+        <v>414.08999599999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.1222839368166482E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B9">
+        <v>411.08999599999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-7.2448019246521556E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B10">
+        <v>414.64999399999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8.6598993763886689E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B11">
+        <v>420.01998900000001</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.2950669426514017E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B12">
+        <v>420.17999300000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.8094377455921702E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B13">
+        <v>417.85000600000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-5.5452116683718522E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B14">
+        <v>421.82000699999998</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9.5010193681797084E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B15">
+        <v>427.92001299999998</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.4461158548129349E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B16">
+        <v>427.10000600000001</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-1.9162623272774848E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B17">
+        <v>428.02999899999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.1774595807426689E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B18">
+        <v>426.54998799999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-3.4577272701860062E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B19">
+        <v>429.13000499999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>6.048568919429842E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B20">
+        <v>429.89999399999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.7943024049320577E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B21">
+        <v>433.79998799999998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>9.0718633506190471E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B22">
+        <v>436.66000400000001</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>6.5929370196295967E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B23">
+        <v>437.17999300000002</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.1908326735599051E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B24">
+        <v>442.60000600000001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.239766935080211E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B25">
+        <v>439.459991</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-7.0944757284978621E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B26">
+        <v>437.17999300000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-5.1881810555991503E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B27">
+        <v>434.94000199999999</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-5.1237271509815274E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B28">
+        <v>436.51001000000002</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>3.6097116677715757E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B29">
+        <v>433.209991</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-7.5600076158620633E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B30">
+        <v>431.44000199999999</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-4.085752953006172E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B31">
+        <v>436.17001299999998</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.0963311185966385E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B32">
+        <v>436.39001500000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>5.0439506028121528E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B33">
+        <v>438.10998499999999</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.9413596573698584E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B34">
+        <v>443.27999899999998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.1800721684076532E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B35">
+        <v>443.790009</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.1505369092910112E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B36">
+        <v>443.13000499999998</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-1.4871988702206407E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B37">
+        <v>439.66000400000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-7.8306613428263949E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B38">
+        <v>438.54998799999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-2.5247145291843465E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B39">
+        <v>439.66000400000001</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2.5311048463647623E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B40">
+        <v>442.459991</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>6.3685278954781488E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B41">
+        <v>446.01998900000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>8.0459206988503507E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B42">
+        <v>449.55999800000001</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>7.9368841919773558E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B43">
+        <v>449.27999899999998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-6.228289911150986E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B44">
+        <v>450.83999599999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>3.472215552600133E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B45">
+        <v>454.19000199999999</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>7.4305874139879435E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B46">
+        <v>455.20001200000002</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2.2237609712949524E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B47">
+        <v>452.17999300000002</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-6.6344879621839103E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B48">
+        <v>452.17999300000002</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B49">
+        <v>454.20001200000002</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.4672896441042553E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B50">
+        <v>455.44000199999999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>2.7300527680302888E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B51">
+        <v>455.51001000000002</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.53715088030415E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B52">
+        <v>452.48998999999998</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>-6.6299750470907304E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B53">
+        <v>456.92001299999998</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>9.7903226544304722E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B54">
+        <v>457.790009</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.9040444175073556E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B55">
+        <v>456.48001099999999</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>-2.8615696591142159E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B56">
+        <v>450.13000499999998</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>-1.391080846254189E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B57">
+        <v>448.83999599999999</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>-2.8658587200823815E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B58">
+        <v>446.80999800000001</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>-4.5227653909879484E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B59">
+        <v>450.709991</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>8.7285267058863081E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B60">
+        <v>448.75</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>-4.3486744006968614E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B61">
+        <v>445.75</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>-6.6852367688022829E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B62">
+        <v>445.91000400000001</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>3.5895457094792249E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B63">
+        <v>445.64999399999999</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>-5.8309972341419325E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B64">
+        <v>448.10998499999999</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>5.520006806058575E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B65">
+        <v>442.89001500000001</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>-1.1648858929130923E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B66">
+        <v>439.64001500000001</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>-7.3381649843697883E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B67">
+        <v>436.290009</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>-7.6198841909329573E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B68">
+        <v>436.5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C131" si="1">B68/B67-1</f>
+        <v>4.8131058623446243E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B69">
+        <v>439.33999599999999</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>6.5062909507445088E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B70">
+        <v>438.14999399999999</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>-2.7086129440397899E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B71">
+        <v>443.02999899999998</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>1.1137749781642059E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B72">
+        <v>436.89001500000001</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>-1.385907052312263E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B73">
+        <v>439.97000100000002</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>7.049797189803142E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B74">
+        <v>442.76001000000002</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>6.341361896626152E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B75">
+        <v>449.16000400000001</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>1.4454769752128227E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B76">
+        <v>451.01001000000002</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>4.1188128585019079E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B77">
+        <v>450.35000600000001</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>-1.4633910231837133E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B78">
+        <v>451.19000199999999</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>1.8652070363245343E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B79">
+        <v>449.23998999999998</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>-4.3219308747005636E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B80">
+        <v>446.22000100000002</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>-6.7224402707335429E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B81">
+        <v>444.85000600000001</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>-3.0702232014024888E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B82">
+        <v>445.51998900000001</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>1.5060874248926659E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B83">
+        <v>448.45001200000002</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>6.5766364525565724E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B84">
+        <v>445.98998999999998</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>-5.4856102891576164E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B85">
+        <v>446.51001000000002</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>1.1659902949840983E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B86">
+        <v>450.35998499999999</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>8.6223710863726488E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B87">
+        <v>443.36999500000002</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>-1.5520894912544159E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B88">
+        <v>443.63000499999998</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>5.864402258433099E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B89">
+        <v>442.709991</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>-2.0738317733940415E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B90">
+        <v>438.64001500000001</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>-9.1933231296783546E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B91">
+        <v>431.39001500000001</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>-1.6528359821435856E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B92">
+        <v>430.42001299999998</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>-2.2485499577453716E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B93">
+        <v>432.23001099999999</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>4.2051901522526247E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B94">
+        <v>425.88000499999998</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>-1.4691265850117041E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B95">
+        <v>426.04998799999998</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>3.9913355406295814E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B96">
+        <v>428.51998900000001</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>5.7974441252655051E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B97">
+        <v>427.48001099999999</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>-2.4269066244189119E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B98">
+        <v>427.30999800000001</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>-3.9770982414422118E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B99">
+        <v>421.58999599999999</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>-1.3386071064969585E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B100">
+        <v>424.66000400000001</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>7.2819754480133447E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B101">
+        <v>424.5</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>-3.7678142159114358E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B102">
+        <v>429.540009</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>1.1872812720848058E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B103">
+        <v>432.290009</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>6.4021975657220231E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B104">
+        <v>434.540009</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>5.2048392355974471E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B105">
+        <v>436.32000699999998</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>4.0962810400273497E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B106">
+        <v>433.66000400000001</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>-6.0964497555116015E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B107">
+        <v>431.5</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>-4.9808697598960894E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B108">
+        <v>436.040009</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>1.0521457705677806E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B109">
+        <v>436.01998900000001</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>-4.5913218023052593E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B110">
+        <v>430.209991</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>-1.3325072580560038E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B111">
+        <v>426.42999300000002</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>-8.7864021735375442E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B112">
+        <v>421.19000199999999</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>-1.2288045132885506E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B113">
+        <v>420.459991</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>-1.7332106567904404E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B114">
+        <v>423.63000499999998</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>7.5393951097715295E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B115">
+        <v>417.54998799999998</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>-1.4352186880624784E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B116">
+        <v>412.54998799999998</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>-1.1974614162843622E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B117">
+        <v>410.67999300000002</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>-4.5327719170845659E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B118">
+        <v>415.58999599999999</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>1.1955788165215031E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B119">
+        <v>418.20001200000002</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>6.2802666693642095E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B120">
+        <v>422.66000400000001</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>1.0664734270739329E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B121">
+        <v>430.76001000000002</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>1.9164354145986273E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B122">
+        <v>434.69000199999999</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>9.1233910037284982E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B123">
+        <v>435.69000199999999</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>2.3004899937864032E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B124">
+        <v>436.92999300000002</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>2.8460396022584877E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B125">
+        <v>437.25</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>7.3239879414721543E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B126">
+        <v>433.83999599999999</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>-7.7987512864494679E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B127">
+        <v>440.60998499999999</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>1.56048060631091E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B128">
+        <v>440.19000199999999</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>-9.5318538911459694E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B129">
+        <v>448.73001099999999</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>1.9400733685905003E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B130">
+        <v>449.67999300000002</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>2.1170458331569719E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B131">
+        <v>450.23001099999999</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>1.2231320240212451E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B132">
+        <v>450.790009</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="2">B132/B131-1</f>
+        <v>1.2438042474249844E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B133">
+        <v>454.26001000000002</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>7.6975996156116722E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B134">
+        <v>453.26998900000001</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>-2.179414824562742E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B135">
+        <v>455.01998900000001</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>3.860833592492785E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B136">
+        <v>455.29998799999998</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>6.1535538387080813E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B137">
+        <v>454.48001099999999</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>-1.8009598541873784E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B138">
+        <v>454.92999300000002</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>9.9010295086454647E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B139">
+        <v>454.60998499999999</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>-7.034225153847995E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B140">
+        <v>456.39999399999999</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>3.9374608105011699E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B141">
+        <v>459.10000600000001</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>5.9158896483246792E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B142">
+        <v>456.69000199999999</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>-5.2494096460543593E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B143">
+        <v>456.60000600000001</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>-1.9706146314979467E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B144">
+        <v>454.76001000000002</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>-4.0297765567702815E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B145">
+        <v>458.23001099999999</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>7.6304004831031502E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B146">
+        <v>460.20001200000002</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>4.2991531604419375E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B147">
+        <v>461.98998999999998</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>3.8895653049222378E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B148">
+        <v>464.10000600000001</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>4.5672331558526125E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B149">
+        <v>470.5</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>1.3790118330659906E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B150">
+        <v>472.01001000000002</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>3.2093730074389537E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B151">
+        <v>469.32998700000002</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>-5.6778944158408784E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B152">
+        <v>471.97000100000002</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>5.6250699361342082E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B153">
+        <v>474.83999599999999</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>6.0808843653601397E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B154">
+        <v>468.26001000000002</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>-1.3857269933933658E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B155">
+        <v>472.70001200000002</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>9.4819158270635917E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B156">
+        <v>473.64999399999999</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>2.0096932005153612E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B157">
+        <v>475.64999399999999</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>4.2225272360079114E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B158">
+        <v>476.51001000000002</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>1.8080858001652267E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B159">
+        <v>476.69000199999999</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>3.777297354150555E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B160">
+        <v>475.30999800000001</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>-2.894971562671822E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B161">
+        <v>472.64999399999999</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>-5.5963560859075834E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B162">
+        <v>468.790009</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>-8.1666879276423021E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B163">
+        <v>467.27999899999998</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>-3.2210797393509294E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B164">
+        <v>467.92001299999998</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>1.369658451826794E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B165">
+        <v>474.60000600000001</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>1.4275929249472075E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B166">
+        <v>473.88000499999998</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>-1.5170690916510576E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B167">
+        <v>476.55999800000001</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>5.6554253644864882E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B168">
+        <v>476.35000600000001</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>-4.4064126422960204E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B169">
+        <v>476.67999300000002</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>6.9274062316271312E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B170">
+        <v>474.92999300000002</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>-3.67122603360448E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B171">
+        <v>472.290009</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>-5.5586803084892722E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B172">
+        <v>476.48998999999998</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>8.8928008638013978E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B173">
+        <v>482.42999300000002</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>1.2466165343788305E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B174">
+        <v>483.45001200000002</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>2.1143357892343673E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B175">
+        <v>484.85998499999999</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>2.9164814665472161E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B176">
+        <v>485.39001500000001</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>1.0931609462472291E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B177">
+        <v>488.02999899999998</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>5.4388922689312391E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B178">
+        <v>487.41000400000001</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>-1.2704034614068327E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B179">
+        <v>491.26998900000001</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>7.9193799231087603E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B180">
+        <v>490.89001500000001</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>-7.7345249762450496E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B181">
+        <v>482.88000499999998</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>-1.631732110093953E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B182">
+        <v>489.20001200000002</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>1.3088152200462444E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B183">
+        <v>494.35000600000001</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>1.0527379136695547E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B184">
+        <v>492.54998799999998</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>-3.6411813050529762E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B185">
+        <v>493.98001099999999</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>2.9033053189313485E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B186">
+        <v>498.10000600000001</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>8.3404083328384448E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B187">
+        <v>498.32000699999998</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>4.4168038014436029E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B188">
+        <v>501.20001200000002</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>5.7794287998556015E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B189">
+        <v>500.98001099999999</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>-4.3894851303405424E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B190">
+        <v>494.07998700000002</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>-1.3773052514065243E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B191">
+        <v>498.57000699999998</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>9.0876378686433057E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B192">
+        <v>502.01001000000002</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>6.8997391573939471E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B193">
+        <v>499.51001000000002</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>-4.9799803792757169E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B194">
+        <v>496.76001000000002</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>-5.5053951771657506E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B195">
+        <v>497.209991</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>9.058317717642872E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B196">
+        <v>507.5</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C254" si="3">B196/B195-1</f>
+        <v>2.0695499258380767E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B197">
+        <v>507.85000600000001</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>6.8966699507400087E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B198">
+        <v>505.98998999999998</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>-3.6625302314164943E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B199">
+        <v>506.92999300000002</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>1.8577501898804361E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B200">
+        <v>506.26001000000002</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>-1.3216479775344236E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B201">
+        <v>508.07998700000002</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>3.5949452140215943E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B202">
+        <v>512.84997599999997</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>9.3882638994791101E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B203">
+        <v>512.29998799999998</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>-1.0724149863272636E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B204">
+        <v>507.17999300000002</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>-9.9941345304110918E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B205">
+        <v>509.75</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>5.0672483841451843E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B206">
+        <v>514.80999799999995</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>9.9264306032367244E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B207">
+        <v>511.72000100000002</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>-6.0022086051249035E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B208">
+        <v>511.27999899999998</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>-8.5984913456615963E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B209">
+        <v>516.78002900000001</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>1.0757373671486103E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B210">
+        <v>515.96997099999999</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>-1.5675102646043326E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B211">
+        <v>514.95001200000002</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>-1.9767797688364785E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B212">
+        <v>509.82998700000002</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>-9.942761201450323E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B213">
+        <v>512.85998500000005</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>5.9431537517624644E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B214">
+        <v>515.71002199999998</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>5.5571444124264957E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B215">
+        <v>520.47997999999995</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>9.2493025082223124E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B216">
+        <v>522.20001200000002</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>3.3047034777400341E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>521.21002199999998</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>-1.8958061609543053E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B218">
+        <v>519.77002000000005</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>-2.7628056622440722E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B219">
+        <v>518.80999799999995</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>-1.8470130308787525E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B220">
+        <v>523.169983</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>8.4038183859365123E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B221">
+        <v>523.07000700000003</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>-1.910965904937667E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B222">
+        <v>522.15997300000004</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>-1.7397938857541817E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B223">
+        <v>518.84002699999996</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>-6.358101293988061E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B224">
+        <v>519.40997300000004</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>1.0985004439529877E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B225">
+        <v>513.07000700000003</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>-1.2206092161422544E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B226">
+        <v>518.42999299999997</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>1.0446890145344057E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B227">
+        <v>518.71997099999999</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>5.5933878038572082E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B228">
+        <v>519.32000700000003</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>1.1567628654114426E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B229">
+        <v>514.11999500000002</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>-1.0013117018231932E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B230">
+        <v>518</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>7.546886014421661E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B231">
+        <v>510.85000600000001</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>-1.3803077220077231E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B232">
+        <v>504.45001200000002</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>-1.2528127483275364E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B233">
+        <v>503.52999899999998</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>-1.8237941879561959E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B234">
+        <v>500.54998799999998</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>-5.9182392427824526E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B235">
+        <v>499.51998900000001</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>-2.0577345413900217E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B236">
+        <v>495.16000400000001</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>-8.7283494074548162E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B237">
+        <v>499.72000100000002</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>9.2091383859025377E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B238">
+        <v>505.64999399999999</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>1.1866631289789042E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B239">
+        <v>505.41000400000001</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>-4.7461683545468869E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B240">
+        <v>503.48998999999998</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>-3.7989236160826945E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B241">
+        <v>508.26001000000002</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>9.4739122817517618E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B242">
+        <v>510.05999800000001</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>3.5414708310417264E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B243">
+        <v>501.98001099999999</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>-1.5841248150575415E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B244">
+        <v>500.35000600000001</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>-3.2471512097719257E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B245">
+        <v>505.02999899999998</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>9.3534384808220405E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B246">
+        <v>511.290009</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>1.2395323074659625E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45418</v>
+      </c>
+      <c r="B247">
+        <v>516.57000700000003</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>1.0326816302017816E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B248">
+        <v>517.14001499999995</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>1.1034477268827558E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45420</v>
+      </c>
+      <c r="B249">
+        <v>517.19000200000005</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>9.6660475983778582E-5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45421</v>
+      </c>
+      <c r="B250">
+        <v>520.169983</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>5.7618689233671638E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45422</v>
+      </c>
+      <c r="B251">
+        <v>520.84002699999996</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>1.2881250781437981E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B252">
+        <v>520.90997300000004</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>1.3429459406744115E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45426</v>
+      </c>
+      <c r="B253">
+        <v>523.29998799999998</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>4.5881536616307894E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B254">
+        <v>529.78</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>1.2382977543657026E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B722E-14BC-41ED-98D8-CD834162C366}">
   <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11342,7 +14419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD67662-867E-45E7-91BE-793F81151AA3}">
   <dimension ref="A1:D254"/>
   <sheetViews>
@@ -15412,7 +18489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DD955D-7B94-48AA-AB94-C4BF390EB9F0}">
   <dimension ref="A1:D254"/>
   <sheetViews>

--- a/docs/Portfolio_VAR.xlsx
+++ b/docs/Portfolio_VAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_packages\pyFinRisk\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D30E1AA-C0EF-46D1-A265-00B074B0AD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498C325-4CB3-4372-BFAE-7EC245E6D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="16440" xr2:uid="{4B25372F-870B-4A45-8A4D-D63FBB30CA3A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>Holdings</t>
   </si>
@@ -109,15 +109,6 @@
     <t>Log Returns</t>
   </si>
   <si>
-    <t>Log Covariance</t>
-  </si>
-  <si>
-    <t>Non-Log Based</t>
-  </si>
-  <si>
-    <t>Log Based</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shares </t>
   </si>
   <si>
@@ -140,6 +131,39 @@
   </si>
   <si>
     <t>SPY</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Std. Port.</t>
+  </si>
+  <si>
+    <t>Portfolio VAR ($)</t>
+  </si>
+  <si>
+    <t>Marginal VAR (%)</t>
+  </si>
+  <si>
+    <t>Marginal VAR ($)</t>
+  </si>
+  <si>
+    <t>Component VAR (%)</t>
+  </si>
+  <si>
+    <t>Change in Weights</t>
+  </si>
+  <si>
+    <t>Target Weight</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Incremental VAR (%)</t>
+  </si>
+  <si>
+    <t>Incremental VAR ($)</t>
   </si>
 </sst>
 </file>
@@ -184,18 +208,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,15 +242,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -244,7 +253,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -252,11 +261,22 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -265,33 +285,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -628,15 +643,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01459725-195C-44BF-BB40-92DBD6C056FA}">
-  <dimension ref="A1:N269"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -645,27 +660,31 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -683,8 +702,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -707,7 +726,7 @@
       <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1">
@@ -720,8 +739,8 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -763,8 +782,8 @@
         <v>2.4952169150953811E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -806,15 +825,15 @@
         <v>1.5796255616744689E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <f>SUM(B3:B5)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>6000</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="12">
         <f>SUM(D3:D5)</f>
         <v>2752430.0537109366</v>
       </c>
@@ -831,174 +850,160 @@
         <f>VARP('Portfolio VAR'!$D$18:$D$269)</f>
         <v>3.5365141235931972E-4</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="11">
         <f>K3*K5</f>
         <v>3.6805275587015122E-2</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="11">
         <f t="shared" ref="L6:M6" si="0">L3*L5</f>
         <v>2.6063821767628736E-2</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="11">
         <f t="shared" si="0"/>
         <v>2.0219207189433201E-2</v>
       </c>
-      <c r="N6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>0.99</v>
-      </c>
-      <c r="L8">
-        <v>0.95</v>
-      </c>
-      <c r="M8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="13">
+        <f>$D$6*K6</f>
+        <v>101303.94666081386</v>
+      </c>
+      <c r="L9" s="3">
+        <f>$D$6*L6</f>
+        <v>71738.846347786632</v>
+      </c>
+      <c r="M9" s="3">
+        <f>$D$6*M6</f>
+        <v>55651.953530404178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.STDEV.S(A18:A269)</f>
+        <v>1.5827690982397818E-2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="K12" s="14">
+        <f>$B$15*K11*$B$3</f>
+        <v>4.0483438844711962E-3</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" ref="L12:M12" si="1">$B$15*L11*$B$3</f>
+        <v>2.8668529653980571E-3</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2239829064906141E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.COVARIANCE.S(B18:B269,$A$18:$A$269)</f>
+        <v>3.9561638205193645E-5</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.COVARIANCE.S(C18:C269,$A$18:$A$269)</f>
+        <v>3.9860248475870168E-4</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.COVARIANCE.S(D18:D269,$A$18:$A$269)</f>
+        <v>2.2234876165872468E-4</v>
+      </c>
+      <c r="J13" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <f>VARP('Portfolio VAR'!$F$18:$F$269)</f>
-        <v>2.0491418582103136E-5</v>
-      </c>
-      <c r="G10">
-        <v>9.883259668719173E-6</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1.4815129873943736E-6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" cm="1">
-        <f t="array" ref="K10">MMULT(MMULT(TRANSPOSE($B$3:$B$5),$F$10:$H$12), $B$3:$B$5)</f>
-        <v>4.5080963464251545E-5</v>
-      </c>
-      <c r="L10" cm="1">
-        <f t="array" ref="L10">MMULT(MMULT(TRANSPOSE($B$3:$B$5),$F$10:$H$12), $B$3:$B$5)</f>
-        <v>4.5080963464251545E-5</v>
-      </c>
-      <c r="M10" cm="1">
-        <f t="array" ref="M10">MMULT(MMULT(TRANSPOSE($B$3:$B$5),$F$10:$H$12), $B$3:$B$5)</f>
-        <v>4.5080963464251545E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>9.883259668719173E-6</v>
-      </c>
-      <c r="G11">
-        <f>VARP('Portfolio VAR'!$G$18:$G$269)</f>
-        <v>1.7130394784964511E-4</v>
-      </c>
-      <c r="H11">
-        <v>2.4400340678834549E-5</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <f>SQRT($K$10)</f>
-        <v>6.7142358808915514E-3</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11:M11" si="1">SQRT($K$10)</f>
-        <v>6.7142358808915514E-3</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>6.7142358808915514E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1.4815129873943736E-6</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2.4400340678834549E-5</v>
-      </c>
-      <c r="H12" s="10">
-        <f>VARP('Portfolio VAR'!$H$18:$H$269)</f>
-        <v>6.4167171185979682E-5</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="14">
-        <f>K9*K11</f>
-        <v>1.5644169602477314E-2</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" ref="L12" si="2">L9*L11</f>
-        <v>1.107848920347106E-2</v>
-      </c>
-      <c r="M12" s="14">
-        <f>M9*M11</f>
-        <v>8.5942219275411853E-3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
+      <c r="K13" s="14">
+        <f>$C$15*$B$4*K11</f>
+        <v>2.4213449522333716E-2</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" ref="L13:M13" si="2">$C$15*$B$4*L11</f>
+        <v>1.7146863395644047E-2</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="2"/>
+        <v>1.3301809179651141E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B14">
         <f>SLOPE(_xlfn.ANCHORARRAY(B18),'SPY Data'!$C$3:$C$254)</f>
@@ -1012,87 +1017,72 @@
         <f>SLOPE(_xlfn.ANCHORARRAY(D18),'SPY Data'!$C$3:$C$254)</f>
         <v>0.59978867061257335</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="14">
+        <f>$D$15*$B$5*K11</f>
+        <v>2.1952148576755513E-2</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" ref="L14:M14" si="3">$D$15*$B$5*L11</f>
+        <v>1.5545512940620855E-2</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="3"/>
+        <v>1.2059549432724057E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <f>_xlfn.STDEV.S(_xlfn.ANCHORARRAY(B18))</f>
         <v>1.0404111650873007E-2</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15" si="3">_xlfn.STDEV.S(_xlfn.ANCHORARRAY(C18))</f>
+        <f t="shared" ref="C15" si="4">_xlfn.STDEV.S(_xlfn.ANCHORARRAY(C18))</f>
         <v>3.1207322587394754E-2</v>
       </c>
       <c r="D15">
         <f>_xlfn.STDEV.S(_xlfn.ANCHORARRAY(D18))</f>
         <v>1.8843045988631339E-2</v>
       </c>
-      <c r="F15">
-        <f>_xlfn.STDEV.S(F18:F269)</f>
-        <v>4.5357532670946867E-3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:H15" si="4">_xlfn.STDEV.S(G18:G269)</f>
-        <v>1.3114359827976799E-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>8.0263825778692007E-3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="18">
-        <f>$D$6*K6</f>
-        <v>101303.94666081386</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" ref="L15:M15" si="5">$D$6*L6</f>
-        <v>71738.846347786632</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="5"/>
-        <v>55651.953530404178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="18">
-        <f>$D$6*K12</f>
-        <v>43059.482579209638</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" ref="L16:M16" si="6">$D$6*L12</f>
-        <v>30492.76663334588</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="6"/>
-        <v>23654.994721625895</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,18 +1092,40 @@
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="13">
+        <f>$B$15*K16*$C$3*'JPM Data'!$B$254</f>
+        <v>4899.4657782118802</v>
+      </c>
+      <c r="L17" s="13">
+        <f>$B$15*L16*$C$3*'JPM Data'!$B$254</f>
+        <v>3469.5787699783705</v>
+      </c>
+      <c r="M17" s="13">
+        <f>$B$15*M16*$C$3*'JPM Data'!$B$254</f>
+        <v>2691.5520154983724</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0.25</v>
+      </c>
+      <c r="Q17">
+        <f>P17-B3</f>
+        <v>8.299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f>$B$3*B18+$B$4*C18+$B$5*D18</f>
+        <v>4.3291173011057969E-3</v>
+      </c>
       <c r="B18" s="4" cm="1">
         <f t="array" ref="B18:B269">'JPM Data'!C3:C254</f>
         <v>-6.7291905055919437E-3</v>
@@ -1126,32 +1138,40 @@
         <f t="array" ref="D18:D269">'LLY Data'!C3:C254</f>
         <v>4.9250513975806591E-3</v>
       </c>
-      <c r="F18" s="4">
-        <f>'JPM Data'!D3</f>
-        <v>-2.9323275019752871E-3</v>
-      </c>
-      <c r="G18" s="4">
-        <f>'NVDA Data'!D3</f>
-        <v>3.8825918834476929E-3</v>
-      </c>
-      <c r="H18" s="4">
-        <f>'LLY Data'!D3</f>
-        <v>2.1336727234444637E-3</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="13">
+        <f>$C$15*K16*$C$4*'NVDA Data'!$B$254</f>
+        <v>13761.673644409686</v>
+      </c>
+      <c r="L18" s="13">
+        <f>$C$15*L16*$C$4*'NVDA Data'!$B$254</f>
+        <v>9745.3912074145828</v>
+      </c>
+      <c r="M18" s="13">
+        <f>$C$15*M16*$C$4*'NVDA Data'!$B$254</f>
+        <v>7560.0610578731312</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q19" si="5">P18-B4</f>
+        <v>0.16699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <f t="shared" ref="A19:A82" si="6">$B$3*B19+$B$4*C19+$B$5*D19</f>
+        <v>1.7073860082897629E-2</v>
+      </c>
       <c r="B19" s="4">
         <v>3.0747389806606545E-2</v>
       </c>
@@ -1161,35 +1181,40 @@
       <c r="D19" s="4">
         <v>1.8779510722114706E-3</v>
       </c>
-      <c r="F19" s="4">
-        <f>'JPM Data'!D4</f>
-        <v>1.3152243697482663E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <f>'NVDA Data'!D4</f>
-        <v>1.4114298006045457E-2</v>
-      </c>
-      <c r="H19" s="4">
-        <f>'LLY Data'!D4</f>
-        <v>8.148189321460558E-4</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="J19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="19">
-        <f>$B$15*K18*$B$3</f>
-        <v>4.0483438844711962E-3</v>
-      </c>
-      <c r="L19" s="19">
-        <f t="shared" ref="L19:M19" si="7">$B$15*L18*$B$3</f>
-        <v>2.8668529653980571E-3</v>
-      </c>
-      <c r="M19" s="19">
-        <f t="shared" si="7"/>
-        <v>2.2239829064906141E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K19" s="13">
+        <f>$D$15*K16*$C$5*'LLY Data'!$B$254</f>
+        <v>103660.68240978617</v>
+      </c>
+      <c r="L19" s="13">
+        <f>$D$15*L16*$C$5*'LLY Data'!$B$254</f>
+        <v>73407.779388904353</v>
+      </c>
+      <c r="M19" s="13">
+        <f>$D$15*M16*$C$5*'LLY Data'!$B$254</f>
+        <v>56946.640980483375</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>0.25</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8298367154248912E-2</v>
+      </c>
       <c r="B20" s="4">
         <v>7.5839875399242047E-3</v>
       </c>
@@ -1199,35 +1224,15 @@
       <c r="D20" s="4">
         <v>9.6009652447478545E-4</v>
       </c>
-      <c r="F20" s="4">
-        <f>'JPM Data'!D5</f>
-        <v>3.2812571008773578E-3</v>
-      </c>
-      <c r="G20" s="4">
-        <f>'NVDA Data'!D5</f>
-        <v>2.1067300612019283E-2</v>
-      </c>
-      <c r="H20" s="4">
-        <f>'LLY Data'!D5</f>
-        <v>4.1676458755643544E-4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="19">
-        <f>$C$15*$B$4*K18</f>
-        <v>2.4213449522333716E-2</v>
-      </c>
-      <c r="L20" s="19">
-        <f t="shared" ref="L20:M20" si="8">$C$15*$B$4*L18</f>
-        <v>1.7146863395644047E-2</v>
-      </c>
-      <c r="M20" s="19">
-        <f t="shared" si="8"/>
-        <v>1.3301809179651141E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <f t="shared" si="6"/>
+        <v>3.9178110662751921E-4</v>
+      </c>
       <c r="B21" s="4">
         <v>-2.2939593133978909E-3</v>
       </c>
@@ -1237,35 +1242,39 @@
       <c r="D21" s="4">
         <v>1.0253694042280959E-2</v>
       </c>
-      <c r="F21" s="4">
-        <f>'JPM Data'!D6</f>
-        <v>-9.9739830496699288E-4</v>
-      </c>
-      <c r="G21" s="4">
-        <f>'NVDA Data'!D6</f>
-        <v>-5.7132063768487945E-3</v>
-      </c>
-      <c r="H21" s="4">
-        <f>'LLY Data'!D6</f>
-        <v>4.4304471367054244E-3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="19">
-        <f>$D$15*$B$5*K18</f>
-        <v>2.1952148576755513E-2</v>
-      </c>
-      <c r="L21" s="19">
-        <f t="shared" ref="L21:M21" si="9">$D$15*$B$5*L18</f>
-        <v>1.5545512940620855E-2</v>
-      </c>
-      <c r="M21" s="19">
-        <f t="shared" si="9"/>
-        <v>1.2059549432724057E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="J21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.1799975691990729E-2</v>
+      </c>
       <c r="B22" s="4">
         <v>-8.2626380011666233E-3</v>
       </c>
@@ -1275,20 +1284,45 @@
       <c r="D22" s="4">
         <v>-1.8965628093113144E-2</v>
       </c>
-      <c r="F22" s="4">
-        <f>'JPM Data'!D7</f>
-        <v>-3.6033251609863949E-3</v>
-      </c>
-      <c r="G22" s="4">
-        <f>'NVDA Data'!D7</f>
-        <v>-1.2241401163074054E-3</v>
-      </c>
-      <c r="H22" s="4">
-        <f>'LLY Data'!D7</f>
-        <v>-8.3157762408598759E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <f>$B$14*K6</f>
+        <v>2.6402068052661543E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:M22" si="7">$B$14*L6</f>
+        <v>1.8696743470768905E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>1.4504140389444968E-2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f>K22*$Q$17</f>
+        <v>2.1913716483709079E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:R22" si="8">L22*$Q$17</f>
+        <v>1.551829708073819E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>1.2038436523239323E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.9374353120087305E-2</v>
+      </c>
       <c r="B23" s="4">
         <v>-1.0432532450489229E-2</v>
       </c>
@@ -1298,32 +1332,45 @@
       <c r="D23" s="4">
         <v>-2.4839279757294132E-2</v>
       </c>
-      <c r="F23" s="4">
-        <f>'JPM Data'!D8</f>
-        <v>-4.5545907596659914E-3</v>
-      </c>
-      <c r="G23" s="4">
-        <f>'NVDA Data'!D8</f>
-        <v>-6.8518194708954202E-3</v>
-      </c>
-      <c r="H23" s="4">
-        <f>'LLY Data'!D8</f>
-        <v>-1.0923800545344215E-2</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <f>$C$14*K6</f>
+        <v>8.7757707160498882E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:M23" si="9">$C$14*L6</f>
+        <v>6.2146015800353289E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>4.8210242560274071E-2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>$Q$18*K23</f>
+        <v>1.4655537095803311E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:R23" si="10">$Q$18*L23</f>
+        <v>1.0378384638658998E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>8.0511105075657691E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.3146395335932905E-4</v>
+      </c>
       <c r="B24" s="4">
         <v>-9.1514754631650177E-3</v>
       </c>
@@ -1333,35 +1380,45 @@
       <c r="D24" s="4">
         <v>6.0490007567903653E-3</v>
       </c>
-      <c r="F24" s="4">
-        <f>'JPM Data'!D9</f>
-        <v>-3.992732987944665E-3</v>
-      </c>
-      <c r="G24" s="4">
-        <f>'NVDA Data'!D9</f>
-        <v>-2.127989322494534E-3</v>
-      </c>
-      <c r="H24" s="4">
-        <f>'LLY Data'!D9</f>
-        <v>2.6191340400109832E-3</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="J24" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="18">
-        <f>$B$15*K23*$C$3*'JPM Data'!$B$254</f>
-        <v>4899.4657782118802</v>
-      </c>
-      <c r="L24" s="18">
-        <f>$B$15*L23*$C$3*'JPM Data'!$B$254</f>
-        <v>3469.5787699783705</v>
-      </c>
-      <c r="M24" s="18">
-        <f>$B$15*M23*$C$3*'JPM Data'!$B$254</f>
-        <v>2691.5520154983724</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <f>$D$14*K6</f>
+        <v>2.20753873158652E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:M24" si="11">$D$14*L6</f>
+        <v>1.563278500908909E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="11"/>
+        <v>1.2127251400990325E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <f>$Q$19*K24</f>
+        <v>-5.5188468289663001E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:R24" si="12">$Q$19*L24</f>
+        <v>-3.9081962522722726E-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="12"/>
+        <v>-3.0318128502475812E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <f t="shared" si="6"/>
+        <v>8.3366584720395404E-2</v>
+      </c>
       <c r="B25" s="4">
         <v>2.4383171271197403E-3</v>
       </c>
@@ -1371,35 +1428,15 @@
       <c r="D25" s="4">
         <v>3.6169964644279817E-3</v>
       </c>
-      <c r="F25" s="4">
-        <f>'JPM Data'!D10</f>
-        <v>1.0576587431026631E-3</v>
-      </c>
-      <c r="G25" s="4">
-        <f>'NVDA Data'!D10</f>
-        <v>9.4714362885423439E-2</v>
-      </c>
-      <c r="H25" s="4">
-        <f>'LLY Data'!D10</f>
-        <v>1.5680075730324476E-3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="18">
-        <f>$C$15*K23*$C$4*'NVDA Data'!$B$254</f>
-        <v>13761.673644409686</v>
-      </c>
-      <c r="L25" s="18">
-        <f>$C$15*L23*$C$4*'NVDA Data'!$B$254</f>
-        <v>9745.3912074145828</v>
-      </c>
-      <c r="M25" s="18">
-        <f>$C$15*M23*$C$4*'NVDA Data'!$B$254</f>
-        <v>7560.0610578731312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <f t="shared" si="6"/>
+        <v>8.2543932863198138E-3</v>
+      </c>
       <c r="B26" s="4">
         <v>9.3609809803306947E-3</v>
       </c>
@@ -1409,35 +1446,39 @@
       <c r="D26" s="4">
         <v>-3.5571108149969432E-3</v>
       </c>
-      <c r="F26" s="4">
-        <f>'JPM Data'!D11</f>
-        <v>4.0465121348728225E-3</v>
-      </c>
-      <c r="G26" s="4">
-        <f>'NVDA Data'!D11</f>
-        <v>1.0907894819604226E-2</v>
-      </c>
-      <c r="H26" s="4">
-        <f>'LLY Data'!D11</f>
-        <v>-1.5475877036664042E-3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="18">
-        <f>$D$15*K23*$C$5*'LLY Data'!$B$254</f>
-        <v>103660.68240978617</v>
-      </c>
-      <c r="L26" s="18">
-        <f>$D$15*L23*$C$5*'LLY Data'!$B$254</f>
-        <v>73407.779388904353</v>
-      </c>
-      <c r="M26" s="18">
-        <f>$D$15*M23*$C$5*'LLY Data'!$B$254</f>
-        <v>56946.640980483375</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2297955337589721E-2</v>
+      </c>
       <c r="B27" s="4">
         <v>3.7973146136279223E-3</v>
       </c>
@@ -1447,20 +1488,45 @@
       <c r="D27" s="4">
         <v>3.4053915318705838E-3</v>
       </c>
-      <c r="F27" s="4">
-        <f>'JPM Data'!D12</f>
-        <v>1.6460295109682296E-3</v>
-      </c>
-      <c r="G27" s="4">
-        <f>'NVDA Data'!D12</f>
-        <v>1.280064010755008E-2</v>
-      </c>
-      <c r="H27" s="4">
-        <f>'LLY Data'!D12</f>
-        <v>1.4764302638371829E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="13">
+        <f>K22*$D$6</f>
+        <v>72669.84558826701</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" ref="L27:M27" si="13">L22*$D$6</f>
+        <v>51461.478635468062</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="13"/>
+        <v>39921.63191115098</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="3">
+        <f>K27*$Q$17</f>
+        <v>6031.5971838261612</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" ref="Q27" si="14">L27*$Q$17</f>
+        <v>4271.3027267438483</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" ref="R27" si="15">M27*$Q$17</f>
+        <v>3313.495448625531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.8431571224102029E-2</v>
+      </c>
       <c r="B28" s="4">
         <v>-1.2730975662199351E-2</v>
       </c>
@@ -1470,20 +1536,45 @@
       <c r="D28" s="4">
         <v>5.1961456592234372E-3</v>
       </c>
-      <c r="F28" s="4">
-        <f>'JPM Data'!D13</f>
-        <v>-5.5644888040557224E-3</v>
-      </c>
-      <c r="G28" s="4">
-        <f>'NVDA Data'!D13</f>
-        <v>-2.5381234789168421E-2</v>
-      </c>
-      <c r="H28" s="4">
-        <f>'LLY Data'!D13</f>
-        <v>2.2508146577648607E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="13">
+        <f>K23*$D$6</f>
+        <v>241546.95063332058</v>
+      </c>
+      <c r="L28" s="3">
+        <f>L23*$D$6</f>
+        <v>171052.56160728712</v>
+      </c>
+      <c r="M28" s="3">
+        <f>M23*$D$6</f>
+        <v>132695.32051959244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
+        <f>$Q$18*K28</f>
+        <v>40338.340755764533</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" ref="Q28" si="16">$Q$18*L28</f>
+        <v>28565.777788416945</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" ref="R28" si="17">$Q$18*M28</f>
+        <v>22160.118526771934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <f t="shared" si="6"/>
+        <v>2.7525765167474243E-2</v>
+      </c>
       <c r="B29" s="4">
         <v>1.3779345845363802E-2</v>
       </c>
@@ -1493,20 +1584,45 @@
       <c r="D29" s="4">
         <v>1.6369391606138321E-2</v>
       </c>
-      <c r="F29" s="4">
-        <f>'JPM Data'!D14</f>
-        <v>5.9434389126730878E-3</v>
-      </c>
-      <c r="G29" s="4">
-        <f>'NVDA Data'!D14</f>
-        <v>2.1673340680289942E-2</v>
-      </c>
-      <c r="H29" s="4">
-        <f>'LLY Data'!D14</f>
-        <v>7.0515776133621673E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="13">
+        <f>K24*$D$6</f>
+        <v>60760.95949549658</v>
+      </c>
+      <c r="L29" s="13">
+        <f>L24*$D$6</f>
+        <v>43028.147282218612</v>
+      </c>
+      <c r="M29" s="13">
+        <f>M24*$D$6</f>
+        <v>33379.411224993833</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
+        <f>$Q$19*K29</f>
+        <v>-15190.239873874145</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" ref="Q29" si="18">$Q$19*L29</f>
+        <v>-10757.036820554653</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" ref="R29" si="19">$Q$19*M29</f>
+        <v>-8344.8528062484584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <f t="shared" si="6"/>
+        <v>6.4884098517078471E-3</v>
+      </c>
       <c r="B30" s="4">
         <v>2.1005955452725447E-2</v>
       </c>
@@ -1516,20 +1632,15 @@
       <c r="D30" s="4">
         <v>1.3379450774470661E-2</v>
       </c>
-      <c r="F30" s="4">
-        <f>'JPM Data'!D15</f>
-        <v>9.0282753021039049E-3</v>
-      </c>
-      <c r="G30" s="4">
-        <f>'NVDA Data'!D15</f>
-        <v>-4.8647815084560181E-3</v>
-      </c>
-      <c r="H30" s="4">
-        <f>'LLY Data'!D15</f>
-        <v>5.772093455995852E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <f t="shared" si="6"/>
+        <v>-7.7989499720066162E-4</v>
+      </c>
       <c r="B31" s="4">
         <v>-9.8241964178869892E-3</v>
       </c>
@@ -1539,20 +1650,27 @@
       <c r="D31" s="4">
         <v>4.3633107678642214E-3</v>
       </c>
-      <c r="F31" s="4">
-        <f>'JPM Data'!D16</f>
-        <v>-4.2876905062141212E-3</v>
-      </c>
-      <c r="G31" s="4">
-        <f>'NVDA Data'!D16</f>
-        <v>-1.7261397413156992E-3</v>
-      </c>
-      <c r="H31" s="4">
-        <f>'LLY Data'!D16</f>
-        <v>1.8908396222365961E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="J31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <f t="shared" si="6"/>
+        <v>-5.4342746339540865E-3</v>
+      </c>
       <c r="B32" s="4">
         <v>1.7973974159340503E-3</v>
       </c>
@@ -1562,20 +1680,30 @@
       <c r="D32" s="4">
         <v>-2.678617060389455E-3</v>
       </c>
-      <c r="F32" s="4">
-        <f>'JPM Data'!D17</f>
-        <v>7.7989909499406895E-4</v>
-      </c>
-      <c r="G32" s="4">
-        <f>'NVDA Data'!D17</f>
-        <v>-5.7702399608783221E-3</v>
-      </c>
-      <c r="H32" s="4">
-        <f>'LLY Data'!D17</f>
-        <v>-1.1648694254453086E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f>K6*$B$14*$B$3</f>
+        <v>4.4091453647944782E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:M32" si="20">L6*$B$14*$B$3</f>
+        <v>3.1223561596184072E-3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="20"/>
+        <v>2.4221914450373097E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.6099867662148593E-2</v>
+      </c>
       <c r="B33" s="4">
         <v>9.6885757068797505E-3</v>
       </c>
@@ -1585,20 +1713,30 @@
       <c r="D33" s="4">
         <v>-1.5121791356390019E-2</v>
       </c>
-      <c r="F33" s="4">
-        <f>'JPM Data'!D18</f>
-        <v>4.1874423887321554E-3</v>
-      </c>
-      <c r="G33" s="4">
-        <f>'NVDA Data'!D18</f>
-        <v>-1.3452810937139749E-2</v>
-      </c>
-      <c r="H33" s="4">
-        <f>'LLY Data'!D18</f>
-        <v>-6.6174716184470225E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <f>K6*$C$14*$B$4</f>
+        <v>2.9223316484446128E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:M33" si="21">L6*$C$14*$B$4</f>
+        <v>2.0694623261517647E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="21"/>
+        <v>1.6054010772571268E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <f t="shared" si="6"/>
+        <v>1.9889048954077147E-2</v>
+      </c>
       <c r="B34" s="4">
         <v>2.8426530271522096E-4</v>
       </c>
@@ -1608,20 +1746,30 @@
       <c r="D34" s="4">
         <v>2.1289292684817069E-2</v>
       </c>
-      <c r="F34" s="4">
-        <f>'JPM Data'!D19</f>
-        <v>1.2343730872494402E-4</v>
-      </c>
-      <c r="G34" s="4">
-        <f>'NVDA Data'!D19</f>
-        <v>1.1831875856871371E-2</v>
-      </c>
-      <c r="H34" s="4">
-        <f>'LLY Data'!D19</f>
-        <v>9.1487787379482769E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <f>K6*$D$14*$B$5</f>
+        <v>1.10376936579326E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:M34" si="22">L6*$D$14*$B$5</f>
+        <v>7.8163925045445452E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="22"/>
+        <v>6.0636257004951623E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <f t="shared" si="6"/>
+        <v>3.0068712539996858E-3</v>
+      </c>
       <c r="B35" s="4">
         <v>1.9896169103713109E-3</v>
       </c>
@@ -1631,20 +1779,15 @@
       <c r="D35" s="4">
         <v>8.526789025028995E-4</v>
       </c>
-      <c r="F35" s="4">
-        <f>'JPM Data'!D20</f>
-        <v>8.6322119001470054E-4</v>
-      </c>
-      <c r="G35" s="4">
-        <f>'NVDA Data'!D20</f>
-        <v>2.9223064410841128E-3</v>
-      </c>
-      <c r="H35" s="4">
-        <f>'LLY Data'!D20</f>
-        <v>3.7015595252429457E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <f t="shared" si="6"/>
+        <v>5.2852715329704935E-3</v>
+      </c>
       <c r="B36" s="4">
         <v>-7.0878003151153459E-5</v>
       </c>
@@ -1654,20 +1797,15 @@
       <c r="D36" s="4">
         <v>-1.6366491174400813E-3</v>
       </c>
-      <c r="F36" s="4">
-        <f>'JPM Data'!D21</f>
-        <v>-3.0783016589147461E-5</v>
-      </c>
-      <c r="G36" s="4">
-        <f>'NVDA Data'!D21</f>
-        <v>7.903320918927632E-3</v>
-      </c>
-      <c r="H36" s="4">
-        <f>'LLY Data'!D21</f>
-        <v>-7.1136997095454842E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <f t="shared" si="6"/>
+        <v>1.4657159689562093E-2</v>
+      </c>
       <c r="B37" s="4">
         <v>7.2340728543262385E-3</v>
       </c>
@@ -1677,20 +1815,15 @@
       <c r="D37" s="4">
         <v>9.2071515204653097E-4</v>
       </c>
-      <c r="F37" s="4">
-        <f>'JPM Data'!D22</f>
-        <v>3.1304087224484217E-3</v>
-      </c>
-      <c r="G37" s="4">
-        <f>'NVDA Data'!D22</f>
-        <v>1.6617696444962131E-2</v>
-      </c>
-      <c r="H37" s="4">
-        <f>'LLY Data'!D22</f>
-        <v>3.9967754357480206E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <f t="shared" si="6"/>
+        <v>1.7652610164051324E-2</v>
+      </c>
       <c r="B38" s="4">
         <v>-3.7318600433162313E-3</v>
       </c>
@@ -1700,20 +1833,15 @@
       <c r="D38" s="4">
         <v>4.4871219476858943E-3</v>
       </c>
-      <c r="F38" s="4">
-        <f>'JPM Data'!D23</f>
-        <v>-1.6237579307194954E-3</v>
-      </c>
-      <c r="G38" s="4">
-        <f>'NVDA Data'!D23</f>
-        <v>2.0421348053909716E-2</v>
-      </c>
-      <c r="H38" s="4">
-        <f>'LLY Data'!D23</f>
-        <v>1.9443732366728522E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <f t="shared" si="6"/>
+        <v>6.1593907957802566E-3</v>
+      </c>
       <c r="B39" s="4">
         <v>1.130815451698669E-2</v>
       </c>
@@ -1723,20 +1851,15 @@
       <c r="D39" s="4">
         <v>1.3870256942165968E-2</v>
       </c>
-      <c r="F39" s="4">
-        <f>'JPM Data'!D24</f>
-        <v>4.8835091168845778E-3</v>
-      </c>
-      <c r="G39" s="4">
-        <f>'NVDA Data'!D24</f>
-        <v>-3.4885901028349491E-3</v>
-      </c>
-      <c r="H39" s="4">
-        <f>'LLY Data'!D24</f>
-        <v>5.9823827101192772E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <f t="shared" si="6"/>
+        <v>-6.3483818398488321E-3</v>
+      </c>
       <c r="B40" s="4">
         <v>1.18805069044498E-3</v>
       </c>
@@ -1746,20 +1869,15 @@
       <c r="D40" s="4">
         <v>-1.370255616739042E-2</v>
       </c>
-      <c r="F40" s="4">
-        <f>'JPM Data'!D25</f>
-        <v>5.1565760601084555E-4</v>
-      </c>
-      <c r="G40" s="4">
-        <f>'NVDA Data'!D25</f>
-        <v>3.9693296396124266E-4</v>
-      </c>
-      <c r="H40" s="4">
-        <f>'LLY Data'!D25</f>
-        <v>-5.9920924272648217E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2589107525347459E-2</v>
+      </c>
       <c r="B41" s="4">
         <v>-5.0956006947506707E-3</v>
       </c>
@@ -1769,20 +1887,15 @@
       <c r="D41" s="4">
         <v>9.47046264965575E-3</v>
       </c>
-      <c r="F41" s="4">
-        <f>'JPM Data'!D26</f>
-        <v>-2.2186487506692227E-3</v>
-      </c>
-      <c r="G41" s="4">
-        <f>'NVDA Data'!D26</f>
-        <v>1.1206898728271734E-2</v>
-      </c>
-      <c r="H41" s="4">
-        <f>'LLY Data'!D26</f>
-        <v>4.0936159037922573E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <f t="shared" si="6"/>
+        <v>-4.8842590352714977E-3</v>
+      </c>
       <c r="B42" s="4">
         <v>-1.4733140873953786E-3</v>
       </c>
@@ -1792,20 +1905,15 @@
       <c r="D42" s="4">
         <v>2.3232387755484666E-3</v>
       </c>
-      <c r="F42" s="4">
-        <f>'JPM Data'!D27</f>
-        <v>-6.4032399335833693E-4</v>
-      </c>
-      <c r="G42" s="4">
-        <f>'NVDA Data'!D27</f>
-        <v>-7.6307194623996067E-3</v>
-      </c>
-      <c r="H42" s="4">
-        <f>'LLY Data'!D27</f>
-        <v>1.0077995536327852E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <f t="shared" si="6"/>
+        <v>1.7957037496032389E-3</v>
+      </c>
       <c r="B43" s="4">
         <v>-1.925242658906012E-2</v>
       </c>
@@ -1815,20 +1923,15 @@
       <c r="D43" s="4">
         <v>1.0331109659560756E-2</v>
       </c>
-      <c r="F43" s="4">
-        <f>'JPM Data'!D28</f>
-        <v>-8.4427577388724567E-3</v>
-      </c>
-      <c r="G43" s="4">
-        <f>'NVDA Data'!D28</f>
-        <v>-2.0179927796844048E-4</v>
-      </c>
-      <c r="H43" s="4">
-        <f>'LLY Data'!D28</f>
-        <v>4.4637257947974874E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <f t="shared" si="6"/>
+        <v>-5.9217342024927011E-3</v>
+      </c>
       <c r="B44" s="4">
         <v>-5.2299449631945409E-3</v>
       </c>
@@ -1838,20 +1941,15 @@
       <c r="D44" s="4">
         <v>2.5345299787459135E-3</v>
       </c>
-      <c r="F44" s="4">
-        <f>'JPM Data'!D29</f>
-        <v>-2.2772965102781629E-3</v>
-      </c>
-      <c r="G44" s="4">
-        <f>'NVDA Data'!D29</f>
-        <v>-8.3158350375986713E-3</v>
-      </c>
-      <c r="H44" s="4">
-        <f>'LLY Data'!D29</f>
-        <v>1.0993398168805215E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.8657906129892207E-2</v>
+      </c>
       <c r="B45" s="4">
         <v>2.4486591497700156E-3</v>
       </c>
@@ -1861,20 +1959,15 @@
       <c r="D45" s="4">
         <v>-1.3250777222541199E-2</v>
       </c>
-      <c r="F45" s="4">
-        <f>'JPM Data'!D30</f>
-        <v>1.062139278336734E-3</v>
-      </c>
-      <c r="G45" s="4">
-        <f>'NVDA Data'!D30</f>
-        <v>-1.653685986987084E-2</v>
-      </c>
-      <c r="H45" s="4">
-        <f>'LLY Data'!D30</f>
-        <v>-5.7932070085492011E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3172117912956827E-2</v>
+      </c>
       <c r="B46" s="4">
         <v>7.1804775204323116E-5</v>
       </c>
@@ -1884,20 +1977,15 @@
       <c r="D46" s="4">
         <v>2.5929830332083223E-2</v>
       </c>
-      <c r="F46" s="4">
-        <f>'JPM Data'!D31</f>
-        <v>3.1183298104120906E-5</v>
-      </c>
-      <c r="G46" s="4">
-        <f>'NVDA Data'!D31</f>
-        <v>1.3096985941280399E-2</v>
-      </c>
-      <c r="H46" s="4">
-        <f>'LLY Data'!D31</f>
-        <v>1.1117657713699868E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.3010680876802721E-2</v>
+      </c>
       <c r="B47" s="4">
         <v>-4.3821883888316617E-3</v>
       </c>
@@ -1907,20 +1995,15 @@
       <c r="D47" s="4">
         <v>-1.2486518391752374E-2</v>
       </c>
-      <c r="F47" s="4">
-        <f>'JPM Data'!D32</f>
-        <v>-1.9073424619479331E-3</v>
-      </c>
-      <c r="G47" s="4">
-        <f>'NVDA Data'!D32</f>
-        <v>-7.9437593885504851E-3</v>
-      </c>
-      <c r="H47" s="4">
-        <f>'LLY Data'!D32</f>
-        <v>-5.4569666401324771E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <f t="shared" si="6"/>
+        <v>9.7542792292219169E-3</v>
+      </c>
       <c r="B48" s="4">
         <v>3.4923129127522441E-2</v>
       </c>
@@ -1930,20 +2013,15 @@
       <c r="D48" s="4">
         <v>1.2622580931457903E-2</v>
       </c>
-      <c r="F48" s="4">
-        <f>'JPM Data'!D33</f>
-        <v>1.4908092946987413E-2</v>
-      </c>
-      <c r="G48" s="4">
-        <f>'NVDA Data'!D33</f>
-        <v>-3.1271626084947652E-3</v>
-      </c>
-      <c r="H48" s="4">
-        <f>'LLY Data'!D33</f>
-        <v>5.4476076889662757E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <f t="shared" si="6"/>
+        <v>1.924649583495372E-2</v>
+      </c>
       <c r="B49" s="4">
         <v>1.4013873445343919E-2</v>
       </c>
@@ -1953,20 +2031,15 @@
       <c r="D49" s="4">
         <v>9.6665608438352164E-3</v>
       </c>
-      <c r="F49" s="4">
-        <f>'JPM Data'!D34</f>
-        <v>6.0438969298027634E-3</v>
-      </c>
-      <c r="G49" s="4">
-        <f>'NVDA Data'!D34</f>
-        <v>1.5466618357210705E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <f>'LLY Data'!D34</f>
-        <v>4.1779730949290722E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <f t="shared" si="6"/>
+        <v>-5.8428149514876231E-3</v>
+      </c>
       <c r="B50" s="4">
         <v>8.0445417306449912E-3</v>
       </c>
@@ -1976,20 +2049,15 @@
       <c r="D50" s="4">
         <v>-1.6120084825565043E-2</v>
       </c>
-      <c r="F50" s="4">
-        <f>'JPM Data'!D35</f>
-        <v>3.4797223877332402E-3</v>
-      </c>
-      <c r="G50" s="4">
-        <f>'NVDA Data'!D35</f>
-        <v>1.1380922781064054E-3</v>
-      </c>
-      <c r="H50" s="4">
-        <f>'LLY Data'!D35</f>
-        <v>-7.0579049829072853E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <f t="shared" si="6"/>
+        <v>1.640167062186784E-3</v>
+      </c>
       <c r="B51" s="4">
         <v>-1.3437018024020773E-2</v>
       </c>
@@ -1999,20 +2067,15 @@
       <c r="D51" s="4">
         <v>9.2757111844854225E-3</v>
       </c>
-      <c r="F51" s="4">
-        <f>'JPM Data'!D36</f>
-        <v>-5.875184257190475E-3</v>
-      </c>
-      <c r="G51" s="4">
-        <f>'NVDA Data'!D36</f>
-        <v>-9.8408882813813808E-4</v>
-      </c>
-      <c r="H51" s="4">
-        <f>'LLY Data'!D36</f>
-        <v>4.0098218260377471E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <f t="shared" si="6"/>
+        <v>-6.008482897140871E-3</v>
+      </c>
       <c r="B52" s="4">
         <v>-9.8865644483912257E-3</v>
       </c>
@@ -2022,20 +2085,15 @@
       <c r="D52" s="4">
         <v>-5.3468341994503763E-3</v>
       </c>
-      <c r="F52" s="4">
-        <f>'JPM Data'!D37</f>
-        <v>-4.3150461984724376E-3</v>
-      </c>
-      <c r="G52" s="4">
-        <f>'NVDA Data'!D37</f>
-        <v>-2.2018365518349939E-3</v>
-      </c>
-      <c r="H52" s="4">
-        <f>'LLY Data'!D37</f>
-        <v>-2.3283307495757751E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <f t="shared" si="6"/>
+        <v>-7.5326398491542945E-3</v>
+      </c>
       <c r="B53" s="4">
         <v>7.8904376164210775E-3</v>
       </c>
@@ -2045,20 +2103,15 @@
       <c r="D53" s="4">
         <v>-2.4027989655081516E-2</v>
       </c>
-      <c r="F53" s="4">
-        <f>'JPM Data'!D38</f>
-        <v>3.4133248429095817E-3</v>
-      </c>
-      <c r="G53" s="4">
-        <f>'NVDA Data'!D38</f>
-        <v>4.1065195168242495E-3</v>
-      </c>
-      <c r="H53" s="4">
-        <f>'LLY Data'!D38</f>
-        <v>-1.056263717660375E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <f t="shared" si="6"/>
+        <v>-3.989489187854738E-4</v>
+      </c>
       <c r="B54" s="4">
         <v>5.6117332627462265E-3</v>
       </c>
@@ -2068,20 +2121,15 @@
       <c r="D54" s="4">
         <v>2.3889955802574255E-3</v>
       </c>
-      <c r="F54" s="4">
-        <f>'JPM Data'!D39</f>
-        <v>2.4303319626443908E-3</v>
-      </c>
-      <c r="G54" s="4">
-        <f>'NVDA Data'!D39</f>
-        <v>-3.3129896651346719E-3</v>
-      </c>
-      <c r="H54" s="4">
-        <f>'LLY Data'!D39</f>
-        <v>1.0362902436714743E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.0805276184082727E-2</v>
+      </c>
       <c r="B55" s="4">
         <v>1.5639024236403919E-2</v>
       </c>
@@ -2091,20 +2139,15 @@
       <c r="D55" s="4">
         <v>-3.0386593923543495E-2</v>
       </c>
-      <c r="F55" s="4">
-        <f>'JPM Data'!D40</f>
-        <v>6.7393795637632186E-3</v>
-      </c>
-      <c r="G55" s="4">
-        <f>'NVDA Data'!D40</f>
-        <v>2.3104764976398127E-3</v>
-      </c>
-      <c r="H55" s="4">
-        <f>'LLY Data'!D40</f>
-        <v>-1.3401388490516442E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <f t="shared" si="6"/>
+        <v>1.3959577340101215E-2</v>
+      </c>
       <c r="B56" s="4">
         <v>4.9518093651203425E-3</v>
       </c>
@@ -2114,20 +2157,15 @@
       <c r="D56" s="4">
         <v>2.7537982538045269E-3</v>
       </c>
-      <c r="F56" s="4">
-        <f>'JPM Data'!D41</f>
-        <v>2.1452364544142471E-3</v>
-      </c>
-      <c r="G56" s="4">
-        <f>'NVDA Data'!D41</f>
-        <v>1.5067254600245765E-2</v>
-      </c>
-      <c r="H56" s="4">
-        <f>'LLY Data'!D41</f>
-        <v>1.1943156873858241E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <f t="shared" si="6"/>
+        <v>9.8552409648463325E-3</v>
+      </c>
       <c r="B57" s="4">
         <v>4.8599476906226891E-3</v>
       </c>
@@ -2137,20 +2175,15 @@
       <c r="D57" s="4">
         <v>-1.33908166471923E-2</v>
       </c>
-      <c r="F57" s="4">
-        <f>'JPM Data'!D42</f>
-        <v>2.105536200676036E-3</v>
-      </c>
-      <c r="G57" s="4">
-        <f>'NVDA Data'!D42</f>
-        <v>2.0056331734582784E-2</v>
-      </c>
-      <c r="H57" s="4">
-        <f>'LLY Data'!D42</f>
-        <v>-5.8548464444347983E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <f t="shared" si="6"/>
+        <v>1.4307503701459718E-2</v>
+      </c>
       <c r="B58" s="4">
         <v>6.0456047880202111E-3</v>
       </c>
@@ -2160,20 +2193,15 @@
       <c r="D58" s="4">
         <v>3.3954402653702649E-2</v>
       </c>
-      <c r="F58" s="4">
-        <f>'JPM Data'!D43</f>
-        <v>2.6176680547699838E-3</v>
-      </c>
-      <c r="G58" s="4">
-        <f>'NVDA Data'!D43</f>
-        <v>-4.8252216029591047E-3</v>
-      </c>
-      <c r="H58" s="4">
-        <f>'LLY Data'!D43</f>
-        <v>1.4501386811571138E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <f t="shared" si="6"/>
+        <v>8.7095146889770228E-3</v>
+      </c>
       <c r="B59" s="4">
         <v>2.4103628946853164E-2</v>
       </c>
@@ -2183,20 +2211,15 @@
       <c r="D59" s="4">
         <v>-5.1616981505525098E-3</v>
       </c>
-      <c r="F59" s="4">
-        <f>'JPM Data'!D44</f>
-        <v>1.0343905079906617E-2</v>
-      </c>
-      <c r="G59" s="4">
-        <f>'NVDA Data'!D44</f>
-        <v>9.3731196031654872E-3</v>
-      </c>
-      <c r="H59" s="4">
-        <f>'LLY Data'!D44</f>
-        <v>-2.2475024917247895E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2248654206039541E-2</v>
+      </c>
       <c r="B60" s="4">
         <v>1.8255233432216056E-3</v>
       </c>
@@ -2206,20 +2229,15 @@
       <c r="D60" s="4">
         <v>9.0799244656871066E-3</v>
       </c>
-      <c r="F60" s="4">
-        <f>'JPM Data'!D45</f>
-        <v>7.9209194315294515E-4</v>
-      </c>
-      <c r="G60" s="4">
-        <f>'NVDA Data'!D45</f>
-        <v>9.5502037872002305E-3</v>
-      </c>
-      <c r="H60" s="4">
-        <f>'LLY Data'!D45</f>
-        <v>3.9255660186182191E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <f t="shared" si="6"/>
+        <v>3.3269126669237216E-4</v>
+      </c>
       <c r="B61" s="4">
         <v>3.839622047571782E-3</v>
       </c>
@@ -2229,20 +2247,15 @@
       <c r="D61" s="4">
         <v>5.2304638468828766E-3</v>
       </c>
-      <c r="F61" s="4">
-        <f>'JPM Data'!D46</f>
-        <v>1.6643335028629221E-3</v>
-      </c>
-      <c r="G61" s="4">
-        <f>'NVDA Data'!D46</f>
-        <v>-3.8299667926841368E-3</v>
-      </c>
-      <c r="H61" s="4">
-        <f>'LLY Data'!D46</f>
-        <v>2.2656415601352113E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <f t="shared" si="6"/>
+        <v>2.3541139072258167E-3</v>
+      </c>
       <c r="B62" s="4">
         <v>1.2317626557432775E-2</v>
       </c>
@@ -2252,20 +2265,15 @@
       <c r="D62" s="4">
         <v>2.2621064072784691E-2</v>
       </c>
-      <c r="F62" s="4">
-        <f>'JPM Data'!D47</f>
-        <v>5.3167988854442164E-3</v>
-      </c>
-      <c r="G62" s="4">
-        <f>'NVDA Data'!D47</f>
-        <v>-1.460651861839588E-2</v>
-      </c>
-      <c r="H62" s="4">
-        <f>'LLY Data'!D47</f>
-        <v>9.7147341330961236E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.206127073253048E-2</v>
+      </c>
       <c r="B63" s="4">
         <v>-7.6848991043670933E-3</v>
       </c>
@@ -2275,20 +2283,15 @@
       <c r="D63" s="4">
         <v>-3.8376929653505427E-3</v>
       </c>
-      <c r="F63" s="4">
-        <f>'JPM Data'!D48</f>
-        <v>-3.35039956890139E-3</v>
-      </c>
-      <c r="G63" s="4">
-        <f>'NVDA Data'!D48</f>
-        <v>-1.1710327653417419E-2</v>
-      </c>
-      <c r="H63" s="4">
-        <f>'LLY Data'!D48</f>
-        <v>-1.669895204074063E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <f t="shared" si="6"/>
+        <v>2.6209012195789741E-3</v>
+      </c>
       <c r="B64" s="4">
         <v>1.9683789040517409E-2</v>
       </c>
@@ -2298,20 +2301,15 @@
       <c r="D64" s="4">
         <v>-5.8869387291134636E-3</v>
       </c>
-      <c r="F64" s="4">
-        <f>'JPM Data'!D49</f>
-        <v>8.4655149326005215E-3</v>
-      </c>
-      <c r="G64" s="4">
-        <f>'NVDA Data'!D49</f>
-        <v>2.9597586740230781E-3</v>
-      </c>
-      <c r="H64" s="4">
-        <f>'LLY Data'!D49</f>
-        <v>-2.5642201361285436E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <f t="shared" si="6"/>
+        <v>4.7796285076654775E-3</v>
+      </c>
       <c r="B65" s="4">
         <v>-7.4683080745695501E-3</v>
       </c>
@@ -2321,20 +2319,15 @@
       <c r="D65" s="4">
         <v>-3.8752911933151424E-3</v>
       </c>
-      <c r="F65" s="4">
-        <f>'JPM Data'!D50</f>
-        <v>-3.2556171506468471E-3</v>
-      </c>
-      <c r="G65" s="4">
-        <f>'NVDA Data'!D50</f>
-        <v>1.0264907160528049E-2</v>
-      </c>
-      <c r="H65" s="4">
-        <f>'LLY Data'!D50</f>
-        <v>-1.6862871223132063E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <f t="shared" si="6"/>
+        <v>-4.9704082564774104E-3</v>
+      </c>
       <c r="B66" s="4">
         <v>5.9940513883130304E-3</v>
       </c>
@@ -2344,20 +2337,15 @@
       <c r="D66" s="4">
         <v>-8.6331514911514289E-3</v>
       </c>
-      <c r="F66" s="4">
-        <f>'JPM Data'!D51</f>
-        <v>2.5954126713312346E-3</v>
-      </c>
-      <c r="G66" s="4">
-        <f>'NVDA Data'!D51</f>
-        <v>-2.1636011372990266E-3</v>
-      </c>
-      <c r="H66" s="4">
-        <f>'LLY Data'!D51</f>
-        <v>-3.7656080760150811E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <f t="shared" si="6"/>
+        <v>2.9835811597478503E-3</v>
+      </c>
       <c r="B67" s="4">
         <v>-1.1029350246964E-2</v>
       </c>
@@ -2367,20 +2355,15 @@
       <c r="D67" s="4">
         <v>3.0864743662514802E-3</v>
       </c>
-      <c r="F67" s="4">
-        <f>'JPM Data'!D52</f>
-        <v>-4.8165970170187004E-3</v>
-      </c>
-      <c r="G67" s="4">
-        <f>'NVDA Data'!D52</f>
-        <v>4.2597051764979551E-3</v>
-      </c>
-      <c r="H67" s="4">
-        <f>'LLY Data'!D52</f>
-        <v>1.3383744174787788E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <f t="shared" si="6"/>
+        <v>1.0954561003345789E-2</v>
+      </c>
       <c r="B68" s="4">
         <v>5.7043928039816425E-3</v>
       </c>
@@ -2390,20 +2373,15 @@
       <c r="D68" s="4">
         <v>7.6705440270350292E-3</v>
       </c>
-      <c r="F68" s="4">
-        <f>'JPM Data'!D53</f>
-        <v>2.470347082059138E-3</v>
-      </c>
-      <c r="G68" s="4">
-        <f>'NVDA Data'!D53</f>
-        <v>7.9689152337856835E-3</v>
-      </c>
-      <c r="H68" s="4">
-        <f>'LLY Data'!D53</f>
-        <v>3.3185635593514307E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <f t="shared" si="6"/>
+        <v>-3.317985846360237E-3</v>
+      </c>
       <c r="B69" s="4">
         <v>6.6917534080176699E-3</v>
       </c>
@@ -2413,20 +2391,15 @@
       <c r="D69" s="4">
         <v>-8.5718528598560748E-3</v>
       </c>
-      <c r="F69" s="4">
-        <f>'JPM Data'!D54</f>
-        <v>2.8965109834331228E-3</v>
-      </c>
-      <c r="G69" s="4">
-        <f>'NVDA Data'!D54</f>
-        <v>-1.9512713023514715E-4</v>
-      </c>
-      <c r="H69" s="4">
-        <f>'LLY Data'!D54</f>
-        <v>-3.7387554186433546E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <f t="shared" si="6"/>
+        <v>-4.0126448571392867E-3</v>
+      </c>
       <c r="B70" s="4">
         <v>-4.9380476382160001E-3</v>
       </c>
@@ -2436,20 +2409,15 @@
       <c r="D70" s="4">
         <v>-3.2119491679383511E-3</v>
       </c>
-      <c r="F70" s="4">
-        <f>'JPM Data'!D55</f>
-        <v>-2.1498793233413302E-3</v>
-      </c>
-      <c r="G70" s="4">
-        <f>'NVDA Data'!D55</f>
-        <v>-2.0681627297920342E-3</v>
-      </c>
-      <c r="H70" s="4">
-        <f>'LLY Data'!D55</f>
-        <v>-1.3971768333843173E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.6381826585950388E-2</v>
+      </c>
       <c r="B71" s="4">
         <v>-1.132458876600558E-2</v>
       </c>
@@ -2459,20 +2427,15 @@
       <c r="D71" s="4">
         <v>3.0678555246702334E-3</v>
       </c>
-      <c r="F71" s="4">
-        <f>'JPM Data'!D56</f>
-        <v>-4.9462667927657206E-3</v>
-      </c>
-      <c r="G71" s="4">
-        <f>'NVDA Data'!D56</f>
-        <v>-2.1418603731258087E-2</v>
-      </c>
-      <c r="H71" s="4">
-        <f>'LLY Data'!D56</f>
-        <v>1.3303131631296197E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <f t="shared" si="6"/>
+        <v>-2.9814763155379467E-3</v>
+      </c>
       <c r="B72" s="4">
         <v>6.1133349056874623E-3</v>
       </c>
@@ -2482,20 +2445,15 @@
       <c r="D72" s="4">
         <v>-1.1705701451364986E-2</v>
       </c>
-      <c r="F72" s="4">
-        <f>'JPM Data'!D57</f>
-        <v>2.6469051252542195E-3</v>
-      </c>
-      <c r="G72" s="4">
-        <f>'NVDA Data'!D57</f>
-        <v>2.4066501402356072E-3</v>
-      </c>
-      <c r="H72" s="4">
-        <f>'LLY Data'!D57</f>
-        <v>-5.1137100646238597E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <f t="shared" si="6"/>
+        <v>1.2491669942509634E-3</v>
+      </c>
       <c r="B73" s="4">
         <v>-2.1106608133837556E-3</v>
       </c>
@@ -2505,20 +2463,15 @@
       <c r="D73" s="4">
         <v>7.346748810570029E-4</v>
       </c>
-      <c r="F73" s="4">
-        <f>'JPM Data'!D58</f>
-        <v>-9.1761707463939527E-4</v>
-      </c>
-      <c r="G73" s="4">
-        <f>'NVDA Data'!D58</f>
-        <v>1.6067956524257166E-3</v>
-      </c>
-      <c r="H73" s="4">
-        <f>'LLY Data'!D58</f>
-        <v>3.1894809959811491E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <f t="shared" si="6"/>
+        <v>1.1390706723068727E-2</v>
+      </c>
       <c r="B74" s="4">
         <v>4.7429189470008237E-3</v>
       </c>
@@ -2528,20 +2481,15 @@
       <c r="D74" s="4">
         <v>1.0211565190799163E-2</v>
       </c>
-      <c r="F74" s="4">
-        <f>'JPM Data'!D59</f>
-        <v>2.05495412948151E-3</v>
-      </c>
-      <c r="G74" s="4">
-        <f>'NVDA Data'!D59</f>
-        <v>7.1052745389200674E-3</v>
-      </c>
-      <c r="H74" s="4">
-        <f>'LLY Data'!D59</f>
-        <v>4.4123361321766301E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <f t="shared" si="6"/>
+        <v>6.7889623240646652E-2</v>
+      </c>
       <c r="B75" s="4">
         <v>-5.613610964911345E-3</v>
       </c>
@@ -2551,20 +2499,15 @@
       <c r="D75" s="4">
         <v>0.14869624517777885</v>
       </c>
-      <c r="F75" s="4">
-        <f>'JPM Data'!D60</f>
-        <v>-2.4448288630021776E-3</v>
-      </c>
-      <c r="G75" s="4">
-        <f>'NVDA Data'!D60</f>
-        <v>-7.2608128629183801E-3</v>
-      </c>
-      <c r="H75" s="4">
-        <f>'LLY Data'!D60</f>
-        <v>6.0205201461503141E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.3532300383736279E-2</v>
+      </c>
       <c r="B76" s="4">
         <v>-1.3407823525866813E-2</v>
       </c>
@@ -2574,20 +2517,15 @@
       <c r="D76" s="4">
         <v>8.8765435190288483E-3</v>
       </c>
-      <c r="F76" s="4">
-        <f>'JPM Data'!D61</f>
-        <v>-5.8623327493941097E-3</v>
-      </c>
-      <c r="G76" s="4">
-        <f>'NVDA Data'!D61</f>
-        <v>-2.1017231120171013E-2</v>
-      </c>
-      <c r="H76" s="4">
-        <f>'LLY Data'!D61</f>
-        <v>3.8380247613528642E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <f t="shared" si="6"/>
+        <v>-6.1949761287650087E-3</v>
+      </c>
       <c r="B77" s="4">
         <v>-1.4955181583957914E-3</v>
       </c>
@@ -2597,20 +2535,15 @@
       <c r="D77" s="4">
         <v>-9.292426875652772E-3</v>
       </c>
-      <c r="F77" s="4">
-        <f>'JPM Data'!D62</f>
-        <v>-6.4998143453137832E-4</v>
-      </c>
-      <c r="G77" s="4">
-        <f>'NVDA Data'!D62</f>
-        <v>-1.6974672995518955E-3</v>
-      </c>
-      <c r="H77" s="4">
-        <f>'LLY Data'!D62</f>
-        <v>-4.0545171795054527E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <f t="shared" si="6"/>
+        <v>-4.4194289126555028E-3</v>
+      </c>
       <c r="B78" s="4">
         <v>5.7957762685518768E-3</v>
       </c>
@@ -2620,20 +2553,15 @@
       <c r="D78" s="4">
         <v>1.3311854229314787E-2</v>
       </c>
-      <c r="F78" s="4">
-        <f>'JPM Data'!D63</f>
-        <v>2.5098075156574362E-3</v>
-      </c>
-      <c r="G78" s="4">
-        <f>'NVDA Data'!D63</f>
-        <v>-1.5997720697453768E-2</v>
-      </c>
-      <c r="H78" s="4">
-        <f>'LLY Data'!D63</f>
-        <v>5.7431232753912664E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <f t="shared" si="6"/>
+        <v>3.3166591184740669E-2</v>
+      </c>
       <c r="B79" s="4">
         <v>2.0719153806474291E-3</v>
       </c>
@@ -2643,20 +2571,15 @@
       <c r="D79" s="4">
         <v>1.8399277209214197E-2</v>
       </c>
-      <c r="F79" s="4">
-        <f>'JPM Data'!D64</f>
-        <v>8.9889052546595206E-4</v>
-      </c>
-      <c r="G79" s="4">
-        <f>'NVDA Data'!D64</f>
-        <v>2.976261020402262E-2</v>
-      </c>
-      <c r="H79" s="4">
-        <f>'LLY Data'!D64</f>
-        <v>7.9180824129190999E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <f t="shared" si="6"/>
+        <v>5.1830463556490278E-3</v>
+      </c>
       <c r="B80" s="4">
         <v>-2.545714500640538E-2</v>
       </c>
@@ -2666,20 +2589,15 @@
       <c r="D80" s="4">
         <v>1.6022295756853246E-2</v>
       </c>
-      <c r="F80" s="4">
-        <f>'JPM Data'!D65</f>
-        <v>-1.119905826209633E-2</v>
-      </c>
-      <c r="G80" s="4">
-        <f>'NVDA Data'!D65</f>
-        <v>1.852218838386754E-3</v>
-      </c>
-      <c r="H80" s="4">
-        <f>'LLY Data'!D65</f>
-        <v>6.9032382805073447E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <f t="shared" si="6"/>
+        <v>-4.4968423514721067E-3</v>
+      </c>
       <c r="B81" s="4">
         <v>-4.2431835966221104E-3</v>
       </c>
@@ -2689,20 +2607,15 @@
       <c r="D81" s="4">
         <v>-6.9519023491004567E-4</v>
       </c>
-      <c r="F81" s="4">
-        <f>'JPM Data'!D66</f>
-        <v>-1.8467119673503984E-3</v>
-      </c>
-      <c r="G81" s="4">
-        <f>'NVDA Data'!D66</f>
-        <v>-4.5105768806806973E-3</v>
-      </c>
-      <c r="H81" s="4">
-        <f>'LLY Data'!D66</f>
-        <v>-3.0202227653105596E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.0675677919795765E-2</v>
+      </c>
       <c r="B82" s="4">
         <v>-1.0386826907487478E-2</v>
       </c>
@@ -2712,20 +2625,15 @@
       <c r="D82" s="4">
         <v>-1.5707412937969907E-2</v>
       </c>
-      <c r="F82" s="4">
-        <f>'JPM Data'!D67</f>
-        <v>-4.5345322923245291E-3</v>
-      </c>
-      <c r="G82" s="4">
-        <f>'NVDA Data'!D67</f>
-        <v>-1.4204567062845118E-3</v>
-      </c>
-      <c r="H82" s="4">
-        <f>'LLY Data'!D67</f>
-        <v>-6.8757856554176114E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <f t="shared" ref="A83:A146" si="23">$B$3*B83+$B$4*C83+$B$5*D83</f>
+        <v>8.1920108862940343E-3</v>
+      </c>
       <c r="B83" s="4">
         <v>2.2875349977892726E-3</v>
       </c>
@@ -2735,20 +2643,15 @@
       <c r="D83" s="4">
         <v>1.6311460717371436E-2</v>
       </c>
-      <c r="F83" s="4">
-        <f>'JPM Data'!D68</f>
-        <v>9.9232926496785117E-4</v>
-      </c>
-      <c r="G83" s="4">
-        <f>'NVDA Data'!D68</f>
-        <v>-4.5114122495960466E-4</v>
-      </c>
-      <c r="H83" s="4">
-        <f>'LLY Data'!D68</f>
-        <v>7.0268230481767046E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
+        <f t="shared" si="23"/>
+        <v>3.2093639262061907E-2</v>
+      </c>
       <c r="B84" s="4">
         <v>3.4234711865271717E-3</v>
       </c>
@@ -2758,20 +2661,15 @@
       <c r="D84" s="4">
         <v>6.6248104344719247E-3</v>
       </c>
-      <c r="F84" s="4">
-        <f>'JPM Data'!D69</f>
-        <v>1.4842554395640367E-3</v>
-      </c>
-      <c r="G84" s="4">
-        <f>'NVDA Data'!D69</f>
-        <v>3.5314947720373344E-2</v>
-      </c>
-      <c r="H84" s="4">
-        <f>'LLY Data'!D69</f>
-        <v>2.8676303150414919E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <f t="shared" si="23"/>
+        <v>-9.3918413008024278E-3</v>
+      </c>
       <c r="B85" s="4">
         <v>-2.0738499687794006E-2</v>
       </c>
@@ -2781,20 +2679,15 @@
       <c r="D85" s="4">
         <v>6.5630132382110381E-3</v>
       </c>
-      <c r="F85" s="4">
-        <f>'JPM Data'!D70</f>
-        <v>-9.1013194555587158E-3</v>
-      </c>
-      <c r="G85" s="4">
-        <f>'NVDA Data'!D70</f>
-        <v>-1.2180826502301437E-2</v>
-      </c>
-      <c r="H85" s="4">
-        <f>'LLY Data'!D70</f>
-        <v>2.8409679430302635E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <f t="shared" si="23"/>
+        <v>1.1417012203727823E-2</v>
+      </c>
       <c r="B86" s="4">
         <v>6.7631520791897794E-3</v>
       </c>
@@ -2804,20 +2697,15 @@
       <c r="D86" s="4">
         <v>-5.4182676646315295E-4</v>
       </c>
-      <c r="F86" s="4">
-        <f>'JPM Data'!D71</f>
-        <v>2.9273118211710024E-3</v>
-      </c>
-      <c r="G86" s="4">
-        <f>'NVDA Data'!D71</f>
-        <v>1.355643810112667E-2</v>
-      </c>
-      <c r="H86" s="4">
-        <f>'LLY Data'!D71</f>
-        <v>-2.3537614713076249E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <f t="shared" si="23"/>
+        <v>-4.66961515862639E-3</v>
+      </c>
       <c r="B87" s="4">
         <v>-9.4998571138349289E-4</v>
       </c>
@@ -2827,20 +2715,15 @@
       <c r="D87" s="4">
         <v>-9.6862539638762034E-3</v>
       </c>
-      <c r="F87" s="4">
-        <f>'JPM Data'!D72</f>
-        <v>-4.1276964603123524E-4</v>
-      </c>
-      <c r="G87" s="4">
-        <f>'NVDA Data'!D72</f>
-        <v>4.3298232137178893E-4</v>
-      </c>
-      <c r="H87" s="4">
-        <f>'LLY Data'!D72</f>
-        <v>-4.2271926896964868E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <f t="shared" si="23"/>
+        <v>-3.1334162745967542E-3</v>
+      </c>
       <c r="B88" s="4">
         <v>-1.2225272091640101E-3</v>
       </c>
@@ -2850,20 +2733,15 @@
       <c r="D88" s="4">
         <v>1.0310263529310302E-2</v>
       </c>
-      <c r="F88" s="4">
-        <f>'JPM Data'!D73</f>
-        <v>-5.3126162802215728E-4</v>
-      </c>
-      <c r="G88" s="4">
-        <f>'NVDA Data'!D73</f>
-        <v>-1.0673651391452703E-2</v>
-      </c>
-      <c r="H88" s="4">
-        <f>'LLY Data'!D73</f>
-        <v>4.4547649178627215E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <f t="shared" si="23"/>
+        <v>6.735021431301981E-3</v>
+      </c>
       <c r="B89" s="4">
         <v>3.4681706647535443E-3</v>
       </c>
@@ -2873,20 +2751,15 @@
       <c r="D89" s="4">
         <v>4.8759773176146678E-4</v>
       </c>
-      <c r="F89" s="4">
-        <f>'JPM Data'!D74</f>
-        <v>1.503601513199558E-3</v>
-      </c>
-      <c r="G89" s="4">
-        <f>'NVDA Data'!D74</f>
-        <v>7.6427616281787448E-3</v>
-      </c>
-      <c r="H89" s="4">
-        <f>'LLY Data'!D74</f>
-        <v>2.1170939397593133E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <f t="shared" si="23"/>
+        <v>1.5197603192966916E-2</v>
+      </c>
       <c r="B90" s="4">
         <v>8.1322646252111434E-3</v>
       </c>
@@ -2896,20 +2769,15 @@
       <c r="D90" s="4">
         <v>-3.6031370432098266E-5</v>
       </c>
-      <c r="F90" s="4">
-        <f>'JPM Data'!D75</f>
-        <v>3.5175142807364755E-3</v>
-      </c>
-      <c r="G90" s="4">
-        <f>'NVDA Data'!D75</f>
-        <v>1.7706894476620952E-2</v>
-      </c>
-      <c r="H90" s="4">
-        <f>'LLY Data'!D75</f>
-        <v>-1.5648507274332349E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.7320055832653805E-3</v>
+      </c>
       <c r="B91" s="4">
         <v>-4.0332809013274504E-3</v>
       </c>
@@ -2919,20 +2787,15 @@
       <c r="D91" s="4">
         <v>-1.0669857229089166E-2</v>
       </c>
-      <c r="F91" s="4">
-        <f>'JPM Data'!D76</f>
-        <v>-1.7551735775933163E-3</v>
-      </c>
-      <c r="G91" s="4">
-        <f>'NVDA Data'!D76</f>
-        <v>4.2522604679179196E-3</v>
-      </c>
-      <c r="H91" s="4">
-        <f>'LLY Data'!D76</f>
-        <v>-4.6587586981398903E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <f t="shared" si="23"/>
+        <v>4.2185892482489596E-3</v>
+      </c>
       <c r="B92" s="4">
         <v>-1.2351523932386428E-2</v>
       </c>
@@ -2942,20 +2805,15 @@
       <c r="D92" s="4">
         <v>1.1332363881318343E-2</v>
       </c>
-      <c r="F92" s="4">
-        <f>'JPM Data'!D77</f>
-        <v>-5.3976020410386296E-3</v>
-      </c>
-      <c r="G92" s="4">
-        <f>'NVDA Data'!D77</f>
-        <v>8.0148119491545817E-4</v>
-      </c>
-      <c r="H92" s="4">
-        <f>'LLY Data'!D77</f>
-        <v>4.893905421363298E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.5233942562094031E-3</v>
+      </c>
       <c r="B93" s="4">
         <v>3.3486331376510457E-3</v>
       </c>
@@ -2965,20 +2823,15 @@
       <c r="D93" s="4">
         <v>5.2507634074969159E-3</v>
       </c>
-      <c r="F93" s="4">
-        <f>'JPM Data'!D78</f>
-        <v>1.4518633691258671E-3</v>
-      </c>
-      <c r="G93" s="4">
-        <f>'NVDA Data'!D78</f>
-        <v>-7.5088404708042291E-3</v>
-      </c>
-      <c r="H93" s="4">
-        <f>'LLY Data'!D78</f>
-        <v>2.2744115869730748E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <f t="shared" si="23"/>
+        <v>-6.0563932435650286E-4</v>
+      </c>
       <c r="B94" s="4">
         <v>-1.1033989205562457E-2</v>
       </c>
@@ -2988,20 +2841,15 @@
       <c r="D94" s="4">
         <v>1.9386065915914913E-3</v>
       </c>
-      <c r="F94" s="4">
-        <f>'JPM Data'!D79</f>
-        <v>-4.8186341642754739E-3</v>
-      </c>
-      <c r="G94" s="4">
-        <f>'NVDA Data'!D79</f>
-        <v>3.4903452647278769E-4</v>
-      </c>
-      <c r="H94" s="4">
-        <f>'LLY Data'!D79</f>
-        <v>8.4111111669851475E-4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
+        <f t="shared" si="23"/>
+        <v>-8.8991024228220559E-3</v>
+      </c>
       <c r="B95" s="4">
         <v>-1.6528253403513978E-3</v>
       </c>
@@ -3011,20 +2859,15 @@
       <c r="D95" s="4">
         <v>3.1530657265932504E-3</v>
       </c>
-      <c r="F95" s="4">
-        <f>'JPM Data'!D80</f>
-        <v>-7.1840678901975252E-4</v>
-      </c>
-      <c r="G95" s="4">
-        <f>'NVDA Data'!D80</f>
-        <v>-1.351018739875086E-2</v>
-      </c>
-      <c r="H95" s="4">
-        <f>'LLY Data'!D80</f>
-        <v>1.3672047338707249E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <f t="shared" si="23"/>
+        <v>4.6273803706900901E-3</v>
+      </c>
       <c r="B96" s="4">
         <v>-8.5541213833660607E-3</v>
       </c>
@@ -3034,20 +2877,15 @@
       <c r="D96" s="4">
         <v>2.3716346052706144E-2</v>
       </c>
-      <c r="F96" s="4">
-        <f>'JPM Data'!D81</f>
-        <v>-3.7309882258759154E-3</v>
-      </c>
-      <c r="G96" s="4">
-        <f>'NVDA Data'!D81</f>
-        <v>-7.6339307753183353E-3</v>
-      </c>
-      <c r="H96" s="4">
-        <f>'LLY Data'!D81</f>
-        <v>1.0179637880717012E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
+        <f t="shared" si="23"/>
+        <v>6.8499702116970483E-3</v>
+      </c>
       <c r="B97" s="4">
         <v>7.6538136248741116E-4</v>
       </c>
@@ -3057,20 +2895,15 @@
       <c r="D97" s="4">
         <v>2.3079814306096413E-2</v>
       </c>
-      <c r="F97" s="4">
-        <f>'JPM Data'!D82</f>
-        <v>3.322737604227074E-4</v>
-      </c>
-      <c r="G97" s="4">
-        <f>'NVDA Data'!D82</f>
-        <v>-6.3291527680479354E-3</v>
-      </c>
-      <c r="H97" s="4">
-        <f>'LLY Data'!D82</f>
-        <v>9.9095159805739561E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
+        <f t="shared" si="23"/>
+        <v>5.6109037886040783E-3</v>
+      </c>
       <c r="B98" s="4">
         <v>4.380204927988538E-3</v>
       </c>
@@ -3080,20 +2913,15 @@
       <c r="D98" s="4">
         <v>1.5516787581406908E-2</v>
       </c>
-      <c r="F98" s="4">
-        <f>'JPM Data'!D83</f>
-        <v>1.8981447266078226E-3</v>
-      </c>
-      <c r="G98" s="4">
-        <f>'NVDA Data'!D83</f>
-        <v>-3.7710607526212493E-3</v>
-      </c>
-      <c r="H98" s="4">
-        <f>'LLY Data'!D83</f>
-        <v>6.6871071536341951E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
+        <f t="shared" si="23"/>
+        <v>3.0429786703429504E-3</v>
+      </c>
       <c r="B99" s="4">
         <v>1.301391067873007E-2</v>
       </c>
@@ -3103,20 +2931,15 @@
       <c r="D99" s="4">
         <v>6.2797875104213139E-3</v>
       </c>
-      <c r="F99" s="4">
-        <f>'JPM Data'!D84</f>
-        <v>5.6154091209242064E-3</v>
-      </c>
-      <c r="G99" s="4">
-        <f>'NVDA Data'!D84</f>
-        <v>-2.9709553820635253E-3</v>
-      </c>
-      <c r="H99" s="4">
-        <f>'LLY Data'!D84</f>
-        <v>2.7187493857954992E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
+        <f t="shared" si="23"/>
+        <v>4.2936942563334178E-3</v>
+      </c>
       <c r="B100" s="4">
         <v>4.7838817801637231E-4</v>
       </c>
@@ -3126,20 +2949,15 @@
       <c r="D100" s="4">
         <v>-7.0078911848901076E-4</v>
       </c>
-      <c r="F100" s="4">
-        <f>'JPM Data'!D85</f>
-        <v>2.0771166647780113E-4</v>
-      </c>
-      <c r="G100" s="4">
-        <f>'NVDA Data'!D85</f>
-        <v>5.9121456796366175E-3</v>
-      </c>
-      <c r="H100" s="4">
-        <f>'LLY Data'!D85</f>
-        <v>-3.0445553916643369E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.12745765762798E-3</v>
+      </c>
       <c r="B101" s="4">
         <v>1.9397556634485537E-2</v>
       </c>
@@ -3149,20 +2967,15 @@
       <c r="D101" s="4">
         <v>-1.2139359257239832E-2</v>
       </c>
-      <c r="F101" s="4">
-        <f>'JPM Data'!D86</f>
-        <v>8.343588305630258E-3</v>
-      </c>
-      <c r="G101" s="4">
-        <f>'NVDA Data'!D86</f>
-        <v>9.1565625854855934E-4</v>
-      </c>
-      <c r="H101" s="4">
-        <f>'LLY Data'!D86</f>
-        <v>-5.3043177861180485E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.6253344560173312E-2</v>
+      </c>
       <c r="B102" s="4">
         <v>-2.9480900596783178E-3</v>
       </c>
@@ -3172,20 +2985,15 @@
       <c r="D102" s="4">
         <v>-2.6960349895975448E-2</v>
       </c>
-      <c r="F102" s="4">
-        <f>'JPM Data'!D87</f>
-        <v>-1.2822302402366982E-3</v>
-      </c>
-      <c r="G102" s="4">
-        <f>'NVDA Data'!D87</f>
-        <v>-1.631932579566946E-2</v>
-      </c>
-      <c r="H102" s="4">
-        <f>'LLY Data'!D87</f>
-        <v>-1.186946243407634E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.9557665848636248E-3</v>
+      </c>
       <c r="B103" s="4">
         <v>2.0831769617623828E-3</v>
       </c>
@@ -3195,20 +3003,15 @@
       <c r="D103" s="4">
         <v>-7.6085606990019946E-3</v>
       </c>
-      <c r="F103" s="4">
-        <f>'JPM Data'!D88</f>
-        <v>9.0377122811663793E-4</v>
-      </c>
-      <c r="G103" s="4">
-        <f>'NVDA Data'!D88</f>
-        <v>6.5241631233423059E-4</v>
-      </c>
-      <c r="H103" s="4">
-        <f>'LLY Data'!D88</f>
-        <v>-3.3169907524821744E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
+        <f t="shared" si="23"/>
+        <v>-3.6996648840899662E-4</v>
+      </c>
       <c r="B104" s="4">
         <v>-1.2741580447121089E-3</v>
       </c>
@@ -3218,20 +3021,15 @@
       <c r="D104" s="4">
         <v>6.4416616843937565E-3</v>
       </c>
-      <c r="F104" s="4">
-        <f>'JPM Data'!D89</f>
-        <v>-5.5371264155893677E-4</v>
-      </c>
-      <c r="G104" s="4">
-        <f>'NVDA Data'!D89</f>
-        <v>-4.4280603914547733E-3</v>
-      </c>
-      <c r="H104" s="4">
-        <f>'LLY Data'!D89</f>
-        <v>2.7886061071005315E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.5134627496314716E-2</v>
+      </c>
       <c r="B105" s="4">
         <v>-4.2301057879958852E-3</v>
       </c>
@@ -3241,20 +3039,15 @@
       <c r="D105" s="4">
         <v>-9.2528299723628211E-3</v>
       </c>
-      <c r="F105" s="4">
-        <f>'JPM Data'!D90</f>
-        <v>-1.8410081823179662E-3</v>
-      </c>
-      <c r="G105" s="4">
-        <f>'NVDA Data'!D90</f>
-        <v>-1.2975279763424673E-2</v>
-      </c>
-      <c r="H105" s="4">
-        <f>'LLY Data'!D90</f>
-        <v>-4.0371595117000281E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.8065028255640615E-2</v>
+      </c>
       <c r="B106" s="4">
         <v>-7.822007000931306E-3</v>
       </c>
@@ -3264,20 +3057,15 @@
       <c r="D106" s="4">
         <v>-3.4249717828664004E-2</v>
       </c>
-      <c r="F106" s="4">
-        <f>'JPM Data'!D91</f>
-        <v>-3.410410060428038E-3</v>
-      </c>
-      <c r="G106" s="4">
-        <f>'NVDA Data'!D91</f>
-        <v>-1.274973687026513E-2</v>
-      </c>
-      <c r="H106" s="4">
-        <f>'LLY Data'!D91</f>
-        <v>-1.5135156291672983E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
+        <f t="shared" si="23"/>
+        <v>3.5866379139609583E-3</v>
+      </c>
       <c r="B107" s="4">
         <v>-9.5827352722430825E-3</v>
       </c>
@@ -3287,20 +3075,15 @@
       <c r="D107" s="4">
         <v>7.4522956554285899E-4</v>
       </c>
-      <c r="F107" s="4">
-        <f>'JPM Data'!D92</f>
-        <v>-4.1817977356651244E-3</v>
-      </c>
-      <c r="G107" s="4">
-        <f>'NVDA Data'!D92</f>
-        <v>6.2338475388008701E-3</v>
-      </c>
-      <c r="H107" s="4">
-        <f>'LLY Data'!D92</f>
-        <v>3.2352855151296682E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <f t="shared" si="23"/>
+        <v>7.3121985974211913E-3</v>
+      </c>
       <c r="B108" s="4">
         <v>4.940652177394679E-3</v>
       </c>
@@ -3310,20 +3093,15 @@
       <c r="D108" s="4">
         <v>3.1786974059004394E-3</v>
       </c>
-      <c r="F108" s="4">
-        <f>'JPM Data'!D93</f>
-        <v>2.1404147983748343E-3</v>
-      </c>
-      <c r="G108" s="4">
-        <f>'NVDA Data'!D93</f>
-        <v>6.3410805033053365E-3</v>
-      </c>
-      <c r="H108" s="4">
-        <f>'LLY Data'!D93</f>
-        <v>1.3783013003411445E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
+        <f t="shared" si="23"/>
+        <v>-6.2502243378455714E-3</v>
+      </c>
       <c r="B109" s="4">
         <v>-1.0378998321168901E-2</v>
       </c>
@@ -3333,20 +3111,15 @@
       <c r="D109" s="4">
         <v>-4.1282086447802183E-3</v>
       </c>
-      <c r="F109" s="4">
-        <f>'JPM Data'!D94</f>
-        <v>-4.5310967091251294E-3</v>
-      </c>
-      <c r="G109" s="4">
-        <f>'NVDA Data'!D94</f>
-        <v>-3.2107866795065038E-3</v>
-      </c>
-      <c r="H109" s="4">
-        <f>'LLY Data'!D94</f>
-        <v>-1.7965690973364128E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
+        <f t="shared" si="23"/>
+        <v>5.1777629372989275E-3</v>
+      </c>
       <c r="B110" s="4">
         <v>5.8649427066247472E-3</v>
       </c>
@@ -3356,20 +3129,15 @@
       <c r="D110" s="4">
         <v>-4.5453718216243404E-4</v>
       </c>
-      <c r="F110" s="4">
-        <f>'JPM Data'!D95</f>
-        <v>2.5396719973928418E-3</v>
-      </c>
-      <c r="G110" s="4">
-        <f>'NVDA Data'!D95</f>
-        <v>5.7337774058405684E-3</v>
-      </c>
-      <c r="H110" s="4">
-        <f>'LLY Data'!D95</f>
-        <v>-1.9744786713182878E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
+        <f t="shared" si="23"/>
+        <v>2.1134877089837283E-3</v>
+      </c>
       <c r="B111" s="4">
         <v>1.2415952625533057E-2</v>
       </c>
@@ -3379,20 +3147,15 @@
       <c r="D111" s="4">
         <v>-9.658755573832568E-3</v>
       </c>
-      <c r="F111" s="4">
-        <f>'JPM Data'!D96</f>
-        <v>5.3589797128634695E-3</v>
-      </c>
-      <c r="G111" s="4">
-        <f>'NVDA Data'!D96</f>
-        <v>6.3046288763726642E-3</v>
-      </c>
-      <c r="H111" s="4">
-        <f>'LLY Data'!D96</f>
-        <v>-4.2151336495148623E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
+        <f t="shared" si="23"/>
+        <v>-6.4618095297544684E-3</v>
+      </c>
       <c r="B112" s="4">
         <v>-1.7413050539999367E-2</v>
       </c>
@@ -3402,20 +3165,15 @@
       <c r="D112" s="4">
         <v>-1.3444773918813858E-2</v>
       </c>
-      <c r="F112" s="4">
-        <f>'JPM Data'!D97</f>
-        <v>-7.6290083827018334E-3</v>
-      </c>
-      <c r="G112" s="4">
-        <f>'NVDA Data'!D97</f>
-        <v>4.1128562737091845E-3</v>
-      </c>
-      <c r="H112" s="4">
-        <f>'LLY Data'!D97</f>
-        <v>-5.8785984898473082E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="15">
+        <f t="shared" si="23"/>
+        <v>9.4621506014608749E-3</v>
+      </c>
       <c r="B113" s="4">
         <v>-8.6195005045754305E-3</v>
       </c>
@@ -3425,20 +3183,15 @@
       <c r="D113" s="4">
         <v>2.1595761435520351E-3</v>
       </c>
-      <c r="F113" s="4">
-        <f>'JPM Data'!D98</f>
-        <v>-3.7596279412807571E-3</v>
-      </c>
-      <c r="G113" s="4">
-        <f>'NVDA Data'!D98</f>
-        <v>1.2624221574569773E-2</v>
-      </c>
-      <c r="H113" s="4">
-        <f>'LLY Data'!D98</f>
-        <v>9.3688073347750732E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.2806002378050812E-2</v>
+      </c>
       <c r="B114" s="4">
         <v>-7.3728700500293428E-3</v>
       </c>
@@ -3448,20 +3201,15 @@
       <c r="D114" s="4">
         <v>-2.4336279924705391E-2</v>
       </c>
-      <c r="F114" s="4">
-        <f>'JPM Data'!D99</f>
-        <v>-3.2138590736640097E-3</v>
-      </c>
-      <c r="G114" s="4">
-        <f>'NVDA Data'!D99</f>
-        <v>-1.2444569094053297E-2</v>
-      </c>
-      <c r="H114" s="4">
-        <f>'LLY Data'!D99</f>
-        <v>-1.069984389192349E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="15">
+        <f t="shared" si="23"/>
+        <v>1.0727976837345801E-2</v>
+      </c>
       <c r="B115" s="4">
         <v>4.4846146698823124E-3</v>
       </c>
@@ -3471,20 +3219,15 @@
       <c r="D115" s="4">
         <v>1.1938573663061168E-2</v>
       </c>
-      <c r="F115" s="4">
-        <f>'JPM Data'!D100</f>
-        <v>1.943289202592278E-3</v>
-      </c>
-      <c r="G115" s="4">
-        <f>'NVDA Data'!D100</f>
-        <v>5.1982441396877773E-3</v>
-      </c>
-      <c r="H115" s="4">
-        <f>'LLY Data'!D100</f>
-        <v>5.1541509140251218E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="15">
+        <f t="shared" si="23"/>
+        <v>1.3794617093600579E-2</v>
+      </c>
       <c r="B116" s="4">
         <v>-3.1392548857377394E-3</v>
       </c>
@@ -3494,20 +3237,15 @@
       <c r="D116" s="4">
         <v>1.8853644830898516E-2</v>
       </c>
-      <c r="F116" s="4">
-        <f>'JPM Data'!D101</f>
-        <v>-1.3655055322967697E-3</v>
-      </c>
-      <c r="G116" s="4">
-        <f>'NVDA Data'!D101</f>
-        <v>6.3337405244286629E-3</v>
-      </c>
-      <c r="H116" s="4">
-        <f>'LLY Data'!D101</f>
-        <v>8.1118034300691859E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="15">
+        <f t="shared" si="23"/>
+        <v>3.2495533350884571E-2</v>
+      </c>
       <c r="B117" s="4">
         <v>1.5395467466742311E-2</v>
       </c>
@@ -3517,20 +3255,15 @@
       <c r="D117" s="4">
         <v>4.3842784757847732E-2</v>
       </c>
-      <c r="F117" s="4">
-        <f>'JPM Data'!D102</f>
-        <v>6.6352204645126851E-3</v>
-      </c>
-      <c r="G117" s="4">
-        <f>'NVDA Data'!D102</f>
-        <v>1.0314090931755733E-2</v>
-      </c>
-      <c r="H117" s="4">
-        <f>'LLY Data'!D102</f>
-        <v>1.8635093634058641E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="15">
+        <f t="shared" si="23"/>
+        <v>1.8472221652137584E-3</v>
+      </c>
       <c r="B118" s="4">
         <v>-2.2743061142228714E-3</v>
       </c>
@@ -3540,20 +3273,15 @@
       <c r="D118" s="4">
         <v>1.1570785537468344E-2</v>
       </c>
-      <c r="F118" s="4">
-        <f>'JPM Data'!D103</f>
-        <v>-9.8884348867748942E-4</v>
-      </c>
-      <c r="G118" s="4">
-        <f>'NVDA Data'!D103</f>
-        <v>-4.665744211228031E-3</v>
-      </c>
-      <c r="H118" s="4">
-        <f>'LLY Data'!D103</f>
-        <v>4.9962783007978561E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="15">
+        <f t="shared" si="23"/>
+        <v>1.1479109700635367E-2</v>
+      </c>
       <c r="B119" s="4">
         <v>6.0785355947620759E-3</v>
       </c>
@@ -3563,20 +3291,15 @@
       <c r="D119" s="4">
         <v>1.320481961664796E-2</v>
       </c>
-      <c r="F119" s="4">
-        <f>'JPM Data'!D104</f>
-        <v>2.6318835471115269E-3</v>
-      </c>
-      <c r="G119" s="4">
-        <f>'NVDA Data'!D104</f>
-        <v>5.0072535403342779E-3</v>
-      </c>
-      <c r="H119" s="4">
-        <f>'LLY Data'!D104</f>
-        <v>5.6972469771135381E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="15">
+        <f t="shared" si="23"/>
+        <v>3.0317140406559959E-2</v>
+      </c>
       <c r="B120" s="4">
         <v>3.4328872018721725E-3</v>
       </c>
@@ -3586,20 +3309,15 @@
       <c r="D120" s="4">
         <v>4.4829248325988655E-2</v>
       </c>
-      <c r="F120" s="4">
-        <f>'JPM Data'!D105</f>
-        <v>1.4883307920313736E-3</v>
-      </c>
-      <c r="G120" s="4">
-        <f>'NVDA Data'!D105</f>
-        <v>9.4550100711600516E-3</v>
-      </c>
-      <c r="H120" s="4">
-        <f>'LLY Data'!D105</f>
-        <v>1.9045321481523794E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="15">
+        <f t="shared" si="23"/>
+        <v>4.9124399722371764E-3</v>
+      </c>
       <c r="B121" s="4">
         <v>-2.3263520498797226E-3</v>
       </c>
@@ -3609,20 +3327,15 @@
       <c r="D121" s="4">
         <v>8.6240590313029029E-3</v>
       </c>
-      <c r="F121" s="4">
-        <f>'JPM Data'!D106</f>
-        <v>-1.0114988661675979E-3</v>
-      </c>
-      <c r="G121" s="4">
-        <f>'NVDA Data'!D106</f>
-        <v>1.2878145526980616E-3</v>
-      </c>
-      <c r="H121" s="4">
-        <f>'LLY Data'!D106</f>
-        <v>3.729323311430768E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
+        <f t="shared" si="23"/>
+        <v>-9.0830485970060382E-3</v>
+      </c>
       <c r="B122" s="4">
         <v>1.5019562979739763E-2</v>
       </c>
@@ -3632,20 +3345,15 @@
       <c r="D122" s="4">
         <v>-2.1293821342653193E-3</v>
       </c>
-      <c r="F122" s="4">
-        <f>'JPM Data'!D107</f>
-        <v>6.4744127046753993E-3</v>
-      </c>
-      <c r="G122" s="4">
-        <f>'NVDA Data'!D107</f>
-        <v>-1.3950369950170398E-2</v>
-      </c>
-      <c r="H122" s="4">
-        <f>'LLY Data'!D107</f>
-        <v>-9.2576491458808445E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="15">
+        <f t="shared" si="23"/>
+        <v>1.058116538995316E-2</v>
+      </c>
       <c r="B123" s="4">
         <v>-1.0134722735472992E-3</v>
       </c>
@@ -3655,20 +3363,15 @@
       <c r="D123" s="4">
         <v>1.22127417799158E-2</v>
       </c>
-      <c r="F123" s="4">
-        <f>'JPM Data'!D108</f>
-        <v>-4.4036860436082176E-4</v>
-      </c>
-      <c r="G123" s="4">
-        <f>'NVDA Data'!D108</f>
-        <v>6.0148601909402579E-3</v>
-      </c>
-      <c r="H123" s="4">
-        <f>'LLY Data'!D108</f>
-        <v>5.2717999258194157E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.2698448735804084E-2</v>
+      </c>
       <c r="B124" s="4">
         <v>-2.1644052148023407E-3</v>
       </c>
@@ -3678,20 +3381,15 @@
       <c r="D124" s="4">
         <v>-1.3508719661329887E-2</v>
       </c>
-      <c r="F124" s="4">
-        <f>'JPM Data'!D109</f>
-        <v>-9.4100797042629715E-4</v>
-      </c>
-      <c r="G124" s="4">
-        <f>'NVDA Data'!D109</f>
-        <v>-2.0813549007487556E-2</v>
-      </c>
-      <c r="H124" s="4">
-        <f>'LLY Data'!D109</f>
-        <v>-5.9067491523231456E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.5915663368473637E-2</v>
+      </c>
       <c r="B125" s="4">
         <v>-1.0980784454628049E-2</v>
       </c>
@@ -3701,20 +3399,15 @@
       <c r="D125" s="4">
         <v>-1.7589836243236988E-3</v>
       </c>
-      <c r="F125" s="4">
-        <f>'JPM Data'!D110</f>
-        <v>-4.7952704612106364E-3</v>
-      </c>
-      <c r="G125" s="4">
-        <f>'NVDA Data'!D110</f>
-        <v>-1.7569006943553529E-2</v>
-      </c>
-      <c r="H125" s="4">
-        <f>'LLY Data'!D110</f>
-        <v>-7.6458952934441876E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.4995982423367625E-2</v>
+      </c>
       <c r="B126" s="4">
         <v>-4.2492657145894253E-3</v>
       </c>
@@ -3724,20 +3417,15 @@
       <c r="D126" s="4">
         <v>-2.707331978426147E-2</v>
       </c>
-      <c r="F126" s="4">
-        <f>'JPM Data'!D111</f>
-        <v>-1.8493646615574202E-3</v>
-      </c>
-      <c r="G126" s="4">
-        <f>'NVDA Data'!D111</f>
-        <v>-9.7884542167745304E-4</v>
-      </c>
-      <c r="H126" s="4">
-        <f>'LLY Data'!D111</f>
-        <v>-1.1919886943888798E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.3550323228837556E-2</v>
+      </c>
       <c r="B127" s="4">
         <v>-1.6105695134018248E-2</v>
       </c>
@@ -3747,20 +3435,15 @@
       <c r="D127" s="4">
         <v>-1.0426495043682241E-2</v>
       </c>
-      <c r="F127" s="4">
-        <f>'JPM Data'!D112</f>
-        <v>-7.0515532748998151E-3</v>
-      </c>
-      <c r="G127" s="4">
-        <f>'NVDA Data'!D112</f>
-        <v>-7.4284715105920936E-3</v>
-      </c>
-      <c r="H127" s="4">
-        <f>'LLY Data'!D112</f>
-        <v>-4.5519411126749591E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="15">
+        <f t="shared" si="23"/>
+        <v>3.6657125205421309E-3</v>
+      </c>
       <c r="B128" s="4">
         <v>-1.3641112206165526E-2</v>
       </c>
@@ -3770,20 +3453,15 @@
       <c r="D128" s="4">
         <v>-1.3666512784246626E-2</v>
       </c>
-      <c r="F128" s="4">
-        <f>'JPM Data'!D113</f>
-        <v>-5.9650377671224587E-3</v>
-      </c>
-      <c r="G128" s="4">
-        <f>'NVDA Data'!D113</f>
-        <v>1.6351912009063094E-2</v>
-      </c>
-      <c r="H128" s="4">
-        <f>'LLY Data'!D113</f>
-        <v>-5.9762218027461849E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="15">
+        <f t="shared" si="23"/>
+        <v>1.9214891159848702E-2</v>
+      </c>
       <c r="B129" s="4">
         <v>1.2056607726595736E-3</v>
       </c>
@@ -3793,20 +3471,15 @@
       <c r="D129" s="4">
         <v>2.7364896546658624E-2</v>
       </c>
-      <c r="F129" s="4">
-        <f>'JPM Data'!D114</f>
-        <v>5.2329642497847746E-4</v>
-      </c>
-      <c r="G129" s="4">
-        <f>'NVDA Data'!D114</f>
-        <v>6.8976840813544634E-3</v>
-      </c>
-      <c r="H129" s="4">
-        <f>'LLY Data'!D114</f>
-        <v>1.1724722477931125E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.0317934148749477E-2</v>
+      </c>
       <c r="B130" s="4">
         <v>-5.4544469961633974E-3</v>
       </c>
@@ -3816,20 +3489,15 @@
       <c r="D130" s="4">
         <v>-1.0077090587802472E-2</v>
       </c>
-      <c r="F130" s="4">
-        <f>'JPM Data'!D115</f>
-        <v>-2.3753201663679994E-3</v>
-      </c>
-      <c r="G130" s="4">
-        <f>'NVDA Data'!D115</f>
-        <v>-1.91555202732294E-2</v>
-      </c>
-      <c r="H130" s="4">
-        <f>'LLY Data'!D115</f>
-        <v>-4.3986249180959294E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.6806220914650805E-2</v>
+      </c>
       <c r="B131" s="4">
         <v>2.564107022799589E-3</v>
       </c>
@@ -3839,20 +3507,15 @@
       <c r="D131" s="4">
         <v>-3.1306560888774482E-2</v>
       </c>
-      <c r="F131" s="4">
-        <f>'JPM Data'!D116</f>
-        <v>1.1121523008026843E-3</v>
-      </c>
-      <c r="G131" s="4">
-        <f>'NVDA Data'!D116</f>
-        <v>-1.5372885662012576E-2</v>
-      </c>
-      <c r="H131" s="4">
-        <f>'LLY Data'!D116</f>
-        <v>-1.3813641697510974E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.1504878406709171E-2</v>
+      </c>
       <c r="B132" s="4">
         <v>-3.6018700364348323E-2</v>
       </c>
@@ -3862,20 +3525,15 @@
       <c r="D132" s="4">
         <v>-1.3853186860411234E-2</v>
       </c>
-      <c r="F132" s="4">
-        <f>'JPM Data'!D117</f>
-        <v>-1.5931390935156848E-2</v>
-      </c>
-      <c r="G132" s="4">
-        <f>'NVDA Data'!D117</f>
-        <v>1.8698751296135389E-3</v>
-      </c>
-      <c r="H132" s="4">
-        <f>'LLY Data'!D117</f>
-        <v>-6.0584244198472487E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="15">
+        <f t="shared" si="23"/>
+        <v>1.2454954974493565E-2</v>
+      </c>
       <c r="B133" s="4">
         <v>1.2749618221033321E-2</v>
       </c>
@@ -3885,20 +3543,15 @@
       <c r="D133" s="4">
         <v>9.7817712278104388E-3</v>
       </c>
-      <c r="F133" s="4">
-        <f>'JPM Data'!D118</f>
-        <v>5.5020881384895649E-3</v>
-      </c>
-      <c r="G133" s="4">
-        <f>'NVDA Data'!D118</f>
-        <v>7.0308867139323647E-3</v>
-      </c>
-      <c r="H133" s="4">
-        <f>'LLY Data'!D118</f>
-        <v>4.2275264638150668E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="15">
+        <f t="shared" si="23"/>
+        <v>-1.1501070890278964E-2</v>
+      </c>
       <c r="B134" s="4">
         <v>1.1934211988795006E-2</v>
       </c>
@@ -3908,20 +3561,15 @@
       <c r="D134" s="4">
         <v>-2.0823441055184976E-2</v>
       </c>
-      <c r="F134" s="4">
-        <f>'JPM Data'!D119</f>
-        <v>5.1522790067797565E-3</v>
-      </c>
-      <c r="G134" s="4">
-        <f>'NVDA Data'!D119</f>
-        <v>-4.0387014865943321E-3</v>
-      </c>
-      <c r="H134" s="4">
-        <f>'LLY Data'!D119</f>
-        <v>-9.1389918925214256E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="15">
+        <f t="shared" si="23"/>
+        <v>1.2950449068380634E-2</v>
+      </c>
       <c r="B135" s="4">
         <v>-8.6290176394154491E-4</v>
       </c>
@@ -3931,20 +3579,15 @@
       <c r="D135" s="4">
         <v>9.56852497397139E-4</v>
       </c>
-      <c r="F135" s="4">
-        <f>'JPM Data'!D120</f>
-        <v>-3.7491525529547538E-4</v>
-      </c>
-      <c r="G135" s="4">
-        <f>'NVDA Data'!D120</f>
-        <v>1.6149766167445151E-2</v>
-      </c>
-      <c r="H135" s="4">
-        <f>'LLY Data'!D120</f>
-        <v>4.1535707356375994E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
+        <f t="shared" si="23"/>
+        <v>3.5565483351509636E-2</v>
+      </c>
       <c r="B136" s="4">
         <v>1.784940034519485E-2</v>
       </c>
@@ -3954,20 +3597,15 @@
       <c r="D136" s="4">
         <v>4.6585786226370655E-2</v>
       </c>
-      <c r="F136" s="4">
-        <f>'JPM Data'!D121</f>
-        <v>7.6835251152694798E-3</v>
-      </c>
-      <c r="G136" s="4">
-        <f>'NVDA Data'!D121</f>
-        <v>1.1952186080364019E-2</v>
-      </c>
-      <c r="H136" s="4">
-        <f>'LLY Data'!D121</f>
-        <v>1.9774832252134993E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="15">
+        <f t="shared" si="23"/>
+        <v>2.5860893477231608E-3</v>
+      </c>
       <c r="B137" s="4">
         <v>1.1172407378816947E-2</v>
       </c>
@@ -3977,20 +3615,15 @@
       <c r="D137" s="4">
         <v>-2.1506455291843675E-2</v>
       </c>
-      <c r="F137" s="4">
-        <f>'JPM Data'!D122</f>
-        <v>4.8252101801822562E-3</v>
-      </c>
-      <c r="G137" s="4">
-        <f>'NVDA Data'!D122</f>
-        <v>1.4711615654552155E-2</v>
-      </c>
-      <c r="H137" s="4">
-        <f>'LLY Data'!D122</f>
-        <v>-9.4420351126477363E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
+        <f t="shared" si="23"/>
+        <v>3.0891217574965796E-2</v>
+      </c>
       <c r="B138" s="4">
         <v>7.5524603570210165E-3</v>
       </c>
@@ -4000,20 +3633,15 @@
       <c r="D138" s="4">
         <v>4.8220364207285191E-2</v>
       </c>
-      <c r="F138" s="4">
-        <f>'JPM Data'!D123</f>
-        <v>3.267667865686628E-3</v>
-      </c>
-      <c r="G138" s="4">
-        <f>'NVDA Data'!D123</f>
-        <v>7.1398095154909542E-3</v>
-      </c>
-      <c r="H138" s="4">
-        <f>'LLY Data'!D123</f>
-        <v>2.0452592665699834E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="15">
+        <f t="shared" si="23"/>
+        <v>5.3856068979179252E-3</v>
+      </c>
       <c r="B139" s="4">
         <v>-4.8589202754935627E-4</v>
       </c>
@@ -4023,20 +3651,15 @@
       <c r="D139" s="4">
         <v>7.9638270383105645E-3</v>
       </c>
-      <c r="F139" s="4">
-        <f>'JPM Data'!D124</f>
-        <v>-2.1107150950099954E-4</v>
-      </c>
-      <c r="G139" s="4">
-        <f>'NVDA Data'!D124</f>
-        <v>1.9322018841480138E-3</v>
-      </c>
-      <c r="H139" s="4">
-        <f>'LLY Data'!D124</f>
-        <v>3.4449467925015275E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="15">
+        <f t="shared" si="23"/>
+        <v>2.13106363734448E-2</v>
+      </c>
       <c r="B140" s="4">
         <v>4.9302599885476242E-3</v>
       </c>
@@ -4046,20 +3669,15 @@
       <c r="D140" s="4">
         <v>3.2003754507081705E-2</v>
       </c>
-      <c r="F140" s="4">
-        <f>'JPM Data'!D125</f>
-        <v>2.1359236937532606E-3</v>
-      </c>
-      <c r="G140" s="4">
-        <f>'NVDA Data'!D125</f>
-        <v>5.8107633341692427E-3</v>
-      </c>
-      <c r="H140" s="4">
-        <f>'LLY Data'!D125</f>
-        <v>1.3681277289973358E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.026677797530536E-2</v>
+      </c>
       <c r="B141" s="4">
         <v>-2.971309638916089E-3</v>
       </c>
@@ -4069,20 +3687,15 @@
       <c r="D141" s="4">
         <v>-4.4917864324566091E-2</v>
       </c>
-      <c r="F141" s="4">
-        <f>'JPM Data'!D126</f>
-        <v>-1.2923443099829442E-3</v>
-      </c>
-      <c r="G141" s="4">
-        <f>'NVDA Data'!D126</f>
-        <v>3.4920525812565206E-3</v>
-      </c>
-      <c r="H141" s="4">
-        <f>'LLY Data'!D126</f>
-        <v>-1.9959278116008373E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="15">
+        <f t="shared" si="23"/>
+        <v>1.7703305666246755E-2</v>
+      </c>
       <c r="B142" s="4">
         <v>1.4831239096430714E-2</v>
       </c>
@@ -4092,20 +3705,15 @@
       <c r="D142" s="4">
         <v>1.0806356235692958E-2</v>
       </c>
-      <c r="F142" s="4">
-        <f>'JPM Data'!D127</f>
-        <v>6.393827448376993E-3</v>
-      </c>
-      <c r="G142" s="4">
-        <f>'NVDA Data'!D127</f>
-        <v>1.2626111043375212E-2</v>
-      </c>
-      <c r="H142" s="4">
-        <f>'LLY Data'!D127</f>
-        <v>4.6679642227562615E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="15">
+        <f t="shared" si="23"/>
+        <v>1.3770070743187771E-2</v>
+      </c>
       <c r="B143" s="4">
         <v>-4.4389396230059839E-3</v>
       </c>
@@ -4115,20 +3723,15 @@
       <c r="D143" s="4">
         <v>2.5095781312976243E-2</v>
       </c>
-      <c r="F143" s="4">
-        <f>'JPM Data'!D128</f>
-        <v>-1.9320983974357294E-3</v>
-      </c>
-      <c r="G143" s="4">
-        <f>'NVDA Data'!D128</f>
-        <v>2.5532302636496989E-3</v>
-      </c>
-      <c r="H143" s="4">
-        <f>'LLY Data'!D128</f>
-        <v>1.0764446223268333E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="15">
+        <f t="shared" si="23"/>
+        <v>8.6004522477890165E-3</v>
+      </c>
       <c r="B144" s="4">
         <v>1.8246698342597189E-2</v>
       </c>
@@ -4138,20 +3741,15 @@
       <c r="D144" s="4">
         <v>-3.0846804861344602E-3</v>
       </c>
-      <c r="F144" s="4">
-        <f>'JPM Data'!D129</f>
-        <v>7.8530105636667145E-3</v>
-      </c>
-      <c r="G144" s="4">
-        <f>'NVDA Data'!D129</f>
-        <v>9.1567719301806471E-3</v>
-      </c>
-      <c r="H144" s="4">
-        <f>'LLY Data'!D129</f>
-        <v>-1.3417301835729931E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="15">
+        <f t="shared" si="23"/>
+        <v>-2.1925554489118433E-2</v>
+      </c>
       <c r="B145" s="4">
         <v>8.7577676527670779E-3</v>
       </c>
@@ -4161,20 +3759,15 @@
       <c r="D145" s="4">
         <v>-3.6475604973183126E-2</v>
       </c>
-      <c r="F145" s="4">
-        <f>'JPM Data'!D130</f>
-        <v>3.7868919043482822E-3</v>
-      </c>
-      <c r="G145" s="4">
-        <f>'NVDA Data'!D130</f>
-        <v>-6.7694418472426738E-3</v>
-      </c>
-      <c r="H145" s="4">
-        <f>'LLY Data'!D130</f>
-        <v>-1.6137285168973375E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="15">
+        <f t="shared" si="23"/>
+        <v>6.117916413442265E-3</v>
+      </c>
       <c r="B146" s="4">
         <v>1.1419736826148628E-2</v>
       </c>
@@ -4184,20 +3777,15 @@
       <c r="D146" s="4">
         <v>3.5685251724274267E-4</v>
       </c>
-      <c r="F146" s="4">
-        <f>'JPM Data'!D131</f>
-        <v>4.9314241937504482E-3</v>
-      </c>
-      <c r="G146" s="4">
-        <f>'NVDA Data'!D131</f>
-        <v>5.2274118898166964E-3</v>
-      </c>
-      <c r="H146" s="4">
-        <f>'LLY Data'!D131</f>
-        <v>1.5495143333137327E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="15">
+        <f t="shared" ref="A147:A210" si="24">$B$3*B147+$B$4*C147+$B$5*D147</f>
+        <v>2.7996409420899706E-3</v>
+      </c>
       <c r="B147" s="4">
         <v>9.04595842576493E-3</v>
       </c>
@@ -4207,20 +3795,15 @@
       <c r="D147" s="4">
         <v>5.0276381701163863E-3</v>
       </c>
-      <c r="F147" s="4">
-        <f>'JPM Data'!D132</f>
-        <v>3.9109472440048256E-3</v>
-      </c>
-      <c r="G147" s="4">
-        <f>'NVDA Data'!D132</f>
-        <v>-1.6003834994478569E-3</v>
-      </c>
-      <c r="H147" s="4">
-        <f>'LLY Data'!D132</f>
-        <v>2.1780049801174263E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="15">
+        <f t="shared" si="24"/>
+        <v>1.2995281600624107E-2</v>
+      </c>
       <c r="B148" s="4">
         <v>3.0754216685572469E-3</v>
       </c>
@@ -4230,20 +3813,15 @@
       <c r="D148" s="4">
         <v>9.9541217734405857E-3</v>
       </c>
-      <c r="F148" s="4">
-        <f>'JPM Data'!D133</f>
-        <v>1.3335890353735078E-3</v>
-      </c>
-      <c r="G148" s="4">
-        <f>'NVDA Data'!D133</f>
-        <v>9.6787820862821207E-3</v>
-      </c>
-      <c r="H148" s="4">
-        <f>'LLY Data'!D133</f>
-        <v>4.3016459478141759E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="15">
+        <f t="shared" si="24"/>
+        <v>-7.6037859534466862E-3</v>
+      </c>
       <c r="B149" s="4">
         <v>-2.087494810125524E-3</v>
       </c>
@@ -4253,20 +3831,15 @@
       <c r="D149" s="4">
         <v>-8.3668008772884925E-3</v>
       </c>
-      <c r="F149" s="4">
-        <f>'JPM Data'!D134</f>
-        <v>-9.0753504428993045E-4</v>
-      </c>
-      <c r="G149" s="4">
-        <f>'NVDA Data'!D134</f>
-        <v>-4.0247614798575347E-3</v>
-      </c>
-      <c r="H149" s="4">
-        <f>'LLY Data'!D134</f>
-        <v>-3.6489418130101919E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="15">
+        <f t="shared" si="24"/>
+        <v>-5.6936809157834513E-3</v>
+      </c>
       <c r="B150" s="4">
         <v>2.3534065991905836E-3</v>
       </c>
@@ -4276,20 +3849,15 @@
       <c r="D150" s="4">
         <v>4.2019091665821528E-3</v>
       </c>
-      <c r="F150" s="4">
-        <f>'JPM Data'!D135</f>
-        <v>1.0208707083948249E-3</v>
-      </c>
-      <c r="G150" s="4">
-        <f>'NVDA Data'!D135</f>
-        <v>-1.0811705783345126E-2</v>
-      </c>
-      <c r="H150" s="4">
-        <f>'LLY Data'!D135</f>
-        <v>1.8210427102296062E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.1470689461835501E-3</v>
+      </c>
       <c r="B151" s="4">
         <v>1.3695392458767531E-3</v>
       </c>
@@ -4299,20 +3867,15 @@
       <c r="D151" s="4">
         <v>1.0099226098992838E-2</v>
       </c>
-      <c r="F151" s="4">
-        <f>'JPM Data'!D136</f>
-        <v>5.9437641915714473E-4</v>
-      </c>
-      <c r="G151" s="4">
-        <f>'NVDA Data'!D136</f>
-        <v>-8.461823340741836E-3</v>
-      </c>
-      <c r="H151" s="4">
-        <f>'LLY Data'!D136</f>
-        <v>4.3640383673632915E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="15">
+        <f t="shared" si="24"/>
+        <v>-5.0930045323250225E-3</v>
+      </c>
       <c r="B152" s="4">
         <v>-2.2794767489260136E-3</v>
       </c>
@@ -4322,20 +3885,15 @@
       <c r="D152" s="4">
         <v>-1.592072313716783E-2</v>
       </c>
-      <c r="F152" s="4">
-        <f>'JPM Data'!D137</f>
-        <v>-9.9109419140277219E-4</v>
-      </c>
-      <c r="G152" s="4">
-        <f>'NVDA Data'!D137</f>
-        <v>4.2155146321934357E-3</v>
-      </c>
-      <c r="H152" s="4">
-        <f>'LLY Data'!D137</f>
-        <v>-6.9699136446515764E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="15">
+        <f t="shared" si="24"/>
+        <v>-2.4653805720800549E-3</v>
+      </c>
       <c r="B153" s="4">
         <v>2.2846846344288223E-3</v>
       </c>
@@ -4345,20 +3903,15 @@
       <c r="D153" s="4">
         <v>1.1824638749986581E-4</v>
       </c>
-      <c r="F153" s="4">
-        <f>'JPM Data'!D138</f>
-        <v>9.9109419140278759E-4</v>
-      </c>
-      <c r="G153" s="4">
-        <f>'NVDA Data'!D138</f>
-        <v>-3.806663771035675E-3</v>
-      </c>
-      <c r="H153" s="4">
-        <f>'LLY Data'!D138</f>
-        <v>5.1350717637557575E-5</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="15">
+        <f t="shared" si="24"/>
+        <v>3.2894929210934196E-3</v>
+      </c>
       <c r="B154" s="4">
         <v>5.0802010693879263E-3</v>
       </c>
@@ -4368,20 +3921,15 @@
       <c r="D154" s="4">
         <v>4.3950266456228149E-4</v>
       </c>
-      <c r="F154" s="4">
-        <f>'JPM Data'!D139</f>
-        <v>2.2007179676159709E-3</v>
-      </c>
-      <c r="G154" s="4">
-        <f>'NVDA Data'!D139</f>
-        <v>2.8874346494712003E-3</v>
-      </c>
-      <c r="H154" s="4">
-        <f>'LLY Data'!D139</f>
-        <v>1.9083164956305867E-4</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="15">
+        <f t="shared" si="24"/>
+        <v>-8.2648570951284039E-3</v>
+      </c>
       <c r="B155" s="4">
         <v>1.1404836853968914E-2</v>
       </c>
@@ -4391,20 +3939,15 @@
       <c r="D155" s="4">
         <v>-1.3854751875682397E-3</v>
       </c>
-      <c r="F155" s="4">
-        <f>'JPM Data'!D140</f>
-        <v>4.925026233410794E-3</v>
-      </c>
-      <c r="G155" s="4">
-        <f>'NVDA Data'!D140</f>
-        <v>-1.2538706273548873E-2</v>
-      </c>
-      <c r="H155" s="4">
-        <f>'LLY Data'!D140</f>
-        <v>-6.021214373136245E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="15">
+        <f t="shared" si="24"/>
+        <v>-5.1442057476108194E-3</v>
+      </c>
       <c r="B156" s="4">
         <v>4.8692625443369532E-3</v>
       </c>
@@ -4414,20 +3957,15 @@
       <c r="D156" s="4">
         <v>-1.1843530489025842E-2</v>
       </c>
-      <c r="F156" s="4">
-        <f>'JPM Data'!D141</f>
-        <v>2.1095620062893589E-3</v>
-      </c>
-      <c r="G156" s="4">
-        <f>'NVDA Data'!D141</f>
-        <v>-4.6441145916841196E-5</v>
-      </c>
-      <c r="H156" s="4">
-        <f>'LLY Data'!D141</f>
-        <v>-5.1742816625270707E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="15">
+        <f t="shared" si="24"/>
+        <v>-6.3079665917640726E-3</v>
+      </c>
       <c r="B157" s="4">
         <v>7.3323717299538238E-3</v>
       </c>
@@ -4437,20 +3975,15 @@
       <c r="D157" s="4">
         <v>2.8080520343442793E-3</v>
       </c>
-      <c r="F157" s="4">
-        <f>'JPM Data'!D142</f>
-        <v>3.172790704349259E-3</v>
-      </c>
-      <c r="G157" s="4">
-        <f>'NVDA Data'!D142</f>
-        <v>-1.1814113524206487E-2</v>
-      </c>
-      <c r="H157" s="4">
-        <f>'LLY Data'!D142</f>
-        <v>1.2178124621306577E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="15">
+        <f t="shared" si="24"/>
+        <v>9.8143977261294108E-3</v>
+      </c>
       <c r="B158" s="4">
         <v>-1.2661732872627755E-4</v>
       </c>
@@ -4460,20 +3993,15 @@
       <c r="D158" s="4">
         <v>4.217374281467688E-3</v>
       </c>
-      <c r="F158" s="4">
-        <f>'JPM Data'!D143</f>
-        <v>-5.4992688766320824E-5</v>
-      </c>
-      <c r="G158" s="4">
-        <f>'NVDA Data'!D143</f>
-        <v>9.9621319772311649E-3</v>
-      </c>
-      <c r="H158" s="4">
-        <f>'LLY Data'!D143</f>
-        <v>1.8277309691128959E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="15">
+        <f t="shared" si="24"/>
+        <v>-8.4214663894022403E-3</v>
+      </c>
       <c r="B159" s="4">
         <v>-1.0508347466496353E-2</v>
       </c>
@@ -4483,20 +4011,15 @@
       <c r="D159" s="4">
         <v>1.8702296017649464E-3</v>
       </c>
-      <c r="F159" s="4">
-        <f>'JPM Data'!D144</f>
-        <v>-4.587865200817603E-3</v>
-      </c>
-      <c r="G159" s="4">
-        <f>'NVDA Data'!D144</f>
-        <v>-1.0028936680665753E-2</v>
-      </c>
-      <c r="H159" s="4">
-        <f>'LLY Data'!D144</f>
-        <v>8.1147181294266341E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="15">
+        <f t="shared" si="24"/>
+        <v>7.680082092842014E-3</v>
+      </c>
       <c r="B160" s="4">
         <v>3.0707935195191222E-3</v>
       </c>
@@ -4506,20 +4029,15 @@
       <c r="D160" s="4">
         <v>-1.6630979529062367E-3</v>
       </c>
-      <c r="F160" s="4">
-        <f>'JPM Data'!D145</f>
-        <v>1.3315852137442399E-3</v>
-      </c>
-      <c r="G160" s="4">
-        <f>'NVDA Data'!D145</f>
-        <v>1.0308628065657018E-2</v>
-      </c>
-      <c r="H160" s="4">
-        <f>'LLY Data'!D145</f>
-        <v>-7.2287553697980567E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="15">
+        <f t="shared" si="24"/>
+        <v>1.6658496614954013E-2</v>
+      </c>
       <c r="B161" s="4">
         <v>1.1033937498618607E-2</v>
       </c>
@@ -4529,20 +4047,15 @@
       <c r="D161" s="4">
         <v>1.6624964620007163E-2</v>
       </c>
-      <c r="F161" s="4">
-        <f>'JPM Data'!D146</f>
-        <v>4.7657338511456655E-3</v>
-      </c>
-      <c r="G161" s="4">
-        <f>'NVDA Data'!D146</f>
-        <v>8.3998263022912103E-3</v>
-      </c>
-      <c r="H161" s="4">
-        <f>'LLY Data'!D146</f>
-        <v>7.1607701941398087E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.7263532571035852E-2</v>
+      </c>
       <c r="B162" s="4">
         <v>3.6588557621920594E-3</v>
       </c>
@@ -4552,20 +4065,15 @@
       <c r="D162" s="4">
         <v>-2.3426151745821897E-2</v>
       </c>
-      <c r="F162" s="4">
-        <f>'JPM Data'!D147</f>
-        <v>1.5861209399798176E-3</v>
-      </c>
-      <c r="G162" s="4">
-        <f>'NVDA Data'!D147</f>
-        <v>-8.1110057153733206E-3</v>
-      </c>
-      <c r="H162" s="4">
-        <f>'LLY Data'!D147</f>
-        <v>-1.0294909901346136E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="15">
+        <f t="shared" si="24"/>
+        <v>9.4629875123311852E-3</v>
+      </c>
       <c r="B163" s="4">
         <v>8.9251924228155501E-3</v>
       </c>
@@ -4575,20 +4083,15 @@
       <c r="D163" s="4">
         <v>1.232846663534968E-3</v>
       </c>
-      <c r="F163" s="4">
-        <f>'JPM Data'!D148</f>
-        <v>3.858966313828495E-3</v>
-      </c>
-      <c r="G163" s="4">
-        <f>'NVDA Data'!D148</f>
-        <v>9.4892502964312366E-3</v>
-      </c>
-      <c r="H163" s="4">
-        <f>'LLY Data'!D148</f>
-        <v>5.3508872956078816E-4</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="15">
+        <f t="shared" si="24"/>
+        <v>1.446672254781029E-2</v>
+      </c>
       <c r="B164" s="4">
         <v>3.3640248676822188E-3</v>
       </c>
@@ -4598,20 +4101,15 @@
       <c r="D164" s="4">
         <v>2.1786698853571155E-2</v>
       </c>
-      <c r="F164" s="4">
-        <f>'JPM Data'!D149</f>
-        <v>1.4585255520676546E-3</v>
-      </c>
-      <c r="G164" s="4">
-        <f>'NVDA Data'!D149</f>
-        <v>3.9100125260099032E-3</v>
-      </c>
-      <c r="H164" s="4">
-        <f>'LLY Data'!D149</f>
-        <v>9.3602449384392761E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.5089088764350679E-2</v>
+      </c>
       <c r="B165" s="4">
         <v>1.8192027685242383E-2</v>
       </c>
@@ -4621,20 +4119,15 @@
       <c r="D165" s="4">
         <v>-3.9882873790533853E-2</v>
       </c>
-      <c r="F165" s="4">
-        <f>'JPM Data'!D150</f>
-        <v>7.8296922437845265E-3</v>
-      </c>
-      <c r="G165" s="4">
-        <f>'NVDA Data'!D150</f>
-        <v>2.3597384524684196E-3</v>
-      </c>
-      <c r="H165" s="4">
-        <f>'LLY Data'!D150</f>
-        <v>-1.7675783456637856E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="15">
+        <f t="shared" si="24"/>
+        <v>3.5612060030883273E-3</v>
+      </c>
       <c r="B166" s="4">
         <v>7.5613768695598311E-3</v>
       </c>
@@ -4644,20 +4137,15 @@
       <c r="D166" s="4">
         <v>-2.8413633820341404E-3</v>
       </c>
-      <c r="F166" s="4">
-        <f>'JPM Data'!D151</f>
-        <v>3.2715112140096741E-3</v>
-      </c>
-      <c r="G166" s="4">
-        <f>'NVDA Data'!D151</f>
-        <v>4.8235671289161867E-3</v>
-      </c>
-      <c r="H166" s="4">
-        <f>'LLY Data'!D151</f>
-        <v>-1.2357448705780138E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="15">
+        <f t="shared" si="24"/>
+        <v>1.5843427102758861E-2</v>
+      </c>
       <c r="B167" s="4">
         <v>6.0521698593334122E-3</v>
       </c>
@@ -4667,20 +4155,15 @@
       <c r="D167" s="4">
         <v>1.3495615752074299E-2</v>
       </c>
-      <c r="F167" s="4">
-        <f>'JPM Data'!D152</f>
-        <v>2.6205020862773783E-3</v>
-      </c>
-      <c r="G167" s="4">
-        <f>'NVDA Data'!D152</f>
-        <v>1.0418268626525442E-2</v>
-      </c>
-      <c r="H167" s="4">
-        <f>'LLY Data'!D152</f>
-        <v>5.8218743326291069E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="15">
+        <f t="shared" si="24"/>
+        <v>-8.7193797305998278E-4</v>
+      </c>
       <c r="B168" s="4">
         <v>1.3354997760703181E-2</v>
       </c>
@@ -4690,20 +4173,15 @@
       <c r="D168" s="4">
         <v>8.6221526365991267E-5</v>
       </c>
-      <c r="F168" s="4">
-        <f>'JPM Data'!D153</f>
-        <v>5.7616137318728606E-3</v>
-      </c>
-      <c r="G168" s="4">
-        <f>'NVDA Data'!D153</f>
-        <v>-4.1216008404191063E-3</v>
-      </c>
-      <c r="H168" s="4">
-        <f>'LLY Data'!D153</f>
-        <v>3.7443918909282312E-5</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="15">
+        <f t="shared" si="24"/>
+        <v>-2.0184952426286325E-2</v>
+      </c>
       <c r="B169" s="4">
         <v>-1.1279275339309107E-2</v>
       </c>
@@ -4713,20 +4191,15 @@
       <c r="D169" s="4">
         <v>-1.6557105993962793E-2</v>
       </c>
-      <c r="F169" s="4">
-        <f>'JPM Data'!D154</f>
-        <v>-4.9263624642230906E-3</v>
-      </c>
-      <c r="G169" s="4">
-        <f>'NVDA Data'!D154</f>
-        <v>-1.3272315153854934E-2</v>
-      </c>
-      <c r="H169" s="4">
-        <f>'LLY Data'!D154</f>
-        <v>-7.2508533736302169E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="15">
+        <f t="shared" si="24"/>
+        <v>8.606146010512461E-3</v>
+      </c>
       <c r="B170" s="4">
         <v>5.7039743670721588E-3</v>
       </c>
@@ -4736,20 +4209,15 @@
       <c r="D170" s="4">
         <v>3.1391556766250848E-3</v>
       </c>
-      <c r="F170" s="4">
-        <f>'JPM Data'!D155</f>
-        <v>2.4701663879307702E-3</v>
-      </c>
-      <c r="G170" s="4">
-        <f>'NVDA Data'!D155</f>
-        <v>7.8630698615983381E-3</v>
-      </c>
-      <c r="H170" s="4">
-        <f>'LLY Data'!D155</f>
-        <v>1.3611826221565978E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="15">
+        <f t="shared" si="24"/>
+        <v>-2.5946052477616565E-3</v>
+      </c>
       <c r="B171" s="4">
         <v>-5.9705136427459391E-4</v>
       </c>
@@ -4759,20 +4227,15 @@
       <c r="D171" s="4">
         <v>-2.814659705529641E-3</v>
       </c>
-      <c r="F171" s="4">
-        <f>'JPM Data'!D156</f>
-        <v>-2.5937355029049852E-4</v>
-      </c>
-      <c r="G171" s="4">
-        <f>'NVDA Data'!D156</f>
-        <v>-1.4207137663343496E-3</v>
-      </c>
-      <c r="H171" s="4">
-        <f>'LLY Data'!D156</f>
-        <v>-1.2241147210277112E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="15">
+        <f t="shared" si="24"/>
+        <v>4.2950315942172053E-3</v>
+      </c>
       <c r="B172" s="4">
         <v>5.9140115248522678E-3</v>
       </c>
@@ -4782,20 +4245,15 @@
       <c r="D172" s="4">
         <v>4.9083654083870545E-4</v>
       </c>
-      <c r="F172" s="4">
-        <f>'JPM Data'!D157</f>
-        <v>2.560857542603E-3</v>
-      </c>
-      <c r="G172" s="4">
-        <f>'NVDA Data'!D157</f>
-        <v>3.975139786628854E-3</v>
-      </c>
-      <c r="H172" s="4">
-        <f>'LLY Data'!D157</f>
-        <v>2.1311530309124792E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="15">
+        <f t="shared" si="24"/>
+        <v>1.1431819603459729E-2</v>
+      </c>
       <c r="B173" s="4">
         <v>5.997948277788788E-3</v>
       </c>
@@ -4805,20 +4263,15 @@
       <c r="D173" s="4">
         <v>1.8995263777831447E-2</v>
       </c>
-      <c r="F173" s="4">
-        <f>'JPM Data'!D158</f>
-        <v>2.5970949817938991E-3</v>
-      </c>
-      <c r="G173" s="4">
-        <f>'NVDA Data'!D158</f>
-        <v>1.214494815130959E-3</v>
-      </c>
-      <c r="H173" s="4">
-        <f>'LLY Data'!D158</f>
-        <v>8.1721654392693157E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="15">
+        <f t="shared" si="24"/>
+        <v>1.0272876528377441E-3</v>
+      </c>
       <c r="B174" s="4">
         <v>5.3129231859533315E-3</v>
       </c>
@@ -4828,20 +4281,15 @@
       <c r="D174" s="4">
         <v>-1.1350349411078558E-3</v>
       </c>
-      <c r="F174" s="4">
-        <f>'JPM Data'!D159</f>
-        <v>2.3012653981390554E-3</v>
-      </c>
-      <c r="G174" s="4">
-        <f>'NVDA Data'!D159</f>
-        <v>9.2179503117753494E-4</v>
-      </c>
-      <c r="H174" s="4">
-        <f>'LLY Data'!D159</f>
-        <v>-4.932193752842899E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="15">
+        <f t="shared" si="24"/>
+        <v>1.5857562849422365E-3</v>
+      </c>
       <c r="B175" s="4">
         <v>-1.1743801800238732E-3</v>
       </c>
@@ -4851,20 +4299,15 @@
       <c r="D175" s="4">
         <v>3.5637555500124467E-3</v>
       </c>
-      <c r="F175" s="4">
-        <f>'JPM Data'!D160</f>
-        <v>-5.1032654921997621E-4</v>
-      </c>
-      <c r="G175" s="4">
-        <f>'NVDA Data'!D160</f>
-        <v>0</v>
-      </c>
-      <c r="H175" s="4">
-        <f>'LLY Data'!D160</f>
-        <v>1.5449680582061893E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="15">
+        <f t="shared" si="24"/>
+        <v>7.9918085129078876E-4</v>
+      </c>
       <c r="B176" s="4">
         <v>1.1640186105190801E-2</v>
       </c>
@@ -4874,20 +4317,15 @@
       <c r="D176" s="4">
         <v>1.5919902506250687E-2</v>
       </c>
-      <c r="F176" s="4">
-        <f>'JPM Data'!D161</f>
-        <v>5.0260728047197556E-3</v>
-      </c>
-      <c r="G176" s="4">
-        <f>'NVDA Data'!D161</f>
-        <v>-1.2039562607081191E-2</v>
-      </c>
-      <c r="H176" s="4">
-        <f>'LLY Data'!D161</f>
-        <v>6.8594685081225931E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="15">
+        <f t="shared" si="24"/>
+        <v>1.6660966908791514E-2</v>
+      </c>
       <c r="B177" s="4">
         <v>-4.3584378894669044E-3</v>
       </c>
@@ -4897,20 +4335,15 @@
       <c r="D177" s="4">
         <v>4.3059776214738221E-2</v>
       </c>
-      <c r="F177" s="4">
-        <f>'JPM Data'!D162</f>
-        <v>-1.896982474742677E-3</v>
-      </c>
-      <c r="G177" s="4">
-        <f>'NVDA Data'!D162</f>
-        <v>-5.4345836301008307E-3</v>
-      </c>
-      <c r="H177" s="4">
-        <f>'LLY Data'!D162</f>
-        <v>1.830919791485041E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="15">
+        <f t="shared" si="24"/>
+        <v>4.90875236661185E-4</v>
+      </c>
       <c r="B178" s="4">
         <v>4.6694583668941282E-4</v>
       </c>
@@ -4920,20 +4353,15 @@
       <c r="D178" s="4">
         <v>-5.1805279970732667E-3</v>
       </c>
-      <c r="F178" s="4">
-        <f>'JPM Data'!D163</f>
-        <v>2.0274466851549018E-4</v>
-      </c>
-      <c r="G178" s="4">
-        <f>'NVDA Data'!D163</f>
-        <v>3.899127370502649E-3</v>
-      </c>
-      <c r="H178" s="4">
-        <f>'LLY Data'!D163</f>
-        <v>-2.2557226977790489E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="15">
+        <f t="shared" si="24"/>
+        <v>1.1757850073496796E-2</v>
+      </c>
       <c r="B179" s="4">
         <v>5.0172136513471251E-3</v>
       </c>
@@ -4943,20 +4371,15 @@
       <c r="D179" s="4">
         <v>6.5907043010056208E-3</v>
       </c>
-      <c r="F179" s="4">
-        <f>'JPM Data'!D164</f>
-        <v>2.1735002935936924E-3</v>
-      </c>
-      <c r="G179" s="4">
-        <f>'NVDA Data'!D164</f>
-        <v>9.8318057518833359E-3</v>
-      </c>
-      <c r="H179" s="4">
-        <f>'LLY Data'!D164</f>
-        <v>2.8529154417887442E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="15">
+        <f t="shared" si="24"/>
+        <v>2.7209612457577539E-2</v>
+      </c>
       <c r="B180" s="4">
         <v>-1.4512102734066416E-3</v>
       </c>
@@ -4966,20 +4389,15 @@
       <c r="D180" s="4">
         <v>1.209286500933641E-2</v>
       </c>
-      <c r="F180" s="4">
-        <f>'JPM Data'!D165</f>
-        <v>-6.3071037127764907E-4</v>
-      </c>
-      <c r="G180" s="4">
-        <f>'NVDA Data'!D165</f>
-        <v>2.7056258851191645E-2</v>
-      </c>
-      <c r="H180" s="4">
-        <f>'LLY Data'!D165</f>
-        <v>5.2203632061291801E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="15">
+        <f t="shared" si="24"/>
+        <v>3.8930885239651211E-3</v>
+      </c>
       <c r="B181" s="4">
         <v>-7.9060607869588743E-3</v>
       </c>
@@ -4989,20 +4407,15 @@
       <c r="D181" s="4">
         <v>-8.7863010140709511E-4</v>
       </c>
-      <c r="F181" s="4">
-        <f>'JPM Data'!D166</f>
-        <v>-3.447203500766635E-3</v>
-      </c>
-      <c r="G181" s="4">
-        <f>'NVDA Data'!D166</f>
-        <v>7.3103291471972075E-3</v>
-      </c>
-      <c r="H181" s="4">
-        <f>'LLY Data'!D166</f>
-        <v>-3.8175193861734536E-4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="15">
+        <f t="shared" si="24"/>
+        <v>1.1699824190765182E-2</v>
+      </c>
       <c r="B182" s="4">
         <v>2.1094609318288889E-3</v>
       </c>
@@ -5012,20 +4425,15 @@
       <c r="D182" s="4">
         <v>7.5302521579127387E-3</v>
       </c>
-      <c r="F182" s="4">
-        <f>'JPM Data'!D167</f>
-        <v>9.1516233189298268E-4</v>
-      </c>
-      <c r="G182" s="4">
-        <f>'NVDA Data'!D167</f>
-        <v>9.7779911434033168E-3</v>
-      </c>
-      <c r="H182" s="4">
-        <f>'LLY Data'!D167</f>
-        <v>3.2580951585553875E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="15">
+        <f t="shared" si="24"/>
+        <v>6.5763871703793603E-3</v>
+      </c>
       <c r="B183" s="4">
         <v>-4.2100409467651723E-3</v>
       </c>
@@ -5035,20 +4443,15 @@
       <c r="D183" s="4">
         <v>8.775080912574687E-3</v>
       </c>
-      <c r="F183" s="4">
-        <f>'JPM Data'!D168</f>
-        <v>-1.8322572027149357E-3</v>
-      </c>
-      <c r="G183" s="4">
-        <f>'NVDA Data'!D168</f>
-        <v>3.7553279451061966E-3</v>
-      </c>
-      <c r="H183" s="4">
-        <f>'LLY Data'!D168</f>
-        <v>3.7943456151552433E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="15">
+        <f t="shared" si="24"/>
+        <v>3.7567944156170823E-3</v>
+      </c>
       <c r="B184" s="4">
         <v>-7.3399881244870227E-3</v>
       </c>
@@ -5058,20 +4461,15 @@
       <c r="D184" s="4">
         <v>1.1325760616058037E-2</v>
       </c>
-      <c r="F184" s="4">
-        <f>'JPM Data'!D169</f>
-        <v>-3.1994728032673286E-3</v>
-      </c>
-      <c r="G184" s="4">
-        <f>'NVDA Data'!D169</f>
-        <v>-8.8815666467592451E-4</v>
-      </c>
-      <c r="H184" s="4">
-        <f>'LLY Data'!D169</f>
-        <v>4.8910697848012948E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="15">
+        <f t="shared" si="24"/>
+        <v>2.6359312992045979E-3</v>
+      </c>
       <c r="B185" s="4">
         <v>-6.2703196655278957E-3</v>
       </c>
@@ -5081,20 +4479,15 @@
       <c r="D185" s="4">
         <v>-1.2987581359879624E-2</v>
       </c>
-      <c r="F185" s="4">
-        <f>'JPM Data'!D170</f>
-        <v>-2.7317386462513424E-3</v>
-      </c>
-      <c r="G185" s="4">
-        <f>'NVDA Data'!D170</f>
-        <v>1.3073769494020167E-2</v>
-      </c>
-      <c r="H185" s="4">
-        <f>'LLY Data'!D170</f>
-        <v>-5.6773829808727042E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="15">
+        <f t="shared" si="24"/>
+        <v>-7.2975566157132367E-3</v>
+      </c>
       <c r="B186" s="4">
         <v>-5.357516077411105E-3</v>
       </c>
@@ -5104,20 +4497,15 @@
       <c r="D186" s="4">
         <v>-8.9194795126758594E-3</v>
       </c>
-      <c r="F186" s="4">
-        <f>'JPM Data'!D171</f>
-        <v>-2.3329947930078245E-3</v>
-      </c>
-      <c r="G186" s="4">
-        <f>'NVDA Data'!D171</f>
-        <v>-2.5416047970521806E-3</v>
-      </c>
-      <c r="H186" s="4">
-        <f>'LLY Data'!D171</f>
-        <v>-3.8910597602027992E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="15">
+        <f t="shared" si="24"/>
+        <v>2.1710713328272997E-3</v>
+      </c>
       <c r="B187" s="4">
         <v>1.9749945435851781E-3</v>
       </c>
@@ -5127,20 +4515,15 @@
       <c r="D187" s="4">
         <v>-8.8406891224735336E-3</v>
       </c>
-      <c r="F187" s="4">
-        <f>'JPM Data'!D172</f>
-        <v>8.5688334036269605E-4</v>
-      </c>
-      <c r="G187" s="4">
-        <f>'NVDA Data'!D172</f>
-        <v>8.0904619442908263E-3</v>
-      </c>
-      <c r="H187" s="4">
-        <f>'LLY Data'!D172</f>
-        <v>-3.8565349452248099E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="15">
+        <f t="shared" si="24"/>
+        <v>2.0979357065573821E-2</v>
+      </c>
       <c r="B188" s="4">
         <v>1.7261972412230511E-2</v>
       </c>
@@ -5150,20 +4533,15 @@
       <c r="D188" s="4">
         <v>8.3902169066258012E-3</v>
       </c>
-      <c r="F188" s="4">
-        <f>'JPM Data'!D173</f>
-        <v>7.4328098764845536E-3</v>
-      </c>
-      <c r="G188" s="4">
-        <f>'NVDA Data'!D173</f>
-        <v>1.7761943249298993E-2</v>
-      </c>
-      <c r="H188" s="4">
-        <f>'LLY Data'!D173</f>
-        <v>3.628623632652794E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="15">
+        <f t="shared" si="24"/>
+        <v>2.5457807795928994E-3</v>
+      </c>
       <c r="B189" s="4">
         <v>-1.1743112624566301E-3</v>
       </c>
@@ -5173,20 +4551,15 @@
       <c r="D189" s="4">
         <v>3.6590214935839326E-3</v>
       </c>
-      <c r="F189" s="4">
-        <f>'JPM Data'!D174</f>
-        <v>-5.1029658351068067E-4</v>
-      </c>
-      <c r="G189" s="4">
-        <f>'NVDA Data'!D174</f>
-        <v>1.1882875903832873E-3</v>
-      </c>
-      <c r="H189" s="4">
-        <f>'LLY Data'!D174</f>
-        <v>1.586192653812209E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="15">
+        <f t="shared" si="24"/>
+        <v>-8.2807156247519727E-4</v>
+      </c>
       <c r="B190" s="4">
         <v>-6.5839463474720488E-3</v>
       </c>
@@ -5196,20 +4569,15 @@
       <c r="D190" s="4">
         <v>-1.9021243306861955E-3</v>
       </c>
-      <c r="F190" s="4">
-        <f>'JPM Data'!D175</f>
-        <v>-2.8688260637943159E-3</v>
-      </c>
-      <c r="G190" s="4">
-        <f>'NVDA Data'!D175</f>
-        <v>1.591462453490896E-3</v>
-      </c>
-      <c r="H190" s="4">
-        <f>'LLY Data'!D175</f>
-        <v>-8.2686875384201943E-4</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="15">
+        <f t="shared" si="24"/>
+        <v>1.2965796269664629E-2</v>
+      </c>
       <c r="B191" s="4">
         <v>8.9354071705564659E-3</v>
       </c>
@@ -5219,20 +4587,15 @@
       <c r="D191" s="4">
         <v>6.3842262387394724E-3</v>
       </c>
-      <c r="F191" s="4">
-        <f>'JPM Data'!D176</f>
-        <v>3.8633632563912041E-3</v>
-      </c>
-      <c r="G191" s="4">
-        <f>'NVDA Data'!D176</f>
-        <v>1.0668475432011189E-2</v>
-      </c>
-      <c r="H191" s="4">
-        <f>'LLY Data'!D176</f>
-        <v>2.7638211544925677E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.0234789277922688E-3</v>
+      </c>
       <c r="B192" s="4">
         <v>1.4310864758979438E-2</v>
       </c>
@@ -5242,20 +4605,15 @@
       <c r="D192" s="4">
         <v>-9.5944721046614459E-3</v>
       </c>
-      <c r="F192" s="4">
-        <f>'JPM Data'!D177</f>
-        <v>6.1710774420525288E-3</v>
-      </c>
-      <c r="G192" s="4">
-        <f>'NVDA Data'!D177</f>
-        <v>1.8010508362920191E-3</v>
-      </c>
-      <c r="H192" s="4">
-        <f>'LLY Data'!D177</f>
-        <v>-4.1869443258329836E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
+        <f t="shared" si="24"/>
+        <v>5.460866667073452E-3</v>
+      </c>
       <c r="B193" s="4">
         <v>-3.8163736139278526E-3</v>
       </c>
@@ -5265,20 +4623,15 @@
       <c r="D193" s="4">
         <v>1.8530328818860273E-2</v>
       </c>
-      <c r="F193" s="4">
-        <f>'JPM Data'!D178</f>
-        <v>-1.6606007572356203E-3</v>
-      </c>
-      <c r="G193" s="4">
-        <f>'NVDA Data'!D178</f>
-        <v>-4.1500803277855951E-3</v>
-      </c>
-      <c r="H193" s="4">
-        <f>'LLY Data'!D178</f>
-        <v>7.9739655331053736E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="15">
+        <f t="shared" si="24"/>
+        <v>1.2757927466685366E-2</v>
+      </c>
       <c r="B194" s="4">
         <v>2.6120092374709884E-3</v>
       </c>
@@ -5288,20 +4641,15 @@
       <c r="D194" s="4">
         <v>8.9949159170903403E-3</v>
       </c>
-      <c r="F194" s="4">
-        <f>'JPM Data'!D179</f>
-        <v>1.1329022661928118E-3</v>
-      </c>
-      <c r="G194" s="4">
-        <f>'NVDA Data'!D179</f>
-        <v>1.0086271987430092E-2</v>
-      </c>
-      <c r="H194" s="4">
-        <f>'LLY Data'!D179</f>
-        <v>3.8889779368947064E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="15">
+        <f t="shared" si="24"/>
+        <v>5.0543207247213621E-3</v>
+      </c>
       <c r="B195" s="4">
         <v>2.0494463222849469E-2</v>
       </c>
@@ -5311,20 +4659,15 @@
       <c r="D195" s="4">
         <v>-3.1038032945736434E-5</v>
       </c>
-      <c r="F195" s="4">
-        <f>'JPM Data'!D180</f>
-        <v>8.8106527578343703E-3</v>
-      </c>
-      <c r="G195" s="4">
-        <f>'NVDA Data'!D180</f>
-        <v>2.143045651716725E-3</v>
-      </c>
-      <c r="H195" s="4">
-        <f>'LLY Data'!D180</f>
-        <v>-1.3479855632626108E-5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="15">
+        <f t="shared" si="24"/>
+        <v>-7.9361703747767298E-3</v>
+      </c>
       <c r="B196" s="4">
         <v>-1.0835670368264806E-2</v>
       </c>
@@ -5334,20 +4677,15 @@
       <c r="D196" s="4">
         <v>9.7678207369192869E-4</v>
       </c>
-      <c r="F196" s="4">
-        <f>'JPM Data'!D181</f>
-        <v>-4.7315531714569471E-3</v>
-      </c>
-      <c r="G196" s="4">
-        <f>'NVDA Data'!D181</f>
-        <v>-8.7140482039590877E-3</v>
-      </c>
-      <c r="H196" s="4">
-        <f>'LLY Data'!D181</f>
-        <v>4.2400401855966657E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="15">
+        <f t="shared" si="24"/>
+        <v>1.8992498893357669E-2</v>
+      </c>
       <c r="B197" s="4">
         <v>-3.6132420314673236E-3</v>
       </c>
@@ -5357,20 +4695,15 @@
       <c r="D197" s="4">
         <v>2.2955046638798274E-2</v>
       </c>
-      <c r="F197" s="4">
-        <f>'JPM Data'!D182</f>
-        <v>-1.5720528932693738E-3</v>
-      </c>
-      <c r="G197" s="4">
-        <f>'NVDA Data'!D182</f>
-        <v>1.0460895911260627E-2</v>
-      </c>
-      <c r="H197" s="4">
-        <f>'LLY Data'!D182</f>
-        <v>9.8565492295874316E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="15">
+        <f t="shared" si="24"/>
+        <v>2.2980487212640482E-2</v>
+      </c>
       <c r="B198" s="4">
         <v>5.756058392865567E-3</v>
       </c>
@@ -5380,20 +4713,15 @@
       <c r="D198" s="4">
         <v>1.0932319577172032E-2</v>
       </c>
-      <c r="F198" s="4">
-        <f>'JPM Data'!D183</f>
-        <v>2.4926573195267494E-3</v>
-      </c>
-      <c r="G198" s="4">
-        <f>'NVDA Data'!D183</f>
-        <v>2.1068881852393497E-2</v>
-      </c>
-      <c r="H198" s="4">
-        <f>'LLY Data'!D183</f>
-        <v>4.7220811913354964E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="15">
+        <f t="shared" si="24"/>
+        <v>4.4615547880951373E-2</v>
+      </c>
       <c r="B199" s="4">
         <v>-1.3162921831557984E-3</v>
       </c>
@@ -5403,20 +4731,15 @@
       <c r="D199" s="4">
         <v>5.7739813350266747E-2</v>
       </c>
-      <c r="F199" s="4">
-        <f>'JPM Data'!D184</f>
-        <v>-5.7203499696235048E-4</v>
-      </c>
-      <c r="G199" s="4">
-        <f>'NVDA Data'!D184</f>
-        <v>2.0338212350014796E-2</v>
-      </c>
-      <c r="H199" s="4">
-        <f>'LLY Data'!D184</f>
-        <v>2.4378851514964439E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="15">
+        <f t="shared" si="24"/>
+        <v>-5.5806542252674757E-3</v>
+      </c>
       <c r="B200" s="4">
         <v>3.4384303926361017E-3</v>
       </c>
@@ -5426,20 +4749,15 @@
       <c r="D200" s="4">
         <v>-1.6567302321329161E-3</v>
       </c>
-      <c r="F200" s="4">
-        <f>'JPM Data'!D185</f>
-        <v>1.4907299265845698E-3</v>
-      </c>
-      <c r="G200" s="4">
-        <f>'NVDA Data'!D185</f>
-        <v>-7.0029227398356675E-3</v>
-      </c>
-      <c r="H200" s="4">
-        <f>'LLY Data'!D185</f>
-        <v>-7.2010547291726065E-4</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="15">
+        <f t="shared" si="24"/>
+        <v>2.3903564328131711E-2</v>
+      </c>
       <c r="B201" s="4">
         <v>1.884560598306971E-3</v>
       </c>
@@ -5449,20 +4767,15 @@
       <c r="D201" s="4">
         <v>2.8863984142962016E-2</v>
       </c>
-      <c r="F201" s="4">
-        <f>'JPM Data'!D186</f>
-        <v>8.1768402288858344E-4</v>
-      </c>
-      <c r="G201" s="4">
-        <f>'NVDA Data'!D186</f>
-        <v>1.1781006321979872E-2</v>
-      </c>
-      <c r="H201" s="4">
-        <f>'LLY Data'!D186</f>
-        <v>1.2357964810459331E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="15">
+        <f t="shared" si="24"/>
+        <v>4.3243067681052599E-3</v>
+      </c>
       <c r="B202" s="4">
         <v>-3.5911169715905668E-3</v>
       </c>
@@ -5472,20 +4785,15 @@
       <c r="D202" s="4">
         <v>1.4199437155195614E-2</v>
       </c>
-      <c r="F202" s="4">
-        <f>'JPM Data'!D187</f>
-        <v>-1.5624093641297364E-3</v>
-      </c>
-      <c r="G202" s="4">
-        <f>'NVDA Data'!D187</f>
-        <v>-2.8468250680680034E-3</v>
-      </c>
-      <c r="H202" s="4">
-        <f>'LLY Data'!D187</f>
-        <v>6.1233651938495341E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="15">
+        <f t="shared" si="24"/>
+        <v>1.5161342782784165E-2</v>
+      </c>
       <c r="B203" s="4">
         <v>1.2013240927452066E-3</v>
       </c>
@@ -5495,20 +4803,15 @@
       <c r="D203" s="4">
         <v>6.0895776877873536E-3</v>
       </c>
-      <c r="F203" s="4">
-        <f>'JPM Data'!D188</f>
-        <v>5.2141529275032128E-4</v>
-      </c>
-      <c r="G203" s="4">
-        <f>'NVDA Data'!D188</f>
-        <v>1.5269022832626902E-2</v>
-      </c>
-      <c r="H203" s="4">
-        <f>'LLY Data'!D188</f>
-        <v>2.6366500674016857E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="15">
+        <f t="shared" si="24"/>
+        <v>-6.8382759779689935E-4</v>
+      </c>
       <c r="B204" s="4">
         <v>4.4568813426625522E-3</v>
       </c>
@@ -5518,20 +4821,15 @@
       <c r="D204" s="4">
         <v>-3.9180224331581718E-3</v>
       </c>
-      <c r="F204" s="4">
-        <f>'JPM Data'!D189</f>
-        <v>1.931298379563367E-3</v>
-      </c>
-      <c r="G204" s="4">
-        <f>'NVDA Data'!D189</f>
-        <v>6.9182159325640322E-4</v>
-      </c>
-      <c r="H204" s="4">
-        <f>'LLY Data'!D189</f>
-        <v>-1.7049176607995254E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="15">
+        <f t="shared" si="24"/>
+        <v>1.8658179933811751E-3</v>
+      </c>
       <c r="B205" s="4">
         <v>-8.7035601441011589E-3</v>
       </c>
@@ -5541,20 +4839,15 @@
       <c r="D205" s="4">
         <v>7.7448401674671012E-3</v>
       </c>
-      <c r="F205" s="4">
-        <f>'JPM Data'!D190</f>
-        <v>-3.7964535449826098E-3</v>
-      </c>
-      <c r="G205" s="4">
-        <f>'NVDA Data'!D190</f>
-        <v>-7.2195576624844418E-4</v>
-      </c>
-      <c r="H205" s="4">
-        <f>'LLY Data'!D190</f>
-        <v>3.3505831659139508E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="15">
+        <f t="shared" si="24"/>
+        <v>1.9527708933599511E-2</v>
+      </c>
       <c r="B206" s="4">
         <v>1.015726115147771E-2</v>
       </c>
@@ -5564,20 +4857,15 @@
       <c r="D206" s="4">
         <v>1.9300950806796367E-2</v>
       </c>
-      <c r="F206" s="4">
-        <f>'JPM Data'!D191</f>
-        <v>4.3889899546663003E-3</v>
-      </c>
-      <c r="G206" s="4">
-        <f>'NVDA Data'!D191</f>
-        <v>1.0540567254667949E-2</v>
-      </c>
-      <c r="H206" s="4">
-        <f>'LLY Data'!D191</f>
-        <v>8.3024293233056132E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.643240851381198E-3</v>
+      </c>
       <c r="B207" s="4">
         <v>2.1814442791114993E-2</v>
       </c>
@@ -5587,20 +4875,15 @@
       <c r="D207" s="4">
         <v>6.206596239285479E-4</v>
       </c>
-      <c r="F207" s="4">
-        <f>'JPM Data'!D192</f>
-        <v>9.3720369058019285E-3</v>
-      </c>
-      <c r="G207" s="4">
-        <f>'NVDA Data'!D192</f>
-        <v>-7.3610253023960693E-3</v>
-      </c>
-      <c r="H207" s="4">
-        <f>'LLY Data'!D192</f>
-        <v>2.6946543530206347E-4</v>
-      </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="15">
+        <f t="shared" si="24"/>
+        <v>1.5034334294293406E-2</v>
+      </c>
       <c r="B208" s="4">
         <v>-4.6700192399723424E-3</v>
       </c>
@@ -5610,20 +4893,15 @@
       <c r="D208" s="4">
         <v>3.2040918634721381E-2</v>
       </c>
-      <c r="F208" s="4">
-        <f>'JPM Data'!D193</f>
-        <v>-2.032914163749234E-3</v>
-      </c>
-      <c r="G208" s="4">
-        <f>'NVDA Data'!D193</f>
-        <v>-2.6904829758441054E-4</v>
-      </c>
-      <c r="H208" s="4">
-        <f>'LLY Data'!D193</f>
-        <v>1.3696916656475901E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="15">
+        <f t="shared" si="24"/>
+        <v>-3.0721741091785583E-2</v>
+      </c>
       <c r="B209" s="4">
         <v>3.9099422053057806E-3</v>
       </c>
@@ -5633,20 +4911,15 @@
       <c r="D209" s="4">
         <v>-3.3757032064645406E-2</v>
       </c>
-      <c r="F209" s="4">
-        <f>'JPM Data'!D194</f>
-        <v>1.6947552815813737E-3</v>
-      </c>
-      <c r="G209" s="4">
-        <f>'NVDA Data'!D194</f>
-        <v>-1.9329595433240282E-2</v>
-      </c>
-      <c r="H209" s="4">
-        <f>'LLY Data'!D194</f>
-        <v>-1.4913653744236971E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="15">
+        <f t="shared" si="24"/>
+        <v>-1.4857664022885504E-2</v>
+      </c>
       <c r="B210" s="4">
         <v>6.5097546139079318E-3</v>
       </c>
@@ -5656,20 +4929,15 @@
       <c r="D210" s="4">
         <v>-1.2902628624654133E-2</v>
       </c>
-      <c r="F210" s="4">
-        <f>'JPM Data'!D195</f>
-        <v>2.8179882206641432E-3</v>
-      </c>
-      <c r="G210" s="4">
-        <f>'NVDA Data'!D195</f>
-        <v>-1.2561193872355067E-2</v>
-      </c>
-      <c r="H210" s="4">
-        <f>'LLY Data'!D195</f>
-        <v>-5.640004609780697E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="15">
+        <f t="shared" ref="A211:A269" si="25">$B$3*B211+$B$4*C211+$B$5*D211</f>
+        <v>7.2524978093910911E-2</v>
+      </c>
       <c r="B211" s="4">
         <v>1.1995652299334776E-2</v>
       </c>
@@ -5679,20 +4947,15 @@
       <c r="D211" s="4">
         <v>3.181354635046283E-2</v>
       </c>
-      <c r="F211" s="4">
-        <f>'JPM Data'!D196</f>
-        <v>5.1786467068792698E-3</v>
-      </c>
-      <c r="G211" s="4">
-        <f>'NVDA Data'!D196</f>
-        <v>6.5956264282542088E-2</v>
-      </c>
-      <c r="H211" s="4">
-        <f>'LLY Data'!D196</f>
-        <v>1.3601225288246102E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="15">
+        <f t="shared" si="25"/>
+        <v>1.9572040322469956E-3</v>
+      </c>
       <c r="B212" s="4">
         <v>5.0253899171843735E-3</v>
       </c>
@@ -5702,20 +4965,15 @@
       <c r="D212" s="4">
         <v>-1.2997845640833354E-4</v>
       </c>
-      <c r="F212" s="4">
-        <f>'JPM Data'!D197</f>
-        <v>2.1770334596364566E-3</v>
-      </c>
-      <c r="G212" s="4">
-        <f>'NVDA Data'!D197</f>
-        <v>1.540059016361457E-3</v>
-      </c>
-      <c r="H212" s="4">
-        <f>'LLY Data'!D197</f>
-        <v>-5.6452595274544359E-5</v>
-      </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="15">
+        <f t="shared" si="25"/>
+        <v>2.1364276614837508E-3</v>
+      </c>
       <c r="B213" s="4">
         <v>-3.4241255720622223E-3</v>
       </c>
@@ -5725,20 +4983,15 @@
       <c r="D213" s="4">
         <v>3.0927631452157033E-3</v>
       </c>
-      <c r="F213" s="4">
-        <f>'JPM Data'!D198</f>
-        <v>-1.4896306404201265E-3</v>
-      </c>
-      <c r="G213" s="4">
-        <f>'NVDA Data'!D198</f>
-        <v>1.5126656841612208E-3</v>
-      </c>
-      <c r="H213" s="4">
-        <f>'LLY Data'!D198</f>
-        <v>1.3410971871605933E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="15">
+        <f t="shared" si="25"/>
+        <v>-6.0466015457605396E-3</v>
+      </c>
       <c r="B214" s="4">
         <v>4.9081772246631437E-4</v>
       </c>
@@ -5748,20 +5001,15 @@
       <c r="D214" s="4">
         <v>-8.9646376092862995E-3</v>
       </c>
-      <c r="F214" s="4">
-        <f>'JPM Data'!D199</f>
-        <v>2.1310713438537176E-4</v>
-      </c>
-      <c r="G214" s="4">
-        <f>'NVDA Data'!D199</f>
-        <v>-2.1523426330438051E-3</v>
-      </c>
-      <c r="H214" s="4">
-        <f>'LLY Data'!D199</f>
-        <v>-3.9108486255703288E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="15">
+        <f t="shared" si="25"/>
+        <v>-8.3558003785673962E-3</v>
+      </c>
       <c r="B215" s="4">
         <v>5.069544562774724E-3</v>
       </c>
@@ -5771,20 +5019,15 @@
       <c r="D215" s="4">
         <v>-9.6208958843960191E-3</v>
       </c>
-      <c r="F215" s="4">
-        <f>'JPM Data'!D200</f>
-        <v>2.196113273832687E-3</v>
-      </c>
-      <c r="G215" s="4">
-        <f>'NVDA Data'!D200</f>
-        <v>-5.7660568938785219E-3</v>
-      </c>
-      <c r="H215" s="4">
-        <f>'LLY Data'!D200</f>
-        <v>-4.1985313520497584E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="15">
+        <f t="shared" si="25"/>
+        <v>5.1211882419896528E-3</v>
+      </c>
       <c r="B216" s="4">
         <v>9.1115773472768384E-3</v>
       </c>
@@ -5794,20 +5037,15 @@
       <c r="D216" s="4">
         <v>-5.2267856714162154E-3</v>
       </c>
-      <c r="F216" s="4">
-        <f>'JPM Data'!D201</f>
-        <v>3.9391887811751581E-3</v>
-      </c>
-      <c r="G216" s="4">
-        <f>'NVDA Data'!D201</f>
-        <v>8.0281872902646292E-3</v>
-      </c>
-      <c r="H216" s="4">
-        <f>'LLY Data'!D201</f>
-        <v>-2.2759172359420221E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="15">
+        <f t="shared" si="25"/>
+        <v>3.150690720770373E-2</v>
+      </c>
       <c r="B217" s="4">
         <v>-4.1384729794943544E-3</v>
       </c>
@@ -5817,20 +5055,15 @@
       <c r="D217" s="4">
         <v>3.7734851286732214E-2</v>
       </c>
-      <c r="F217" s="4">
-        <f>'JPM Data'!D202</f>
-        <v>-1.8010453431125332E-3</v>
-      </c>
-      <c r="G217" s="4">
-        <f>'NVDA Data'!D202</f>
-        <v>1.7046639993025657E-2</v>
-      </c>
-      <c r="H217" s="4">
-        <f>'LLY Data'!D202</f>
-        <v>1.6086402324611854E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
+        <f t="shared" si="25"/>
+        <v>1.971961522852389E-2</v>
+      </c>
       <c r="B218" s="4">
         <v>7.5017509850222458E-3</v>
       </c>
@@ -5840,20 +5073,15 @@
       <c r="D218" s="4">
         <v>1.2990377746531912E-2</v>
       </c>
-      <c r="F218" s="4">
-        <f>'JPM Data'!D203</f>
-        <v>3.2458095947571915E-3</v>
-      </c>
-      <c r="G218" s="4">
-        <f>'NVDA Data'!D203</f>
-        <v>1.5339152206155757E-2</v>
-      </c>
-      <c r="H218" s="4">
-        <f>'LLY Data'!D203</f>
-        <v>5.6053200775242938E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="15">
+        <f t="shared" si="25"/>
+        <v>-4.7576415716312917E-3</v>
+      </c>
       <c r="B219" s="4">
         <v>1.0017197607371669E-2</v>
       </c>
@@ -5863,20 +5091,15 @@
       <c r="D219" s="4">
         <v>-1.8541427144697798E-2</v>
       </c>
-      <c r="F219" s="4">
-        <f>'JPM Data'!D204</f>
-        <v>4.3287685968971387E-3</v>
-      </c>
-      <c r="G219" s="4">
-        <f>'NVDA Data'!D204</f>
-        <v>3.6884463640770439E-3</v>
-      </c>
-      <c r="H219" s="4">
-        <f>'LLY Data'!D204</f>
-        <v>-8.1280271490979349E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="15">
+        <f t="shared" si="25"/>
+        <v>1.2868234722925968E-2</v>
+      </c>
       <c r="B220" s="4">
         <v>5.197537585135953E-3</v>
       </c>
@@ -5886,20 +5109,15 @@
       <c r="D220" s="4">
         <v>2.8035244801143072E-3</v>
       </c>
-      <c r="F220" s="4">
-        <f>'JPM Data'!D205</f>
-        <v>2.251416038228865E-3</v>
-      </c>
-      <c r="G220" s="4">
-        <f>'NVDA Data'!D205</f>
-        <v>1.3607005123477043E-2</v>
-      </c>
-      <c r="H220" s="4">
-        <f>'LLY Data'!D205</f>
-        <v>1.2158516718743359E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="15">
+        <f t="shared" si="25"/>
+        <v>1.368790696979592E-2</v>
+      </c>
       <c r="B221" s="4">
         <v>-8.7585272663988547E-3</v>
       </c>
@@ -5909,20 +5127,15 @@
       <c r="D221" s="4">
         <v>5.0008797916524007E-4</v>
       </c>
-      <c r="F221" s="4">
-        <f>'JPM Data'!D206</f>
-        <v>-3.820535725458971E-3</v>
-      </c>
-      <c r="G221" s="4">
-        <f>'NVDA Data'!D206</f>
-        <v>1.9010865636765822E-2</v>
-      </c>
-      <c r="H221" s="4">
-        <f>'LLY Data'!D206</f>
-        <v>2.1713116199962603E-4</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.9711605885906565E-2</v>
+      </c>
       <c r="B222" s="4">
         <v>1.8630229020749208E-3</v>
       </c>
@@ -5932,20 +5145,15 @@
       <c r="D222" s="4">
         <v>-2.3097773682828549E-2</v>
       </c>
-      <c r="F222" s="4">
-        <f>'JPM Data'!D207</f>
-        <v>8.0834781437223908E-4</v>
-      </c>
-      <c r="G222" s="4">
-        <f>'NVDA Data'!D207</f>
-        <v>-2.4787466106720762E-2</v>
-      </c>
-      <c r="H222" s="4">
-        <f>'LLY Data'!D207</f>
-        <v>-1.0148900657684758E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.4829428008776626E-2</v>
+      </c>
       <c r="B223" s="4">
         <v>3.7186305905346194E-4</v>
       </c>
@@ -5955,20 +5163,15 @@
       <c r="D223" s="4">
         <v>-3.6436900041339336E-2</v>
       </c>
-      <c r="F223" s="4">
-        <f>'JPM Data'!D208</f>
-        <v>1.6146805442858274E-4</v>
-      </c>
-      <c r="G223" s="4">
-        <f>'NVDA Data'!D208</f>
-        <v>-8.7913303963243483E-3</v>
-      </c>
-      <c r="H223" s="4">
-        <f>'LLY Data'!D208</f>
-        <v>-1.611983983930548E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="15">
+        <f t="shared" si="25"/>
+        <v>3.9220176113393505E-2</v>
+      </c>
       <c r="B224" s="4">
         <v>8.2319990813456197E-3</v>
       </c>
@@ -5978,20 +5181,15 @@
       <c r="D224" s="4">
         <v>2.8024044046843066E-2</v>
       </c>
-      <c r="F224" s="4">
-        <f>'JPM Data'!D209</f>
-        <v>3.5604768790821781E-3</v>
-      </c>
-      <c r="G224" s="4">
-        <f>'NVDA Data'!D209</f>
-        <v>3.002127701010324E-2</v>
-      </c>
-      <c r="H224" s="4">
-        <f>'LLY Data'!D209</f>
-        <v>1.2003272319520968E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="15">
+        <f t="shared" si="25"/>
+        <v>-4.4480051689271632E-4</v>
+      </c>
       <c r="B225" s="4">
         <v>8.1121395629453023E-3</v>
       </c>
@@ -6001,20 +5199,15 @@
       <c r="D225" s="4">
         <v>3.8280874252696862E-3</v>
       </c>
-      <c r="F225" s="4">
-        <f>'JPM Data'!D210</f>
-        <v>3.5088444949980752E-3</v>
-      </c>
-      <c r="G225" s="4">
-        <f>'NVDA Data'!D210</f>
-        <v>-4.8704018678703822E-3</v>
-      </c>
-      <c r="H225" s="4">
-        <f>'LLY Data'!D210</f>
-        <v>1.6593432120960805E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.185527242249141E-2</v>
+      </c>
       <c r="B226" s="4">
         <v>-1.7817972489848299E-2</v>
       </c>
@@ -6024,20 +5217,15 @@
       <c r="D226" s="4">
         <v>3.813408517459062E-3</v>
       </c>
-      <c r="F226" s="4">
-        <f>'JPM Data'!D211</f>
-        <v>-7.8080170834415952E-3</v>
-      </c>
-      <c r="G226" s="4">
-        <f>'NVDA Data'!D211</f>
-        <v>-1.4300332998539863E-2</v>
-      </c>
-      <c r="H226" s="4">
-        <f>'LLY Data'!D211</f>
-        <v>1.6529925078737333E-3</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.6467446465007231E-3</v>
+      </c>
       <c r="B227" s="4">
         <v>1.2395604702466484E-2</v>
       </c>
@@ -6047,20 +5235,15 @@
       <c r="D227" s="4">
         <v>-8.6232930566924795E-3</v>
       </c>
-      <c r="F227" s="4">
-        <f>'JPM Data'!D212</f>
-        <v>5.3502510085311743E-3</v>
-      </c>
-      <c r="G227" s="4">
-        <f>'NVDA Data'!D212</f>
-        <v>-5.2873173481746312E-4</v>
-      </c>
-      <c r="H227" s="4">
-        <f>'LLY Data'!D212</f>
-        <v>-3.7612893493961376E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="15">
+        <f t="shared" si="25"/>
+        <v>1.0042666793911293E-2</v>
+      </c>
       <c r="B228" s="4">
         <v>1.2401474369446826E-2</v>
       </c>
@@ -6070,20 +5253,15 @@
       <c r="D228" s="4">
         <v>1.1257396113292949E-2</v>
       </c>
-      <c r="F228" s="4">
-        <f>'JPM Data'!D213</f>
-        <v>5.3527689536689693E-3</v>
-      </c>
-      <c r="G228" s="4">
-        <f>'NVDA Data'!D213</f>
-        <v>3.0449113913083321E-3</v>
-      </c>
-      <c r="H228" s="4">
-        <f>'LLY Data'!D213</f>
-        <v>4.861710965885553E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="15">
+        <f t="shared" si="25"/>
+        <v>1.1164244282973145E-2</v>
+      </c>
       <c r="B229" s="4">
         <v>5.8652008852069851E-3</v>
       </c>
@@ -6093,20 +5271,15 @@
       <c r="D229" s="4">
         <v>1.326942085424763E-2</v>
       </c>
-      <c r="F229" s="4">
-        <f>'JPM Data'!D214</f>
-        <v>2.5397834691365997E-3</v>
-      </c>
-      <c r="G229" s="4">
-        <f>'NVDA Data'!D214</f>
-        <v>4.605419853304607E-3</v>
-      </c>
-      <c r="H229" s="4">
-        <f>'LLY Data'!D214</f>
-        <v>5.7249364097871911E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="15">
+        <f t="shared" si="25"/>
+        <v>5.8686684105688485E-3</v>
+      </c>
       <c r="B230" s="4">
         <v>1.3107016011769404E-2</v>
       </c>
@@ -6116,20 +5289,15 @@
       <c r="D230" s="4">
         <v>1.0346547743967247E-4</v>
       </c>
-      <c r="F230" s="4">
-        <f>'JPM Data'!D215</f>
-        <v>5.6553229600939557E-3</v>
-      </c>
-      <c r="G230" s="4">
-        <f>'NVDA Data'!D215</f>
-        <v>4.7060858915386698E-3</v>
-      </c>
-      <c r="H230" s="4">
-        <f>'LLY Data'!D215</f>
-        <v>4.4932161495844044E-5</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
+        <f t="shared" si="25"/>
+        <v>4.5570047166702023E-3</v>
+      </c>
       <c r="B231" s="4">
         <v>1.3905137788814482E-2</v>
       </c>
@@ -6139,20 +5307,15 @@
       <c r="D231" s="4">
         <v>-3.364096518406703E-3</v>
       </c>
-      <c r="F231" s="4">
-        <f>'JPM Data'!D216</f>
-        <v>5.9973237723930971E-3</v>
-      </c>
-      <c r="G231" s="4">
-        <f>'NVDA Data'!D216</f>
-        <v>5.0785560623937253E-3</v>
-      </c>
-      <c r="H231" s="4">
-        <f>'LLY Data'!D216</f>
-        <v>-1.4634715668552973E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="15">
+        <f t="shared" si="25"/>
+        <v>8.5742438845383059E-3</v>
+      </c>
       <c r="B232" s="4">
         <v>-1.2257623185631818E-2</v>
       </c>
@@ -6162,20 +5325,15 @@
       <c r="D232" s="4">
         <v>4.5436032183929161E-4</v>
       </c>
-      <c r="F232" s="4">
-        <f>'JPM Data'!D217</f>
-        <v>-5.356313426045446E-3</v>
-      </c>
-      <c r="G232" s="4">
-        <f>'NVDA Data'!D217</f>
-        <v>1.3348578884845188E-2</v>
-      </c>
-      <c r="H232" s="4">
-        <f>'LLY Data'!D217</f>
-        <v>1.9728136555136215E-4</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="15">
+        <f t="shared" si="25"/>
+        <v>2.6308382270135533E-3</v>
+      </c>
       <c r="B233" s="4">
         <v>-9.1546528210224559E-3</v>
       </c>
@@ -6185,20 +5343,15 @@
       <c r="D233" s="4">
         <v>3.2831514578944478E-3</v>
       </c>
-      <c r="F233" s="4">
-        <f>'JPM Data'!D218</f>
-        <v>-3.994125643999401E-3</v>
-      </c>
-      <c r="G233" s="4">
-        <f>'NVDA Data'!D218</f>
-        <v>3.2717066963704362E-3</v>
-      </c>
-      <c r="H233" s="4">
-        <f>'LLY Data'!D218</f>
-        <v>1.4235190237282586E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
+        <f t="shared" si="25"/>
+        <v>-6.6379086746957234E-3</v>
+      </c>
       <c r="B234" s="4">
         <v>4.6709186382823537E-3</v>
       </c>
@@ -6208,20 +5361,15 @@
       <c r="D234" s="4">
         <v>2.2764437647497956E-3</v>
       </c>
-      <c r="F234" s="4">
-        <f>'JPM Data'!D219</f>
-        <v>2.0238312853960781E-3</v>
-      </c>
-      <c r="G234" s="4">
-        <f>'NVDA Data'!D219</f>
-        <v>-1.1304719294081335E-2</v>
-      </c>
-      <c r="H234" s="4">
-        <f>'LLY Data'!D219</f>
-        <v>9.8752337066099769E-4</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.9640284880633771E-3</v>
+      </c>
       <c r="B235" s="4">
         <v>1.9363452856744449E-2</v>
       </c>
@@ -6231,20 +5379,15 @@
       <c r="D235" s="4">
         <v>4.2327631415408897E-3</v>
       </c>
-      <c r="F235" s="4">
-        <f>'JPM Data'!D220</f>
-        <v>8.3290588120628704E-3</v>
-      </c>
-      <c r="G235" s="4">
-        <f>'NVDA Data'!D220</f>
-        <v>-1.098081334023647E-2</v>
-      </c>
-      <c r="H235" s="4">
-        <f>'LLY Data'!D220</f>
-        <v>1.8343861475394283E-3</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="15">
+        <f t="shared" si="25"/>
+        <v>9.0265312979183408E-4</v>
+      </c>
       <c r="B236" s="4">
         <v>3.9093763161303866E-3</v>
       </c>
@@ -6254,20 +5397,15 @@
       <c r="D236" s="4">
         <v>-2.8267329563257999E-4</v>
       </c>
-      <c r="F236" s="4">
-        <f>'JPM Data'!D221</f>
-        <v>1.6945104761410304E-3</v>
-      </c>
-      <c r="G236" s="4">
-        <f>'NVDA Data'!D221</f>
-        <v>5.0979966318935436E-4</v>
-      </c>
-      <c r="H236" s="4">
-        <f>'LLY Data'!D221</f>
-        <v>-1.2278080671995024E-4</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.2297658823783787E-2</v>
+      </c>
       <c r="B237" s="4">
         <v>-6.7898182208193649E-3</v>
       </c>
@@ -6277,20 +5415,15 @@
       <c r="D237" s="4">
         <v>-2.2379085927245759E-2</v>
       </c>
-      <c r="F237" s="4">
-        <f>'JPM Data'!D222</f>
-        <v>-2.9588369750560856E-3</v>
-      </c>
-      <c r="G237" s="4">
-        <f>'NVDA Data'!D222</f>
-        <v>3.3625588781623599E-5</v>
-      </c>
-      <c r="H237" s="4">
-        <f>'LLY Data'!D222</f>
-        <v>-9.8295162164591041E-3</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.1824791091075001E-3</v>
+      </c>
       <c r="B238" s="4">
         <v>-4.0214049498950397E-4</v>
       </c>
@@ -6300,20 +5433,15 @@
       <c r="D238" s="4">
         <v>4.4836424093353958E-3</v>
       </c>
-      <c r="F238" s="4">
-        <f>'JPM Data'!D223</f>
-        <v>-1.7468252373664987E-4</v>
-      </c>
-      <c r="G238" s="4">
-        <f>'NVDA Data'!D223</f>
-        <v>-4.4005638146815225E-3</v>
-      </c>
-      <c r="H238" s="4">
-        <f>'LLY Data'!D223</f>
-        <v>1.942868840160936E-3</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="15">
+        <f t="shared" si="25"/>
+        <v>5.5864634071652788E-3</v>
+      </c>
       <c r="B239" s="4">
         <v>-2.8160392078609747E-3</v>
       </c>
@@ -6323,20 +5451,15 @@
       <c r="D239" s="4">
         <v>1.5746855746005987E-2</v>
       </c>
-      <c r="F239" s="4">
-        <f>'JPM Data'!D224</f>
-        <v>-1.2247155227447842E-3</v>
-      </c>
-      <c r="G239" s="4">
-        <f>'NVDA Data'!D224</f>
-        <v>-2.3757857821122218E-3</v>
-      </c>
-      <c r="H239" s="4">
-        <f>'LLY Data'!D224</f>
-        <v>6.7854866378558075E-3</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.8778521947569297E-2</v>
+      </c>
       <c r="B240" s="4">
         <v>-1.3363636482553766E-2</v>
       </c>
@@ -6346,20 +5469,15 @@
       <c r="D240" s="4">
         <v>-1.0193395847983773E-2</v>
       </c>
-      <c r="F240" s="4">
-        <f>'JPM Data'!D225</f>
-        <v>-5.8428822005126887E-3</v>
-      </c>
-      <c r="G240" s="4">
-        <f>'NVDA Data'!D225</f>
-        <v>-1.5195850235152278E-2</v>
-      </c>
-      <c r="H240" s="4">
-        <f>'LLY Data'!D225</f>
-        <v>-4.4496528311770561E-3</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="15">
+        <f t="shared" si="25"/>
+        <v>2.0188665130681516E-2</v>
+      </c>
       <c r="B241" s="4">
         <v>9.2001181084132438E-3</v>
       </c>
@@ -6369,20 +5487,15 @@
       <c r="D241" s="4">
         <v>2.1000422513174598E-2</v>
       </c>
-      <c r="F241" s="4">
-        <f>'JPM Data'!D226</f>
-        <v>3.9772926717648012E-3</v>
-      </c>
-      <c r="G241" s="4">
-        <f>'NVDA Data'!D226</f>
-        <v>1.0503731637618995E-2</v>
-      </c>
-      <c r="H241" s="4">
-        <f>'LLY Data'!D226</f>
-        <v>9.0259218078723273E-3</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="15">
+        <f t="shared" si="25"/>
+        <v>-6.8517336011403732E-3</v>
+      </c>
       <c r="B242" s="4">
         <v>5.2165044072753925E-3</v>
       </c>
@@ -6392,20 +5505,15 @@
       <c r="D242" s="4">
         <v>-8.8242227865258753E-3</v>
       </c>
-      <c r="F242" s="4">
-        <f>'JPM Data'!D227</f>
-        <v>2.2596105554005814E-3</v>
-      </c>
-      <c r="G242" s="4">
-        <f>'NVDA Data'!D227</f>
-        <v>-4.3394844075187429E-3</v>
-      </c>
-      <c r="H242" s="4">
-        <f>'LLY Data'!D227</f>
-        <v>-3.8493199805275133E-3</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.0815331611964853E-2</v>
+      </c>
       <c r="B243" s="4">
         <v>-6.7009364151777995E-3</v>
       </c>
@@ -6415,20 +5523,15 @@
       <c r="D243" s="4">
         <v>-2.5794733445363746E-2</v>
       </c>
-      <c r="F243" s="4">
-        <f>'JPM Data'!D228</f>
-        <v>-2.9199739515412596E-3</v>
-      </c>
-      <c r="G243" s="4">
-        <f>'NVDA Data'!D228</f>
-        <v>-8.958823619407974E-3</v>
-      </c>
-      <c r="H243" s="4">
-        <f>'LLY Data'!D228</f>
-        <v>-1.1349526961503292E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="15">
+        <f t="shared" si="25"/>
+        <v>8.2805856398610878E-3</v>
+      </c>
       <c r="B244" s="4">
         <v>-8.5213934962792576E-3</v>
       </c>
@@ -6438,20 +5541,15 @@
       <c r="D244" s="4">
         <v>6.2595614276894111E-3</v>
       </c>
-      <c r="F244" s="4">
-        <f>'JPM Data'!D229</f>
-        <v>-3.716652288351191E-3</v>
-      </c>
-      <c r="G244" s="4">
-        <f>'NVDA Data'!D229</f>
-        <v>8.4900404295626779E-3</v>
-      </c>
-      <c r="H244" s="4">
-        <f>'LLY Data'!D229</f>
-        <v>2.7100200398317942E-3</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="15">
+        <f t="shared" si="25"/>
+        <v>1.2082691458236343E-2</v>
+      </c>
       <c r="B245" s="4">
         <v>-2.0467869582117568E-4</v>
       </c>
@@ -6461,20 +5559,15 @@
       <c r="D245" s="4">
         <v>-3.1365044680200251E-3</v>
       </c>
-      <c r="F245" s="4">
-        <f>'JPM Data'!D230</f>
-        <v>-8.8899926429189524E-5</v>
-      </c>
-      <c r="G245" s="4">
-        <f>'NVDA Data'!D230</f>
-        <v>1.749097459355747E-2</v>
-      </c>
-      <c r="H245" s="4">
-        <f>'LLY Data'!D230</f>
-        <v>-1.3643072810909408E-3</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.4964182916265787E-2</v>
+      </c>
       <c r="B246" s="4">
         <v>-6.4677889082351891E-2</v>
       </c>
@@ -6484,20 +5577,15 @@
       <c r="D246" s="4">
         <v>-1.046618824096753E-2</v>
       </c>
-      <c r="F246" s="4">
-        <f>'JPM Data'!D231</f>
-        <v>-2.9038798856734924E-2</v>
-      </c>
-      <c r="G246" s="4">
-        <f>'NVDA Data'!D231</f>
-        <v>-1.1805245332000367E-2</v>
-      </c>
-      <c r="H246" s="4">
-        <f>'LLY Data'!D231</f>
-        <v>-4.5693616299019397E-3</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="15">
+        <f t="shared" si="25"/>
+        <v>-8.7381544971020693E-3</v>
+      </c>
       <c r="B247" s="4">
         <v>5.4710929038373252E-4</v>
       </c>
@@ -6507,20 +5595,15 @@
       <c r="D247" s="4">
         <v>-1.157462482347971E-3</v>
       </c>
-      <c r="F247" s="4">
-        <f>'JPM Data'!D232</f>
-        <v>2.3754157113506572E-4</v>
-      </c>
-      <c r="G247" s="4">
-        <f>'NVDA Data'!D232</f>
-        <v>-1.0896130923468981E-2</v>
-      </c>
-      <c r="H247" s="4">
-        <f>'LLY Data'!D232</f>
-        <v>-5.0297071014292736E-4</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="15">
+        <f t="shared" si="25"/>
+        <v>8.8273939558073961E-4</v>
+      </c>
       <c r="B248" s="4">
         <v>-1.1427614111574662E-2</v>
       </c>
@@ -6530,20 +5613,15 @@
       <c r="D248" s="4">
         <v>-5.3678612518267381E-3</v>
       </c>
-      <c r="F248" s="4">
-        <f>'JPM Data'!D233</f>
-        <v>-4.9915249937685733E-3</v>
-      </c>
-      <c r="G248" s="4">
-        <f>'NVDA Data'!D233</f>
-        <v>7.0824680777357143E-3</v>
-      </c>
-      <c r="H248" s="4">
-        <f>'LLY Data'!D233</f>
-        <v>-2.3375118688422924E-3</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.0842441648589891E-2</v>
+      </c>
       <c r="B249" s="4">
         <v>-3.9823075694134288E-3</v>
       </c>
@@ -6553,20 +5631,15 @@
       <c r="D249" s="4">
         <v>5.3968306901711772E-3</v>
       </c>
-      <c r="F249" s="4">
-        <f>'JPM Data'!D234</f>
-        <v>-1.7329470615109574E-3</v>
-      </c>
-      <c r="G249" s="4">
-        <f>'NVDA Data'!D234</f>
-        <v>-1.7125743120645995E-2</v>
-      </c>
-      <c r="H249" s="4">
-        <f>'LLY Data'!D234</f>
-        <v>2.3375118688423262E-3</v>
-      </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="15">
+        <f t="shared" si="25"/>
+        <v>3.9518513400552081E-4</v>
+      </c>
       <c r="B250" s="4">
         <v>6.4971021604256426E-3</v>
       </c>
@@ -6576,20 +5649,15 @@
       <c r="D250" s="4">
         <v>-6.4200849778583225E-3</v>
       </c>
-      <c r="F250" s="4">
-        <f>'JPM Data'!D235</f>
-        <v>2.8125288346601057E-3</v>
-      </c>
-      <c r="G250" s="4">
-        <f>'NVDA Data'!D235</f>
-        <v>3.2744534592577829E-3</v>
-      </c>
-      <c r="H250" s="4">
-        <f>'LLY Data'!D235</f>
-        <v>-2.7971962367552999E-3</v>
-      </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="15">
+        <f t="shared" si="25"/>
+        <v>-4.2287493905608334E-2</v>
+      </c>
       <c r="B251" s="4">
         <v>2.5103465113142005E-2</v>
       </c>
@@ -6599,20 +5667,15 @@
       <c r="D251" s="4">
         <v>-2.6328861622147381E-2</v>
       </c>
-      <c r="F251" s="4">
-        <f>'JPM Data'!D236</f>
-        <v>1.0767701547859771E-2</v>
-      </c>
-      <c r="G251" s="4">
-        <f>'NVDA Data'!D236</f>
-        <v>-4.5779722846007974E-2</v>
-      </c>
-      <c r="H251" s="4">
-        <f>'LLY Data'!D236</f>
-        <v>-1.1587703187708213E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="15">
+        <f t="shared" si="25"/>
+        <v>2.1200489419653665E-2</v>
+      </c>
       <c r="B252" s="4">
         <v>1.9429497045521604E-2</v>
       </c>
@@ -6622,20 +5685,15 @@
       <c r="D252" s="4">
         <v>6.9116762100538548E-3</v>
       </c>
-      <c r="F252" s="4">
-        <f>'JPM Data'!D237</f>
-        <v>8.3571956827138347E-3</v>
-      </c>
-      <c r="G252" s="4">
-        <f>'NVDA Data'!D237</f>
-        <v>1.8510482072140216E-2</v>
-      </c>
-      <c r="H252" s="4">
-        <f>'LLY Data'!D237</f>
-        <v>2.9913769916489158E-3</v>
-      </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="15">
+        <f t="shared" si="25"/>
+        <v>2.4390069991125543E-2</v>
+      </c>
       <c r="B253" s="4">
         <v>1.441315492717629E-2</v>
       </c>
@@ -6645,20 +5703,15 @@
       <c r="D253" s="4">
         <v>1.9635438196158386E-2</v>
       </c>
-      <c r="F253" s="4">
-        <f>'JPM Data'!D238</f>
-        <v>6.2148725124587688E-3</v>
-      </c>
-      <c r="G253" s="4">
-        <f>'NVDA Data'!D238</f>
-        <v>1.5582963406586029E-2</v>
-      </c>
-      <c r="H253" s="4">
-        <f>'LLY Data'!D238</f>
-        <v>8.4449212907380493E-3</v>
-      </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.9322484265093271E-2</v>
+      </c>
       <c r="B254" s="4">
         <v>4.8922787779327901E-3</v>
       </c>
@@ -6668,20 +5721,15 @@
       <c r="D254" s="4">
         <v>-1.8090614317220918E-2</v>
       </c>
-      <c r="F254" s="4">
-        <f>'JPM Data'!D239</f>
-        <v>2.119509279177026E-3</v>
-      </c>
-      <c r="G254" s="4">
-        <f>'NVDA Data'!D239</f>
-        <v>-1.4715415120307303E-2</v>
-      </c>
-      <c r="H254" s="4">
-        <f>'LLY Data'!D239</f>
-        <v>-7.9285887036107359E-3</v>
-      </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="15">
+        <f t="shared" si="25"/>
+        <v>7.5954064678184002E-3</v>
+      </c>
       <c r="B255" s="4">
         <v>1.5019333094202509E-3</v>
       </c>
@@ -6691,20 +5739,15 @@
       <c r="D255" s="4">
         <v>-1.0010949150013672E-2</v>
       </c>
-      <c r="F255" s="4">
-        <f>'JPM Data'!D240</f>
-        <v>6.517919968467347E-4</v>
-      </c>
-      <c r="G255" s="4">
-        <f>'NVDA Data'!D240</f>
-        <v>1.5815300000220744E-2</v>
-      </c>
-      <c r="H255" s="4">
-        <f>'LLY Data'!D240</f>
-        <v>-4.3696086163168184E-3</v>
-      </c>
-    </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="15">
+        <f t="shared" si="25"/>
+        <v>2.6627990396993702E-2</v>
+      </c>
       <c r="B256" s="4">
         <v>6.2062563483175344E-4</v>
       </c>
@@ -6714,20 +5757,15 @@
       <c r="D256" s="4">
         <v>1.1919398935861809E-2</v>
       </c>
-      <c r="F256" s="4">
-        <f>'JPM Data'!D241</f>
-        <v>2.6945068318064321E-4</v>
-      </c>
-      <c r="G256" s="4">
-        <f>'NVDA Data'!D241</f>
-        <v>2.6024599135244048E-2</v>
-      </c>
-      <c r="H256" s="4">
-        <f>'LLY Data'!D241</f>
-        <v>5.1459216031470032E-3</v>
-      </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="15">
+        <f t="shared" si="25"/>
+        <v>2.4175627946763328E-3</v>
+      </c>
       <c r="B257" s="4">
         <v>-1.0853620750733363E-3</v>
       </c>
@@ -6737,20 +5775,15 @@
       <c r="D257" s="4">
         <v>5.0306095244495325E-3</v>
       </c>
-      <c r="F257" s="4">
-        <f>'JPM Data'!D242</f>
-        <v>-4.7162274711635998E-4</v>
-      </c>
-      <c r="G257" s="4">
-        <f>'NVDA Data'!D242</f>
-        <v>1.0890361712997258E-4</v>
-      </c>
-      <c r="H257" s="4">
-        <f>'LLY Data'!D242</f>
-        <v>2.1792889655860995E-3</v>
-      </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="15">
+        <f t="shared" si="25"/>
+        <v>2.3302542035919742E-2</v>
+      </c>
       <c r="B258" s="4">
         <v>-7.9676805456237992E-3</v>
       </c>
@@ -6760,20 +5793,15 @@
       <c r="D258" s="4">
         <v>5.9549596652173423E-2</v>
       </c>
-      <c r="F258" s="4">
-        <f>'JPM Data'!D243</f>
-        <v>-3.4741787207720016E-3</v>
-      </c>
-      <c r="G258" s="4">
-        <f>'NVDA Data'!D243</f>
-        <v>-6.7579894343431724E-3</v>
-      </c>
-      <c r="H258" s="4">
-        <f>'LLY Data'!D243</f>
-        <v>2.5121290492993213E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="15">
+        <f t="shared" si="25"/>
+        <v>-1.5633561299712682E-2</v>
+      </c>
       <c r="B259" s="4">
         <v>6.2582201809348824E-4</v>
       </c>
@@ -6783,20 +5811,15 @@
       <c r="D259" s="4">
         <v>-5.569038179362302E-3</v>
       </c>
-      <c r="F259" s="4">
-        <f>'JPM Data'!D244</f>
-        <v>2.7170603816608854E-4</v>
-      </c>
-      <c r="G259" s="4">
-        <f>'NVDA Data'!D244</f>
-        <v>-1.723122529175922E-2</v>
-      </c>
-      <c r="H259" s="4">
-        <f>'LLY Data'!D244</f>
-        <v>-2.4253623043441739E-3</v>
-      </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.4570188132702463E-3</v>
+      </c>
       <c r="B260" s="4">
         <v>-1.0424108600320652E-3</v>
       </c>
@@ -6806,20 +5829,15 @@
       <c r="D260" s="4">
         <v>-2.6829773872505926E-2</v>
       </c>
-      <c r="F260" s="4">
-        <f>'JPM Data'!D245</f>
-        <v>-4.5294940511416001E-4</v>
-      </c>
-      <c r="G260" s="4">
-        <f>'NVDA Data'!D245</f>
-        <v>1.4280762812447129E-2</v>
-      </c>
-      <c r="H260" s="4">
-        <f>'LLY Data'!D245</f>
-        <v>-1.1811186656895985E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="15">
+        <f t="shared" si="25"/>
+        <v>-3.3204995455694657E-3</v>
+      </c>
       <c r="B261" s="4">
         <v>-6.0002563565710798E-3</v>
       </c>
@@ -6829,20 +5847,15 @@
       <c r="D261" s="4">
         <v>-2.7701714735019464E-2</v>
       </c>
-      <c r="F261" s="4">
-        <f>'JPM Data'!D246</f>
-        <v>-2.613727608983046E-3</v>
-      </c>
-      <c r="G261" s="4">
-        <f>'NVDA Data'!D246</f>
-        <v>1.478583672762559E-2</v>
-      </c>
-      <c r="H261" s="4">
-        <f>'LLY Data'!D246</f>
-        <v>-1.2200480164628222E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="15">
+        <f t="shared" si="25"/>
+        <v>3.5446254229996671E-2</v>
+      </c>
       <c r="B262" s="4">
         <v>7.8211408121768803E-3</v>
       </c>
@@ -6852,20 +5865,15 @@
       <c r="D262" s="4">
         <v>4.314464976347257E-2</v>
       </c>
-      <c r="F262" s="4">
-        <f>'JPM Data'!D247</f>
-        <v>3.3834642021009502E-3</v>
-      </c>
-      <c r="G262" s="4">
-        <f>'NVDA Data'!D247</f>
-        <v>1.6089033168430598E-2</v>
-      </c>
-      <c r="H262" s="4">
-        <f>'LLY Data'!D247</f>
-        <v>1.834453492539094E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="15">
+        <f t="shared" si="25"/>
+        <v>1.2831498698324846E-3</v>
+      </c>
       <c r="B263" s="4">
         <v>-1.3020833333333333E-3</v>
       </c>
@@ -6875,20 +5883,15 @@
       <c r="D263" s="4">
         <v>1.4465000993131178E-2</v>
       </c>
-      <c r="F263" s="4">
-        <f>'JPM Data'!D248</f>
-        <v>-5.6585608253105566E-4</v>
-      </c>
-      <c r="G263" s="4">
-        <f>'NVDA Data'!D248</f>
-        <v>-7.5405619784308844E-3</v>
-      </c>
-      <c r="H263" s="4">
-        <f>'LLY Data'!D248</f>
-        <v>6.2370684834605686E-3</v>
-      </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="15">
+        <f t="shared" si="25"/>
+        <v>1.0936808818439829E-3</v>
+      </c>
       <c r="B264" s="4">
         <v>2.0338951220255568E-2</v>
       </c>
@@ -6898,20 +5901,15 @@
       <c r="D264" s="4">
         <v>-3.5614892084930815E-3</v>
       </c>
-      <c r="F264" s="4">
-        <f>'JPM Data'!D249</f>
-        <v>8.7444660673882488E-3</v>
-      </c>
-      <c r="G264" s="4">
-        <f>'NVDA Data'!D249</f>
-        <v>-6.8155438833419262E-4</v>
-      </c>
-      <c r="H264" s="4">
-        <f>'LLY Data'!D249</f>
-        <v>-1.5494960080291035E-3</v>
-      </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="15">
+        <f t="shared" si="25"/>
+        <v>-6.7791440544120035E-3</v>
+      </c>
       <c r="B265" s="4">
         <v>9.4556921095270245E-3</v>
       </c>
@@ -6921,20 +5919,15 @@
       <c r="D265" s="4">
         <v>-4.451628654234898E-3</v>
       </c>
-      <c r="F265" s="4">
-        <f>'JPM Data'!D250</f>
-        <v>4.0872612740722458E-3</v>
-      </c>
-      <c r="G265" s="4">
-        <f>'NVDA Data'!D250</f>
-        <v>-8.072399506454225E-3</v>
-      </c>
-      <c r="H265" s="4">
-        <f>'LLY Data'!D250</f>
-        <v>-1.9376337800276341E-3</v>
-      </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="15">
+        <f t="shared" si="25"/>
+        <v>-2.1672776619106196E-3</v>
+      </c>
       <c r="B266" s="4">
         <v>6.4304013795443019E-3</v>
       </c>
@@ -6944,20 +5937,15 @@
       <c r="D266" s="4">
         <v>-1.4969850269853407E-2</v>
       </c>
-      <c r="F266" s="4">
-        <f>'JPM Data'!D251</f>
-        <v>2.7837470916165941E-3</v>
-      </c>
-      <c r="G266" s="4">
-        <f>'NVDA Data'!D251</f>
-        <v>5.499702636355859E-3</v>
-      </c>
-      <c r="H266" s="4">
-        <f>'LLY Data'!D251</f>
-        <v>-6.5504764454913005E-3</v>
-      </c>
-    </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="15">
+        <f t="shared" si="25"/>
+        <v>3.8356675786583834E-4</v>
+      </c>
       <c r="B267" s="4">
         <v>-2.0128059597037095E-4</v>
       </c>
@@ -6967,20 +5955,15 @@
       <c r="D267" s="4">
         <v>-3.0262997275907599E-3</v>
       </c>
-      <c r="F267" s="4">
-        <f>'JPM Data'!D252</f>
-        <v>-8.7423850801704878E-5</v>
-      </c>
-      <c r="G267" s="4">
-        <f>'NVDA Data'!D252</f>
-        <v>2.5102444729825355E-3</v>
-      </c>
-      <c r="H267" s="4">
-        <f>'LLY Data'!D252</f>
-        <v>-1.3162980346013149E-3</v>
-      </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="15">
+        <f t="shared" si="25"/>
+        <v>1.0005506746191814E-2</v>
+      </c>
       <c r="B268" s="4">
         <v>1.3988823222778118E-2</v>
       </c>
@@ -6990,20 +5973,15 @@
       <c r="D268" s="4">
         <v>8.2881987073309734E-3</v>
       </c>
-      <c r="F268" s="4">
-        <f>'JPM Data'!D253</f>
-        <v>6.0331679761882404E-3</v>
-      </c>
-      <c r="G268" s="4">
-        <f>'NVDA Data'!D253</f>
-        <v>4.5734529120442209E-3</v>
-      </c>
-      <c r="H268" s="4">
-        <f>'LLY Data'!D253</f>
-        <v>3.5846841123978175E-3</v>
-      </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="15">
+        <f t="shared" si="25"/>
+        <v>2.751017945530429E-2</v>
+      </c>
       <c r="B269" s="4">
         <v>2.9775500961350229E-3</v>
       </c>
@@ -7013,18 +5991,9 @@
       <c r="D269" s="4">
         <v>3.0157909436793723E-2</v>
       </c>
-      <c r="F269" s="4">
-        <f>'JPM Data'!D254</f>
-        <v>1.2912122043823397E-3</v>
-      </c>
-      <c r="G269" s="4">
-        <f>'NVDA Data'!D254</f>
-        <v>1.5291738297993641E-2</v>
-      </c>
-      <c r="H269" s="4">
-        <f>'LLY Data'!D254</f>
-        <v>1.290380134656469E-2</v>
-      </c>
+      <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7050,7 +6019,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>

--- a/docs/Portfolio_VAR.xlsx
+++ b/docs/Portfolio_VAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_packages\pyFinRisk\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498C325-4CB3-4372-BFAE-7EC245E6D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B37C43-03E2-4F45-9851-CA8F26DBEAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="16440" xr2:uid="{4B25372F-870B-4A45-8A4D-D63FBB30CA3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4B25372F-870B-4A45-8A4D-D63FBB30CA3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio VAR" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Holdings</t>
   </si>
@@ -165,15 +165,25 @@
   <si>
     <t>Incremental VAR ($)</t>
   </si>
+  <si>
+    <t>Sorted (Portfolio)</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Conditional VAR(%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -285,7 +295,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -307,6 +317,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -646,7 +659,7 @@
   <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,12 +668,13 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
@@ -1092,9 +1106,15 @@
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="F17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>252</v>
+      </c>
       <c r="J17" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1158,9 @@
         <f t="array" ref="D18:D269">'LLY Data'!C3:C254</f>
         <v>4.9250513975806591E-3</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>-4.2287493905608334E-2</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="J18" t="s">
@@ -1181,7 +1203,9 @@
       <c r="D19" s="4">
         <v>1.8779510722114706E-3</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <v>-3.0721741091785583E-2</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="J19" t="s">
@@ -1224,7 +1248,9 @@
       <c r="D20" s="4">
         <v>9.6009652447478545E-4</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>-2.9711605885906565E-2</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -1242,7 +1268,9 @@
       <c r="D21" s="4">
         <v>1.0253694042280959E-2</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>-2.8065028255640615E-2</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="J21" s="1" t="s">
@@ -1284,7 +1312,9 @@
       <c r="D22" s="4">
         <v>-1.8965628093113144E-2</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>-2.6806220914650805E-2</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="J22" t="s">
@@ -1332,7 +1362,9 @@
       <c r="D23" s="4">
         <v>-2.4839279757294132E-2</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>-2.6253344560173312E-2</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="J23" t="s">
@@ -1380,7 +1412,9 @@
       <c r="D24" s="4">
         <v>6.0490007567903653E-3</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <v>-2.4964182916265787E-2</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="J24" t="s">
@@ -1428,7 +1462,9 @@
       <c r="D25" s="4">
         <v>3.6169964644279817E-3</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4">
+        <v>-2.4829428008776626E-2</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -1446,7 +1482,9 @@
       <c r="D26" s="4">
         <v>-3.5571108149969432E-3</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>-2.2806002378050812E-2</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="J26" s="1" t="s">
@@ -1488,7 +1526,9 @@
       <c r="D27" s="4">
         <v>3.4053915318705838E-3</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4">
+        <v>-2.2698448735804084E-2</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="J27" t="s">
@@ -1536,7 +1576,9 @@
       <c r="D28" s="4">
         <v>5.1961456592234372E-3</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>-2.1925554489118433E-2</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="J28" t="s">
@@ -1584,7 +1626,9 @@
       <c r="D29" s="4">
         <v>1.6369391606138321E-2</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>-2.0815331611964853E-2</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="J29" t="s">
@@ -1632,7 +1676,9 @@
       <c r="D30" s="4">
         <v>1.3379450774470661E-2</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>-2.0317934148749477E-2</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
@@ -1650,7 +1696,9 @@
       <c r="D31" s="4">
         <v>4.3633107678642214E-3</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4">
+        <v>-2.026677797530536E-2</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="J31" s="1" t="s">
@@ -1680,7 +1728,9 @@
       <c r="D32" s="4">
         <v>-2.678617060389455E-3</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4">
+        <v>-2.0184952426286325E-2</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="J32" t="s">
@@ -1713,7 +1763,9 @@
       <c r="D33" s="4">
         <v>-1.5121791356390019E-2</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4">
+        <v>-1.9374353120087305E-2</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="J33" t="s">
@@ -1746,7 +1798,9 @@
       <c r="D34" s="4">
         <v>2.1289292684817069E-2</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4">
+        <v>-1.9322484265093271E-2</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="J34" t="s">
@@ -1779,7 +1833,9 @@
       <c r="D35" s="4">
         <v>8.526789025028995E-4</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>-1.8778521947569297E-2</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
@@ -1797,9 +1853,23 @@
       <c r="D36" s="4">
         <v>-1.6366491174400813E-3</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4">
+        <v>-1.8657906129892207E-2</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
+      <c r="J36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
@@ -1815,9 +1885,24 @@
       <c r="D37" s="4">
         <v>9.2071515204653097E-4</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4">
+        <v>-1.8431571224102029E-2</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="18">
+        <f>$H$17*(1-K36)</f>
+        <v>2.5200000000000022</v>
+      </c>
+      <c r="L37" s="18">
+        <f>$H$17*(1-L36)</f>
+        <v>12.600000000000012</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" ref="L37:M37" si="23">$H$17*(1-M36)</f>
+        <v>25.199999999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
@@ -1833,9 +1918,23 @@
       <c r="D38" s="4">
         <v>4.4871219476858943E-3</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>-1.7263532571035852E-2</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
+      <c r="K38" s="19">
+        <f>F20</f>
+        <v>-2.9711605885906565E-2</v>
+      </c>
+      <c r="L38" s="19">
+        <f>F30</f>
+        <v>-2.0317934148749477E-2</v>
+      </c>
+      <c r="M38" s="19">
+        <f>F42</f>
+        <v>-1.5633561299712682E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -1851,7 +1950,9 @@
       <c r="D39" s="4">
         <v>1.3870256942165968E-2</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4">
+        <v>-1.6381826585950388E-2</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
@@ -1869,7 +1970,9 @@
       <c r="D40" s="4">
         <v>-1.370255616739042E-2</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4">
+        <v>-1.6099867662148593E-2</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
@@ -1887,7 +1990,9 @@
       <c r="D41" s="4">
         <v>9.47046264965575E-3</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <v>-1.5915663368473637E-2</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
@@ -1905,7 +2010,9 @@
       <c r="D42" s="4">
         <v>2.3232387755484666E-3</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4">
+        <v>-1.5633561299712682E-2</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
@@ -1923,7 +2030,9 @@
       <c r="D43" s="4">
         <v>1.0331109659560756E-2</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4">
+        <v>-1.5134627496314716E-2</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
@@ -1941,7 +2050,9 @@
       <c r="D44" s="4">
         <v>2.5345299787459135E-3</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <v>-1.5089088764350679E-2</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
@@ -1959,7 +2070,9 @@
       <c r="D45" s="4">
         <v>-1.3250777222541199E-2</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <v>-1.4995982423367625E-2</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
@@ -1977,7 +2090,9 @@
       <c r="D46" s="4">
         <v>2.5929830332083223E-2</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>-1.4857664022885504E-2</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
@@ -1995,7 +2110,9 @@
       <c r="D47" s="4">
         <v>-1.2486518391752374E-2</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <v>-1.3550323228837556E-2</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
@@ -2013,7 +2130,9 @@
       <c r="D48" s="4">
         <v>1.2622580931457903E-2</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4">
+        <v>-1.3532300383736279E-2</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
@@ -2031,7 +2150,9 @@
       <c r="D49" s="4">
         <v>9.6665608438352164E-3</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4">
+        <v>-1.3010680876802721E-2</v>
+      </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
@@ -2049,7 +2170,9 @@
       <c r="D50" s="4">
         <v>-1.6120084825565043E-2</v>
       </c>
-      <c r="F50" s="4"/>
+      <c r="F50" s="4">
+        <v>-1.2297658823783787E-2</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
@@ -2067,7 +2190,9 @@
       <c r="D51" s="4">
         <v>9.2757111844854225E-3</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4">
+        <v>-1.206127073253048E-2</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
@@ -2085,7 +2210,9 @@
       <c r="D52" s="4">
         <v>-5.3468341994503763E-3</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4">
+        <v>-1.185527242249141E-2</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
@@ -2103,7 +2230,9 @@
       <c r="D53" s="4">
         <v>-2.4027989655081516E-2</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="4">
+        <v>-1.1799975691990729E-2</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
@@ -2121,7 +2250,9 @@
       <c r="D54" s="4">
         <v>2.3889955802574255E-3</v>
       </c>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4">
+        <v>-1.1504878406709171E-2</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
@@ -2139,7 +2270,9 @@
       <c r="D55" s="4">
         <v>-3.0386593923543495E-2</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="4">
+        <v>-1.1501070890278964E-2</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
@@ -2157,7 +2290,9 @@
       <c r="D56" s="4">
         <v>2.7537982538045269E-3</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4">
+        <v>-1.0842441648589891E-2</v>
+      </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
@@ -2175,7 +2310,9 @@
       <c r="D57" s="4">
         <v>-1.33908166471923E-2</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4">
+        <v>-1.0805276184082727E-2</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
@@ -2193,7 +2330,9 @@
       <c r="D58" s="4">
         <v>3.3954402653702649E-2</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4">
+        <v>-1.0675677919795765E-2</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
@@ -2211,7 +2350,9 @@
       <c r="D59" s="4">
         <v>-5.1616981505525098E-3</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4">
+        <v>-9.3918413008024278E-3</v>
+      </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
@@ -2229,7 +2370,9 @@
       <c r="D60" s="4">
         <v>9.0799244656871066E-3</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>-9.0830485970060382E-3</v>
+      </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
@@ -2247,7 +2390,9 @@
       <c r="D61" s="4">
         <v>5.2304638468828766E-3</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="4">
+        <v>-8.8991024228220559E-3</v>
+      </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
@@ -2265,7 +2410,9 @@
       <c r="D62" s="4">
         <v>2.2621064072784691E-2</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4">
+        <v>-8.7381544971020693E-3</v>
+      </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
@@ -2283,7 +2430,9 @@
       <c r="D63" s="4">
         <v>-3.8376929653505427E-3</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="4">
+        <v>-8.4214663894022403E-3</v>
+      </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
@@ -2301,7 +2450,9 @@
       <c r="D64" s="4">
         <v>-5.8869387291134636E-3</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4">
+        <v>-8.3558003785673962E-3</v>
+      </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
@@ -2319,7 +2470,9 @@
       <c r="D65" s="4">
         <v>-3.8752911933151424E-3</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4">
+        <v>-8.2648570951284039E-3</v>
+      </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
@@ -2337,7 +2490,9 @@
       <c r="D66" s="4">
         <v>-8.6331514911514289E-3</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4">
+        <v>-7.9361703747767298E-3</v>
+      </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
@@ -2355,7 +2510,9 @@
       <c r="D67" s="4">
         <v>3.0864743662514802E-3</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <v>-7.6037859534466862E-3</v>
+      </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
@@ -2373,7 +2530,9 @@
       <c r="D68" s="4">
         <v>7.6705440270350292E-3</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4">
+        <v>-7.5326398491542945E-3</v>
+      </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
@@ -2391,7 +2550,9 @@
       <c r="D69" s="4">
         <v>-8.5718528598560748E-3</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4">
+        <v>-7.2975566157132367E-3</v>
+      </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
@@ -2409,7 +2570,9 @@
       <c r="D70" s="4">
         <v>-3.2119491679383511E-3</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4">
+        <v>-6.8517336011403732E-3</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
@@ -2427,7 +2590,9 @@
       <c r="D71" s="4">
         <v>3.0678555246702334E-3</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4">
+        <v>-6.7791440544120035E-3</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
@@ -2445,7 +2610,9 @@
       <c r="D72" s="4">
         <v>-1.1705701451364986E-2</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4">
+        <v>-6.6379086746957234E-3</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
@@ -2463,7 +2630,9 @@
       <c r="D73" s="4">
         <v>7.346748810570029E-4</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4">
+        <v>-6.4618095297544684E-3</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
@@ -2481,7 +2650,9 @@
       <c r="D74" s="4">
         <v>1.0211565190799163E-2</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="4">
+        <v>-6.3483818398488321E-3</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
@@ -2499,7 +2670,9 @@
       <c r="D75" s="4">
         <v>0.14869624517777885</v>
       </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="4">
+        <v>-6.3079665917640726E-3</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
@@ -2517,7 +2690,9 @@
       <c r="D76" s="4">
         <v>8.8765435190288483E-3</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="4">
+        <v>-6.2502243378455714E-3</v>
+      </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
@@ -2535,7 +2710,9 @@
       <c r="D77" s="4">
         <v>-9.292426875652772E-3</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4">
+        <v>-6.1949761287650087E-3</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
@@ -2553,7 +2730,9 @@
       <c r="D78" s="4">
         <v>1.3311854229314787E-2</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4">
+        <v>-6.0466015457605396E-3</v>
+      </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
@@ -2571,7 +2750,9 @@
       <c r="D79" s="4">
         <v>1.8399277209214197E-2</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="4">
+        <v>-6.008482897140871E-3</v>
+      </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
@@ -2589,7 +2770,9 @@
       <c r="D80" s="4">
         <v>1.6022295756853246E-2</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="4">
+        <v>-5.9217342024927011E-3</v>
+      </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
@@ -2607,7 +2790,9 @@
       <c r="D81" s="4">
         <v>-6.9519023491004567E-4</v>
       </c>
-      <c r="F81" s="4"/>
+      <c r="F81" s="4">
+        <v>-5.8428149514876231E-3</v>
+      </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
@@ -2625,13 +2810,15 @@
       <c r="D82" s="4">
         <v>-1.5707412937969907E-2</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4">
+        <v>-5.6936809157834513E-3</v>
+      </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
-        <f t="shared" ref="A83:A146" si="23">$B$3*B83+$B$4*C83+$B$5*D83</f>
+        <f t="shared" ref="A83:A146" si="24">$B$3*B83+$B$4*C83+$B$5*D83</f>
         <v>8.1920108862940343E-3</v>
       </c>
       <c r="B83" s="4">
@@ -2643,13 +2830,15 @@
       <c r="D83" s="4">
         <v>1.6311460717371436E-2</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="4">
+        <v>-5.5806542252674757E-3</v>
+      </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.2093639262061907E-2</v>
       </c>
       <c r="B84" s="4">
@@ -2661,13 +2850,15 @@
       <c r="D84" s="4">
         <v>6.6248104344719247E-3</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="4">
+        <v>-5.4342746339540865E-3</v>
+      </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-9.3918413008024278E-3</v>
       </c>
       <c r="B85" s="4">
@@ -2679,13 +2870,15 @@
       <c r="D85" s="4">
         <v>6.5630132382110381E-3</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="4">
+        <v>-5.1442057476108194E-3</v>
+      </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1417012203727823E-2</v>
       </c>
       <c r="B86" s="4">
@@ -2697,13 +2890,15 @@
       <c r="D86" s="4">
         <v>-5.4182676646315295E-4</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4">
+        <v>-5.0930045323250225E-3</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-4.66961515862639E-3</v>
       </c>
       <c r="B87" s="4">
@@ -2715,13 +2910,15 @@
       <c r="D87" s="4">
         <v>-9.6862539638762034E-3</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="4">
+        <v>-4.9704082564774104E-3</v>
+      </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3.1334162745967542E-3</v>
       </c>
       <c r="B88" s="4">
@@ -2733,13 +2930,15 @@
       <c r="D88" s="4">
         <v>1.0310263529310302E-2</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="4">
+        <v>-4.8842590352714977E-3</v>
+      </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.735021431301981E-3</v>
       </c>
       <c r="B89" s="4">
@@ -2751,13 +2950,15 @@
       <c r="D89" s="4">
         <v>4.8759773176146678E-4</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4">
+        <v>-4.7576415716312917E-3</v>
+      </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5197603192966916E-2</v>
       </c>
       <c r="B90" s="4">
@@ -2769,13 +2970,15 @@
       <c r="D90" s="4">
         <v>-3.6031370432098266E-5</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="4">
+        <v>-4.66961515862639E-3</v>
+      </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.7320055832653805E-3</v>
       </c>
       <c r="B91" s="4">
@@ -2787,13 +2990,15 @@
       <c r="D91" s="4">
         <v>-1.0669857229089166E-2</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="4">
+        <v>-4.4968423514721067E-3</v>
+      </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.2185892482489596E-3</v>
       </c>
       <c r="B92" s="4">
@@ -2805,13 +3010,15 @@
       <c r="D92" s="4">
         <v>1.1332363881318343E-2</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="4">
+        <v>-4.4194289126555028E-3</v>
+      </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.5233942562094031E-3</v>
       </c>
       <c r="B93" s="4">
@@ -2823,13 +3030,15 @@
       <c r="D93" s="4">
         <v>5.2507634074969159E-3</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="4">
+        <v>-4.0126448571392867E-3</v>
+      </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-6.0563932435650286E-4</v>
       </c>
       <c r="B94" s="4">
@@ -2841,13 +3050,15 @@
       <c r="D94" s="4">
         <v>1.9386065915914913E-3</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="4">
+        <v>-3.3204995455694657E-3</v>
+      </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-8.8991024228220559E-3</v>
       </c>
       <c r="B95" s="4">
@@ -2859,13 +3070,15 @@
       <c r="D95" s="4">
         <v>3.1530657265932504E-3</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="4">
+        <v>-3.317985846360237E-3</v>
+      </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.6273803706900901E-3</v>
       </c>
       <c r="B96" s="4">
@@ -2877,13 +3090,15 @@
       <c r="D96" s="4">
         <v>2.3716346052706144E-2</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="4">
+        <v>-3.1334162745967542E-3</v>
+      </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.8499702116970483E-3</v>
       </c>
       <c r="B97" s="4">
@@ -2895,13 +3110,15 @@
       <c r="D97" s="4">
         <v>2.3079814306096413E-2</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="4">
+        <v>-2.9814763155379467E-3</v>
+      </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.6109037886040783E-3</v>
       </c>
       <c r="B98" s="4">
@@ -2913,13 +3130,15 @@
       <c r="D98" s="4">
         <v>1.5516787581406908E-2</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="4">
+        <v>-2.9640284880633771E-3</v>
+      </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.0429786703429504E-3</v>
       </c>
       <c r="B99" s="4">
@@ -2931,13 +3150,15 @@
       <c r="D99" s="4">
         <v>6.2797875104213139E-3</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="4">
+        <v>-2.9557665848636248E-3</v>
+      </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.2936942563334178E-3</v>
       </c>
       <c r="B100" s="4">
@@ -2949,13 +3170,15 @@
       <c r="D100" s="4">
         <v>-7.0078911848901076E-4</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="4">
+        <v>-2.7320055832653805E-3</v>
+      </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.12745765762798E-3</v>
       </c>
       <c r="B101" s="4">
@@ -2967,13 +3190,15 @@
       <c r="D101" s="4">
         <v>-1.2139359257239832E-2</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="4">
+        <v>-2.6467446465007231E-3</v>
+      </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.6253344560173312E-2</v>
       </c>
       <c r="B102" s="4">
@@ -2985,13 +3210,15 @@
       <c r="D102" s="4">
         <v>-2.6960349895975448E-2</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="4">
+        <v>-2.5946052477616565E-3</v>
+      </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.9557665848636248E-3</v>
       </c>
       <c r="B103" s="4">
@@ -3003,13 +3230,15 @@
       <c r="D103" s="4">
         <v>-7.6085606990019946E-3</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="4">
+        <v>-2.5233942562094031E-3</v>
+      </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-3.6996648840899662E-4</v>
       </c>
       <c r="B104" s="4">
@@ -3021,13 +3250,15 @@
       <c r="D104" s="4">
         <v>6.4416616843937565E-3</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="4">
+        <v>-2.4653805720800549E-3</v>
+      </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.5134627496314716E-2</v>
       </c>
       <c r="B105" s="4">
@@ -3039,13 +3270,15 @@
       <c r="D105" s="4">
         <v>-9.2528299723628211E-3</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="4">
+        <v>-2.4570188132702463E-3</v>
+      </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.8065028255640615E-2</v>
       </c>
       <c r="B106" s="4">
@@ -3057,13 +3290,15 @@
       <c r="D106" s="4">
         <v>-3.4249717828664004E-2</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="4">
+        <v>-2.1672776619106196E-3</v>
+      </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5866379139609583E-3</v>
       </c>
       <c r="B107" s="4">
@@ -3075,13 +3310,15 @@
       <c r="D107" s="4">
         <v>7.4522956554285899E-4</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="4">
+        <v>-2.12745765762798E-3</v>
+      </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.3121985974211913E-3</v>
       </c>
       <c r="B108" s="4">
@@ -3093,13 +3330,15 @@
       <c r="D108" s="4">
         <v>3.1786974059004394E-3</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="4">
+        <v>-1.643240851381198E-3</v>
+      </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-6.2502243378455714E-3</v>
       </c>
       <c r="B109" s="4">
@@ -3111,13 +3350,15 @@
       <c r="D109" s="4">
         <v>-4.1282086447802183E-3</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="4">
+        <v>-1.1824791091075001E-3</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1777629372989275E-3</v>
       </c>
       <c r="B110" s="4">
@@ -3129,13 +3370,15 @@
       <c r="D110" s="4">
         <v>-4.5453718216243404E-4</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="4">
+        <v>-1.1470689461835501E-3</v>
+      </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.1134877089837283E-3</v>
       </c>
       <c r="B111" s="4">
@@ -3147,13 +3390,15 @@
       <c r="D111" s="4">
         <v>-9.658755573832568E-3</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="4">
+        <v>-1.0234789277922688E-3</v>
+      </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-6.4618095297544684E-3</v>
       </c>
       <c r="B112" s="4">
@@ -3165,13 +3410,15 @@
       <c r="D112" s="4">
         <v>-1.3444773918813858E-2</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="4">
+        <v>-8.7193797305998278E-4</v>
+      </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4621506014608749E-3</v>
       </c>
       <c r="B113" s="4">
@@ -3183,13 +3430,15 @@
       <c r="D113" s="4">
         <v>2.1595761435520351E-3</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="4">
+        <v>-8.2807156247519727E-4</v>
+      </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.2806002378050812E-2</v>
       </c>
       <c r="B114" s="4">
@@ -3201,13 +3450,15 @@
       <c r="D114" s="4">
         <v>-2.4336279924705391E-2</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="4">
+        <v>-7.7989499720066162E-4</v>
+      </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0727976837345801E-2</v>
       </c>
       <c r="B115" s="4">
@@ -3219,13 +3470,15 @@
       <c r="D115" s="4">
         <v>1.1938573663061168E-2</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4">
+        <v>-6.8382759779689935E-4</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3794617093600579E-2</v>
       </c>
       <c r="B116" s="4">
@@ -3237,13 +3490,15 @@
       <c r="D116" s="4">
         <v>1.8853644830898516E-2</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4">
+        <v>-6.0563932435650286E-4</v>
+      </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.2495533350884571E-2</v>
       </c>
       <c r="B117" s="4">
@@ -3255,13 +3510,15 @@
       <c r="D117" s="4">
         <v>4.3842784757847732E-2</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="4">
+        <v>-4.4480051689271632E-4</v>
+      </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8472221652137584E-3</v>
       </c>
       <c r="B118" s="4">
@@ -3273,13 +3530,15 @@
       <c r="D118" s="4">
         <v>1.1570785537468344E-2</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="4">
+        <v>-3.989489187854738E-4</v>
+      </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.1479109700635367E-2</v>
       </c>
       <c r="B119" s="4">
@@ -3291,13 +3550,15 @@
       <c r="D119" s="4">
         <v>1.320481961664796E-2</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="4">
+        <v>-3.6996648840899662E-4</v>
+      </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.0317140406559959E-2</v>
       </c>
       <c r="B120" s="4">
@@ -3309,13 +3570,15 @@
       <c r="D120" s="4">
         <v>4.4829248325988655E-2</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4">
+        <v>-1.3146395335932905E-4</v>
+      </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9124399722371764E-3</v>
       </c>
       <c r="B121" s="4">
@@ -3327,13 +3590,15 @@
       <c r="D121" s="4">
         <v>8.6240590313029029E-3</v>
       </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="4">
+        <v>3.3269126669237216E-4</v>
+      </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-9.0830485970060382E-3</v>
       </c>
       <c r="B122" s="4">
@@ -3345,13 +3610,15 @@
       <c r="D122" s="4">
         <v>-2.1293821342653193E-3</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="4">
+        <v>3.8356675786583834E-4</v>
+      </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.058116538995316E-2</v>
       </c>
       <c r="B123" s="4">
@@ -3363,13 +3630,15 @@
       <c r="D123" s="4">
         <v>1.22127417799158E-2</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="4">
+        <v>3.9178110662751921E-4</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.2698448735804084E-2</v>
       </c>
       <c r="B124" s="4">
@@ -3381,13 +3650,15 @@
       <c r="D124" s="4">
         <v>-1.3508719661329887E-2</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="4">
+        <v>3.9518513400552081E-4</v>
+      </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.5915663368473637E-2</v>
       </c>
       <c r="B125" s="4">
@@ -3399,13 +3670,15 @@
       <c r="D125" s="4">
         <v>-1.7589836243236988E-3</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="4">
+        <v>4.90875236661185E-4</v>
+      </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.4995982423367625E-2</v>
       </c>
       <c r="B126" s="4">
@@ -3417,13 +3690,15 @@
       <c r="D126" s="4">
         <v>-2.707331978426147E-2</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="4">
+        <v>7.9918085129078876E-4</v>
+      </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.3550323228837556E-2</v>
       </c>
       <c r="B127" s="4">
@@ -3435,13 +3710,15 @@
       <c r="D127" s="4">
         <v>-1.0426495043682241E-2</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="4">
+        <v>8.8273939558073961E-4</v>
+      </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.6657125205421309E-3</v>
       </c>
       <c r="B128" s="4">
@@ -3453,13 +3730,15 @@
       <c r="D128" s="4">
         <v>-1.3666512784246626E-2</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="4">
+        <v>9.0265312979183408E-4</v>
+      </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.9214891159848702E-2</v>
       </c>
       <c r="B129" s="4">
@@ -3471,13 +3750,15 @@
       <c r="D129" s="4">
         <v>2.7364896546658624E-2</v>
       </c>
-      <c r="F129" s="4"/>
+      <c r="F129" s="4">
+        <v>1.0272876528377441E-3</v>
+      </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.0317934148749477E-2</v>
       </c>
       <c r="B130" s="4">
@@ -3489,13 +3770,15 @@
       <c r="D130" s="4">
         <v>-1.0077090587802472E-2</v>
       </c>
-      <c r="F130" s="4"/>
+      <c r="F130" s="4">
+        <v>1.0936808818439829E-3</v>
+      </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.6806220914650805E-2</v>
       </c>
       <c r="B131" s="4">
@@ -3507,13 +3790,15 @@
       <c r="D131" s="4">
         <v>-3.1306560888774482E-2</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="4">
+        <v>1.2491669942509634E-3</v>
+      </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.1504878406709171E-2</v>
       </c>
       <c r="B132" s="4">
@@ -3525,13 +3810,15 @@
       <c r="D132" s="4">
         <v>-1.3853186860411234E-2</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="4">
+        <v>1.2831498698324846E-3</v>
+      </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2454954974493565E-2</v>
       </c>
       <c r="B133" s="4">
@@ -3543,13 +3830,15 @@
       <c r="D133" s="4">
         <v>9.7817712278104388E-3</v>
       </c>
-      <c r="F133" s="4"/>
+      <c r="F133" s="4">
+        <v>1.5857562849422365E-3</v>
+      </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.1501070890278964E-2</v>
       </c>
       <c r="B134" s="4">
@@ -3561,13 +3850,15 @@
       <c r="D134" s="4">
         <v>-2.0823441055184976E-2</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="4">
+        <v>1.640167062186784E-3</v>
+      </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2950449068380634E-2</v>
       </c>
       <c r="B135" s="4">
@@ -3579,13 +3870,15 @@
       <c r="D135" s="4">
         <v>9.56852497397139E-4</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="4">
+        <v>1.7957037496032389E-3</v>
+      </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5565483351509636E-2</v>
       </c>
       <c r="B136" s="4">
@@ -3597,13 +3890,15 @@
       <c r="D136" s="4">
         <v>4.6585786226370655E-2</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="4">
+        <v>1.8472221652137584E-3</v>
+      </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.5860893477231608E-3</v>
       </c>
       <c r="B137" s="4">
@@ -3615,13 +3910,15 @@
       <c r="D137" s="4">
         <v>-2.1506455291843675E-2</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="4">
+        <v>1.8658179933811751E-3</v>
+      </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.0891217574965796E-2</v>
       </c>
       <c r="B138" s="4">
@@ -3633,13 +3930,15 @@
       <c r="D138" s="4">
         <v>4.8220364207285191E-2</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="4">
+        <v>1.9572040322469956E-3</v>
+      </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3856068979179252E-3</v>
       </c>
       <c r="B139" s="4">
@@ -3651,13 +3950,15 @@
       <c r="D139" s="4">
         <v>7.9638270383105645E-3</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="F139" s="4">
+        <v>2.1134877089837283E-3</v>
+      </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.13106363734448E-2</v>
       </c>
       <c r="B140" s="4">
@@ -3669,13 +3970,15 @@
       <c r="D140" s="4">
         <v>3.2003754507081705E-2</v>
       </c>
-      <c r="F140" s="4"/>
+      <c r="F140" s="4">
+        <v>2.1364276614837508E-3</v>
+      </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.026677797530536E-2</v>
       </c>
       <c r="B141" s="4">
@@ -3687,13 +3990,15 @@
       <c r="D141" s="4">
         <v>-4.4917864324566091E-2</v>
       </c>
-      <c r="F141" s="4"/>
+      <c r="F141" s="4">
+        <v>2.1710713328272997E-3</v>
+      </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.7703305666246755E-2</v>
       </c>
       <c r="B142" s="4">
@@ -3705,13 +4010,15 @@
       <c r="D142" s="4">
         <v>1.0806356235692958E-2</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="4">
+        <v>2.3541139072258167E-3</v>
+      </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3770070743187771E-2</v>
       </c>
       <c r="B143" s="4">
@@ -3723,13 +4030,15 @@
       <c r="D143" s="4">
         <v>2.5095781312976243E-2</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4">
+        <v>2.4175627946763328E-3</v>
+      </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6004522477890165E-3</v>
       </c>
       <c r="B144" s="4">
@@ -3741,13 +4050,15 @@
       <c r="D144" s="4">
         <v>-3.0846804861344602E-3</v>
       </c>
-      <c r="F144" s="4"/>
+      <c r="F144" s="4">
+        <v>2.5457807795928994E-3</v>
+      </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-2.1925554489118433E-2</v>
       </c>
       <c r="B145" s="4">
@@ -3759,13 +4070,15 @@
       <c r="D145" s="4">
         <v>-3.6475604973183126E-2</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="4">
+        <v>2.5860893477231608E-3</v>
+      </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.117916413442265E-3</v>
       </c>
       <c r="B146" s="4">
@@ -3777,13 +4090,15 @@
       <c r="D146" s="4">
         <v>3.5685251724274267E-4</v>
       </c>
-      <c r="F146" s="4"/>
+      <c r="F146" s="4">
+        <v>2.6209012195789741E-3</v>
+      </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="15">
-        <f t="shared" ref="A147:A210" si="24">$B$3*B147+$B$4*C147+$B$5*D147</f>
+        <f t="shared" ref="A147:A210" si="25">$B$3*B147+$B$4*C147+$B$5*D147</f>
         <v>2.7996409420899706E-3</v>
       </c>
       <c r="B147" s="4">
@@ -3795,13 +4110,15 @@
       <c r="D147" s="4">
         <v>5.0276381701163863E-3</v>
       </c>
-      <c r="F147" s="4"/>
+      <c r="F147" s="4">
+        <v>2.6308382270135533E-3</v>
+      </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2995281600624107E-2</v>
       </c>
       <c r="B148" s="4">
@@ -3813,13 +4130,15 @@
       <c r="D148" s="4">
         <v>9.9541217734405857E-3</v>
       </c>
-      <c r="F148" s="4"/>
+      <c r="F148" s="4">
+        <v>2.6359312992045979E-3</v>
+      </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-7.6037859534466862E-3</v>
       </c>
       <c r="B149" s="4">
@@ -3831,13 +4150,15 @@
       <c r="D149" s="4">
         <v>-8.3668008772884925E-3</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="4">
+        <v>2.7996409420899706E-3</v>
+      </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5.6936809157834513E-3</v>
       </c>
       <c r="B150" s="4">
@@ -3849,13 +4170,15 @@
       <c r="D150" s="4">
         <v>4.2019091665821528E-3</v>
       </c>
-      <c r="F150" s="4"/>
+      <c r="F150" s="4">
+        <v>2.9835811597478503E-3</v>
+      </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.1470689461835501E-3</v>
       </c>
       <c r="B151" s="4">
@@ -3867,13 +4190,15 @@
       <c r="D151" s="4">
         <v>1.0099226098992838E-2</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="4">
+        <v>3.0068712539996858E-3</v>
+      </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5.0930045323250225E-3</v>
       </c>
       <c r="B152" s="4">
@@ -3885,13 +4210,15 @@
       <c r="D152" s="4">
         <v>-1.592072313716783E-2</v>
       </c>
-      <c r="F152" s="4"/>
+      <c r="F152" s="4">
+        <v>3.0429786703429504E-3</v>
+      </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.4653805720800549E-3</v>
       </c>
       <c r="B153" s="4">
@@ -3903,13 +4230,15 @@
       <c r="D153" s="4">
         <v>1.1824638749986581E-4</v>
       </c>
-      <c r="F153" s="4"/>
+      <c r="F153" s="4">
+        <v>3.2894929210934196E-3</v>
+      </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.2894929210934196E-3</v>
       </c>
       <c r="B154" s="4">
@@ -3921,13 +4250,15 @@
       <c r="D154" s="4">
         <v>4.3950266456228149E-4</v>
       </c>
-      <c r="F154" s="4"/>
+      <c r="F154" s="4">
+        <v>3.5612060030883273E-3</v>
+      </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.2648570951284039E-3</v>
       </c>
       <c r="B155" s="4">
@@ -3939,13 +4270,15 @@
       <c r="D155" s="4">
         <v>-1.3854751875682397E-3</v>
       </c>
-      <c r="F155" s="4"/>
+      <c r="F155" s="4">
+        <v>3.5866379139609583E-3</v>
+      </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5.1442057476108194E-3</v>
       </c>
       <c r="B156" s="4">
@@ -3957,13 +4290,15 @@
       <c r="D156" s="4">
         <v>-1.1843530489025842E-2</v>
       </c>
-      <c r="F156" s="4"/>
+      <c r="F156" s="4">
+        <v>3.6657125205421309E-3</v>
+      </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.3079665917640726E-3</v>
       </c>
       <c r="B157" s="4">
@@ -3975,13 +4310,15 @@
       <c r="D157" s="4">
         <v>2.8080520343442793E-3</v>
       </c>
-      <c r="F157" s="4"/>
+      <c r="F157" s="4">
+        <v>3.7567944156170823E-3</v>
+      </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.8143977261294108E-3</v>
       </c>
       <c r="B158" s="4">
@@ -3993,13 +4330,15 @@
       <c r="D158" s="4">
         <v>4.217374281467688E-3</v>
       </c>
-      <c r="F158" s="4"/>
+      <c r="F158" s="4">
+        <v>3.8930885239651211E-3</v>
+      </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.4214663894022403E-3</v>
       </c>
       <c r="B159" s="4">
@@ -4011,13 +4350,15 @@
       <c r="D159" s="4">
         <v>1.8702296017649464E-3</v>
       </c>
-      <c r="F159" s="4"/>
+      <c r="F159" s="4">
+        <v>4.2185892482489596E-3</v>
+      </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.680082092842014E-3</v>
       </c>
       <c r="B160" s="4">
@@ -4029,13 +4370,15 @@
       <c r="D160" s="4">
         <v>-1.6630979529062367E-3</v>
       </c>
-      <c r="F160" s="4"/>
+      <c r="F160" s="4">
+        <v>4.2936942563334178E-3</v>
+      </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.6658496614954013E-2</v>
       </c>
       <c r="B161" s="4">
@@ -4047,13 +4390,15 @@
       <c r="D161" s="4">
         <v>1.6624964620007163E-2</v>
       </c>
-      <c r="F161" s="4"/>
+      <c r="F161" s="4">
+        <v>4.2950315942172053E-3</v>
+      </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.7263532571035852E-2</v>
       </c>
       <c r="B162" s="4">
@@ -4065,13 +4410,15 @@
       <c r="D162" s="4">
         <v>-2.3426151745821897E-2</v>
       </c>
-      <c r="F162" s="4"/>
+      <c r="F162" s="4">
+        <v>4.3243067681052599E-3</v>
+      </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.4629875123311852E-3</v>
       </c>
       <c r="B163" s="4">
@@ -4083,13 +4430,15 @@
       <c r="D163" s="4">
         <v>1.232846663534968E-3</v>
       </c>
-      <c r="F163" s="4"/>
+      <c r="F163" s="4">
+        <v>4.3291173011057969E-3</v>
+      </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.446672254781029E-2</v>
       </c>
       <c r="B164" s="4">
@@ -4101,13 +4450,15 @@
       <c r="D164" s="4">
         <v>2.1786698853571155E-2</v>
       </c>
-      <c r="F164" s="4"/>
+      <c r="F164" s="4">
+        <v>4.5570047166702023E-3</v>
+      </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.5089088764350679E-2</v>
       </c>
       <c r="B165" s="4">
@@ -4119,13 +4470,15 @@
       <c r="D165" s="4">
         <v>-3.9882873790533853E-2</v>
       </c>
-      <c r="F165" s="4"/>
+      <c r="F165" s="4">
+        <v>4.6273803706900901E-3</v>
+      </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.5612060030883273E-3</v>
       </c>
       <c r="B166" s="4">
@@ -4137,13 +4490,15 @@
       <c r="D166" s="4">
         <v>-2.8413633820341404E-3</v>
       </c>
-      <c r="F166" s="4"/>
+      <c r="F166" s="4">
+        <v>4.7796285076654775E-3</v>
+      </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5843427102758861E-2</v>
       </c>
       <c r="B167" s="4">
@@ -4155,13 +4510,15 @@
       <c r="D167" s="4">
         <v>1.3495615752074299E-2</v>
       </c>
-      <c r="F167" s="4"/>
+      <c r="F167" s="4">
+        <v>4.9124399722371764E-3</v>
+      </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.7193797305998278E-4</v>
       </c>
       <c r="B168" s="4">
@@ -4173,13 +4530,15 @@
       <c r="D168" s="4">
         <v>8.6221526365991267E-5</v>
       </c>
-      <c r="F168" s="4"/>
+      <c r="F168" s="4">
+        <v>5.0543207247213621E-3</v>
+      </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.0184952426286325E-2</v>
       </c>
       <c r="B169" s="4">
@@ -4191,13 +4550,15 @@
       <c r="D169" s="4">
         <v>-1.6557105993962793E-2</v>
       </c>
-      <c r="F169" s="4"/>
+      <c r="F169" s="4">
+        <v>5.1211882419896528E-3</v>
+      </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.606146010512461E-3</v>
       </c>
       <c r="B170" s="4">
@@ -4209,13 +4570,15 @@
       <c r="D170" s="4">
         <v>3.1391556766250848E-3</v>
       </c>
-      <c r="F170" s="4"/>
+      <c r="F170" s="4">
+        <v>5.1777629372989275E-3</v>
+      </c>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-2.5946052477616565E-3</v>
       </c>
       <c r="B171" s="4">
@@ -4227,13 +4590,15 @@
       <c r="D171" s="4">
         <v>-2.814659705529641E-3</v>
       </c>
-      <c r="F171" s="4"/>
+      <c r="F171" s="4">
+        <v>5.1830463556490278E-3</v>
+      </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.2950315942172053E-3</v>
       </c>
       <c r="B172" s="4">
@@ -4245,13 +4610,15 @@
       <c r="D172" s="4">
         <v>4.9083654083870545E-4</v>
       </c>
-      <c r="F172" s="4"/>
+      <c r="F172" s="4">
+        <v>5.2852715329704935E-3</v>
+      </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1431819603459729E-2</v>
       </c>
       <c r="B173" s="4">
@@ -4263,13 +4630,15 @@
       <c r="D173" s="4">
         <v>1.8995263777831447E-2</v>
       </c>
-      <c r="F173" s="4"/>
+      <c r="F173" s="4">
+        <v>5.3856068979179252E-3</v>
+      </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0272876528377441E-3</v>
       </c>
       <c r="B174" s="4">
@@ -4281,13 +4650,15 @@
       <c r="D174" s="4">
         <v>-1.1350349411078558E-3</v>
       </c>
-      <c r="F174" s="4"/>
+      <c r="F174" s="4">
+        <v>5.460866667073452E-3</v>
+      </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5857562849422365E-3</v>
       </c>
       <c r="B175" s="4">
@@ -4299,13 +4670,15 @@
       <c r="D175" s="4">
         <v>3.5637555500124467E-3</v>
       </c>
-      <c r="F175" s="4"/>
+      <c r="F175" s="4">
+        <v>5.5864634071652788E-3</v>
+      </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.9918085129078876E-4</v>
       </c>
       <c r="B176" s="4">
@@ -4317,13 +4690,15 @@
       <c r="D176" s="4">
         <v>1.5919902506250687E-2</v>
       </c>
-      <c r="F176" s="4"/>
+      <c r="F176" s="4">
+        <v>5.6109037886040783E-3</v>
+      </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.6660966908791514E-2</v>
       </c>
       <c r="B177" s="4">
@@ -4335,13 +4710,15 @@
       <c r="D177" s="4">
         <v>4.3059776214738221E-2</v>
       </c>
-      <c r="F177" s="4"/>
+      <c r="F177" s="4">
+        <v>5.8686684105688485E-3</v>
+      </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.90875236661185E-4</v>
       </c>
       <c r="B178" s="4">
@@ -4353,13 +4730,15 @@
       <c r="D178" s="4">
         <v>-5.1805279970732667E-3</v>
       </c>
-      <c r="F178" s="4"/>
+      <c r="F178" s="4">
+        <v>6.117916413442265E-3</v>
+      </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1757850073496796E-2</v>
       </c>
       <c r="B179" s="4">
@@ -4371,13 +4750,15 @@
       <c r="D179" s="4">
         <v>6.5907043010056208E-3</v>
       </c>
-      <c r="F179" s="4"/>
+      <c r="F179" s="4">
+        <v>6.1593907957802566E-3</v>
+      </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.7209612457577539E-2</v>
       </c>
       <c r="B180" s="4">
@@ -4389,13 +4770,15 @@
       <c r="D180" s="4">
         <v>1.209286500933641E-2</v>
       </c>
-      <c r="F180" s="4"/>
+      <c r="F180" s="4">
+        <v>6.4884098517078471E-3</v>
+      </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.8930885239651211E-3</v>
       </c>
       <c r="B181" s="4">
@@ -4407,13 +4790,15 @@
       <c r="D181" s="4">
         <v>-8.7863010140709511E-4</v>
       </c>
-      <c r="F181" s="4"/>
+      <c r="F181" s="4">
+        <v>6.5763871703793603E-3</v>
+      </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1699824190765182E-2</v>
       </c>
       <c r="B182" s="4">
@@ -4425,13 +4810,15 @@
       <c r="D182" s="4">
         <v>7.5302521579127387E-3</v>
       </c>
-      <c r="F182" s="4"/>
+      <c r="F182" s="4">
+        <v>6.735021431301981E-3</v>
+      </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.5763871703793603E-3</v>
       </c>
       <c r="B183" s="4">
@@ -4443,13 +4830,15 @@
       <c r="D183" s="4">
         <v>8.775080912574687E-3</v>
       </c>
-      <c r="F183" s="4"/>
+      <c r="F183" s="4">
+        <v>6.8499702116970483E-3</v>
+      </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.7567944156170823E-3</v>
       </c>
       <c r="B184" s="4">
@@ -4461,13 +4850,15 @@
       <c r="D184" s="4">
         <v>1.1325760616058037E-2</v>
       </c>
-      <c r="F184" s="4"/>
+      <c r="F184" s="4">
+        <v>7.3121985974211913E-3</v>
+      </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.6359312992045979E-3</v>
       </c>
       <c r="B185" s="4">
@@ -4479,13 +4870,15 @@
       <c r="D185" s="4">
         <v>-1.2987581359879624E-2</v>
       </c>
-      <c r="F185" s="4"/>
+      <c r="F185" s="4">
+        <v>7.5954064678184002E-3</v>
+      </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-7.2975566157132367E-3</v>
       </c>
       <c r="B186" s="4">
@@ -4497,13 +4890,15 @@
       <c r="D186" s="4">
         <v>-8.9194795126758594E-3</v>
       </c>
-      <c r="F186" s="4"/>
+      <c r="F186" s="4">
+        <v>7.680082092842014E-3</v>
+      </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.1710713328272997E-3</v>
       </c>
       <c r="B187" s="4">
@@ -4515,13 +4910,15 @@
       <c r="D187" s="4">
         <v>-8.8406891224735336E-3</v>
       </c>
-      <c r="F187" s="4"/>
+      <c r="F187" s="4">
+        <v>8.1920108862940343E-3</v>
+      </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0979357065573821E-2</v>
       </c>
       <c r="B188" s="4">
@@ -4533,13 +4930,15 @@
       <c r="D188" s="4">
         <v>8.3902169066258012E-3</v>
       </c>
-      <c r="F188" s="4"/>
+      <c r="F188" s="4">
+        <v>8.2543932863198138E-3</v>
+      </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5457807795928994E-3</v>
       </c>
       <c r="B189" s="4">
@@ -4551,13 +4950,15 @@
       <c r="D189" s="4">
         <v>3.6590214935839326E-3</v>
       </c>
-      <c r="F189" s="4"/>
+      <c r="F189" s="4">
+        <v>8.2805856398610878E-3</v>
+      </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.2807156247519727E-4</v>
       </c>
       <c r="B190" s="4">
@@ -4569,13 +4970,15 @@
       <c r="D190" s="4">
         <v>-1.9021243306861955E-3</v>
       </c>
-      <c r="F190" s="4"/>
+      <c r="F190" s="4">
+        <v>8.5742438845383059E-3</v>
+      </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2965796269664629E-2</v>
       </c>
       <c r="B191" s="4">
@@ -4587,13 +4990,15 @@
       <c r="D191" s="4">
         <v>6.3842262387394724E-3</v>
       </c>
-      <c r="F191" s="4"/>
+      <c r="F191" s="4">
+        <v>8.6004522477890165E-3</v>
+      </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.0234789277922688E-3</v>
       </c>
       <c r="B192" s="4">
@@ -4605,13 +5010,15 @@
       <c r="D192" s="4">
         <v>-9.5944721046614459E-3</v>
       </c>
-      <c r="F192" s="4"/>
+      <c r="F192" s="4">
+        <v>8.606146010512461E-3</v>
+      </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.460866667073452E-3</v>
       </c>
       <c r="B193" s="4">
@@ -4623,13 +5030,15 @@
       <c r="D193" s="4">
         <v>1.8530328818860273E-2</v>
       </c>
-      <c r="F193" s="4"/>
+      <c r="F193" s="4">
+        <v>8.7095146889770228E-3</v>
+      </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2757927466685366E-2</v>
       </c>
       <c r="B194" s="4">
@@ -4641,13 +5050,15 @@
       <c r="D194" s="4">
         <v>8.9949159170903403E-3</v>
       </c>
-      <c r="F194" s="4"/>
+      <c r="F194" s="4">
+        <v>9.4621506014608749E-3</v>
+      </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.0543207247213621E-3</v>
       </c>
       <c r="B195" s="4">
@@ -4659,13 +5070,15 @@
       <c r="D195" s="4">
         <v>-3.1038032945736434E-5</v>
       </c>
-      <c r="F195" s="4"/>
+      <c r="F195" s="4">
+        <v>9.4629875123311852E-3</v>
+      </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-7.9361703747767298E-3</v>
       </c>
       <c r="B196" s="4">
@@ -4677,13 +5090,15 @@
       <c r="D196" s="4">
         <v>9.7678207369192869E-4</v>
       </c>
-      <c r="F196" s="4"/>
+      <c r="F196" s="4">
+        <v>9.7542792292219169E-3</v>
+      </c>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8992498893357669E-2</v>
       </c>
       <c r="B197" s="4">
@@ -4695,13 +5110,15 @@
       <c r="D197" s="4">
         <v>2.2955046638798274E-2</v>
       </c>
-      <c r="F197" s="4"/>
+      <c r="F197" s="4">
+        <v>9.8143977261294108E-3</v>
+      </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.2980487212640482E-2</v>
       </c>
       <c r="B198" s="4">
@@ -4713,13 +5130,15 @@
       <c r="D198" s="4">
         <v>1.0932319577172032E-2</v>
       </c>
-      <c r="F198" s="4"/>
+      <c r="F198" s="4">
+        <v>9.8552409648463325E-3</v>
+      </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.4615547880951373E-2</v>
       </c>
       <c r="B199" s="4">
@@ -4731,13 +5150,15 @@
       <c r="D199" s="4">
         <v>5.7739813350266747E-2</v>
       </c>
-      <c r="F199" s="4"/>
+      <c r="F199" s="4">
+        <v>1.0005506746191814E-2</v>
+      </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-5.5806542252674757E-3</v>
       </c>
       <c r="B200" s="4">
@@ -4749,13 +5170,15 @@
       <c r="D200" s="4">
         <v>-1.6567302321329161E-3</v>
       </c>
-      <c r="F200" s="4"/>
+      <c r="F200" s="4">
+        <v>1.0042666793911293E-2</v>
+      </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.3903564328131711E-2</v>
       </c>
       <c r="B201" s="4">
@@ -4767,13 +5190,15 @@
       <c r="D201" s="4">
         <v>2.8863984142962016E-2</v>
       </c>
-      <c r="F201" s="4"/>
+      <c r="F201" s="4">
+        <v>1.058116538995316E-2</v>
+      </c>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.3243067681052599E-3</v>
       </c>
       <c r="B202" s="4">
@@ -4785,13 +5210,15 @@
       <c r="D202" s="4">
         <v>1.4199437155195614E-2</v>
       </c>
-      <c r="F202" s="4"/>
+      <c r="F202" s="4">
+        <v>1.0727976837345801E-2</v>
+      </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5161342782784165E-2</v>
       </c>
       <c r="B203" s="4">
@@ -4803,13 +5230,15 @@
       <c r="D203" s="4">
         <v>6.0895776877873536E-3</v>
       </c>
-      <c r="F203" s="4"/>
+      <c r="F203" s="4">
+        <v>1.0954561003345789E-2</v>
+      </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-6.8382759779689935E-4</v>
       </c>
       <c r="B204" s="4">
@@ -4821,13 +5250,15 @@
       <c r="D204" s="4">
         <v>-3.9180224331581718E-3</v>
       </c>
-      <c r="F204" s="4"/>
+      <c r="F204" s="4">
+        <v>1.1164244282973145E-2</v>
+      </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8658179933811751E-3</v>
       </c>
       <c r="B205" s="4">
@@ -4839,13 +5270,15 @@
       <c r="D205" s="4">
         <v>7.7448401674671012E-3</v>
       </c>
-      <c r="F205" s="4"/>
+      <c r="F205" s="4">
+        <v>1.1390706723068727E-2</v>
+      </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9527708933599511E-2</v>
       </c>
       <c r="B206" s="4">
@@ -4857,13 +5290,15 @@
       <c r="D206" s="4">
         <v>1.9300950806796367E-2</v>
       </c>
-      <c r="F206" s="4"/>
+      <c r="F206" s="4">
+        <v>1.1417012203727823E-2</v>
+      </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.643240851381198E-3</v>
       </c>
       <c r="B207" s="4">
@@ -4875,13 +5310,15 @@
       <c r="D207" s="4">
         <v>6.206596239285479E-4</v>
       </c>
-      <c r="F207" s="4"/>
+      <c r="F207" s="4">
+        <v>1.1431819603459729E-2</v>
+      </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5034334294293406E-2</v>
       </c>
       <c r="B208" s="4">
@@ -4893,13 +5330,15 @@
       <c r="D208" s="4">
         <v>3.2040918634721381E-2</v>
       </c>
-      <c r="F208" s="4"/>
+      <c r="F208" s="4">
+        <v>1.1479109700635367E-2</v>
+      </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-3.0721741091785583E-2</v>
       </c>
       <c r="B209" s="4">
@@ -4911,13 +5350,15 @@
       <c r="D209" s="4">
         <v>-3.3757032064645406E-2</v>
       </c>
-      <c r="F209" s="4"/>
+      <c r="F209" s="4">
+        <v>1.1699824190765182E-2</v>
+      </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1.4857664022885504E-2</v>
       </c>
       <c r="B210" s="4">
@@ -4929,13 +5370,15 @@
       <c r="D210" s="4">
         <v>-1.2902628624654133E-2</v>
       </c>
-      <c r="F210" s="4"/>
+      <c r="F210" s="4">
+        <v>1.1757850073496796E-2</v>
+      </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="15">
-        <f t="shared" ref="A211:A269" si="25">$B$3*B211+$B$4*C211+$B$5*D211</f>
+        <f t="shared" ref="A211:A269" si="26">$B$3*B211+$B$4*C211+$B$5*D211</f>
         <v>7.2524978093910911E-2</v>
       </c>
       <c r="B211" s="4">
@@ -4947,13 +5390,15 @@
       <c r="D211" s="4">
         <v>3.181354635046283E-2</v>
       </c>
-      <c r="F211" s="4"/>
+      <c r="F211" s="4">
+        <v>1.2082691458236343E-2</v>
+      </c>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.9572040322469956E-3</v>
       </c>
       <c r="B212" s="4">
@@ -4965,13 +5410,15 @@
       <c r="D212" s="4">
         <v>-1.2997845640833354E-4</v>
       </c>
-      <c r="F212" s="4"/>
+      <c r="F212" s="4">
+        <v>1.2248654206039541E-2</v>
+      </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.1364276614837508E-3</v>
       </c>
       <c r="B213" s="4">
@@ -4983,13 +5430,15 @@
       <c r="D213" s="4">
         <v>3.0927631452157033E-3</v>
       </c>
-      <c r="F213" s="4"/>
+      <c r="F213" s="4">
+        <v>1.2297955337589721E-2</v>
+      </c>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.0466015457605396E-3</v>
       </c>
       <c r="B214" s="4">
@@ -5001,13 +5450,15 @@
       <c r="D214" s="4">
         <v>-8.9646376092862995E-3</v>
       </c>
-      <c r="F214" s="4"/>
+      <c r="F214" s="4">
+        <v>1.2454954974493565E-2</v>
+      </c>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.3558003785673962E-3</v>
       </c>
       <c r="B215" s="4">
@@ -5019,13 +5470,15 @@
       <c r="D215" s="4">
         <v>-9.6208958843960191E-3</v>
       </c>
-      <c r="F215" s="4"/>
+      <c r="F215" s="4">
+        <v>1.2589107525347459E-2</v>
+      </c>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.1211882419896528E-3</v>
       </c>
       <c r="B216" s="4">
@@ -5037,13 +5490,15 @@
       <c r="D216" s="4">
         <v>-5.2267856714162154E-3</v>
       </c>
-      <c r="F216" s="4"/>
+      <c r="F216" s="4">
+        <v>1.2757927466685366E-2</v>
+      </c>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.150690720770373E-2</v>
       </c>
       <c r="B217" s="4">
@@ -5055,13 +5510,15 @@
       <c r="D217" s="4">
         <v>3.7734851286732214E-2</v>
       </c>
-      <c r="F217" s="4"/>
+      <c r="F217" s="4">
+        <v>1.2868234722925968E-2</v>
+      </c>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.971961522852389E-2</v>
       </c>
       <c r="B218" s="4">
@@ -5073,13 +5530,15 @@
       <c r="D218" s="4">
         <v>1.2990377746531912E-2</v>
       </c>
-      <c r="F218" s="4"/>
+      <c r="F218" s="4">
+        <v>1.2950449068380634E-2</v>
+      </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.7576415716312917E-3</v>
       </c>
       <c r="B219" s="4">
@@ -5091,13 +5550,15 @@
       <c r="D219" s="4">
         <v>-1.8541427144697798E-2</v>
       </c>
-      <c r="F219" s="4"/>
+      <c r="F219" s="4">
+        <v>1.2965796269664629E-2</v>
+      </c>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2868234722925968E-2</v>
       </c>
       <c r="B220" s="4">
@@ -5109,13 +5570,15 @@
       <c r="D220" s="4">
         <v>2.8035244801143072E-3</v>
       </c>
-      <c r="F220" s="4"/>
+      <c r="F220" s="4">
+        <v>1.2995281600624107E-2</v>
+      </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.368790696979592E-2</v>
       </c>
       <c r="B221" s="4">
@@ -5127,13 +5590,15 @@
       <c r="D221" s="4">
         <v>5.0008797916524007E-4</v>
       </c>
-      <c r="F221" s="4"/>
+      <c r="F221" s="4">
+        <v>1.368790696979592E-2</v>
+      </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9711605885906565E-2</v>
       </c>
       <c r="B222" s="4">
@@ -5145,13 +5610,15 @@
       <c r="D222" s="4">
         <v>-2.3097773682828549E-2</v>
       </c>
-      <c r="F222" s="4"/>
+      <c r="F222" s="4">
+        <v>1.3770070743187771E-2</v>
+      </c>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.4829428008776626E-2</v>
       </c>
       <c r="B223" s="4">
@@ -5163,13 +5630,15 @@
       <c r="D223" s="4">
         <v>-3.6436900041339336E-2</v>
       </c>
-      <c r="F223" s="4"/>
+      <c r="F223" s="4">
+        <v>1.3794617093600579E-2</v>
+      </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.9220176113393505E-2</v>
       </c>
       <c r="B224" s="4">
@@ -5181,13 +5650,15 @@
       <c r="D224" s="4">
         <v>2.8024044046843066E-2</v>
       </c>
-      <c r="F224" s="4"/>
+      <c r="F224" s="4">
+        <v>1.3959577340101215E-2</v>
+      </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.4480051689271632E-4</v>
       </c>
       <c r="B225" s="4">
@@ -5199,13 +5670,15 @@
       <c r="D225" s="4">
         <v>3.8280874252696862E-3</v>
       </c>
-      <c r="F225" s="4"/>
+      <c r="F225" s="4">
+        <v>1.4307503701459718E-2</v>
+      </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.185527242249141E-2</v>
       </c>
       <c r="B226" s="4">
@@ -5217,13 +5690,15 @@
       <c r="D226" s="4">
         <v>3.813408517459062E-3</v>
       </c>
-      <c r="F226" s="4"/>
+      <c r="F226" s="4">
+        <v>1.446672254781029E-2</v>
+      </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.6467446465007231E-3</v>
       </c>
       <c r="B227" s="4">
@@ -5235,13 +5710,15 @@
       <c r="D227" s="4">
         <v>-8.6232930566924795E-3</v>
       </c>
-      <c r="F227" s="4"/>
+      <c r="F227" s="4">
+        <v>1.4657159689562093E-2</v>
+      </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0042666793911293E-2</v>
       </c>
       <c r="B228" s="4">
@@ -5253,13 +5730,15 @@
       <c r="D228" s="4">
         <v>1.1257396113292949E-2</v>
       </c>
-      <c r="F228" s="4"/>
+      <c r="F228" s="4">
+        <v>1.5034334294293406E-2</v>
+      </c>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1164244282973145E-2</v>
       </c>
       <c r="B229" s="4">
@@ -5271,13 +5750,15 @@
       <c r="D229" s="4">
         <v>1.326942085424763E-2</v>
       </c>
-      <c r="F229" s="4"/>
+      <c r="F229" s="4">
+        <v>1.5161342782784165E-2</v>
+      </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.8686684105688485E-3</v>
       </c>
       <c r="B230" s="4">
@@ -5289,13 +5770,15 @@
       <c r="D230" s="4">
         <v>1.0346547743967247E-4</v>
       </c>
-      <c r="F230" s="4"/>
+      <c r="F230" s="4">
+        <v>1.5197603192966916E-2</v>
+      </c>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.5570047166702023E-3</v>
       </c>
       <c r="B231" s="4">
@@ -5307,13 +5790,15 @@
       <c r="D231" s="4">
         <v>-3.364096518406703E-3</v>
       </c>
-      <c r="F231" s="4"/>
+      <c r="F231" s="4">
+        <v>1.5843427102758861E-2</v>
+      </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.5742438845383059E-3</v>
       </c>
       <c r="B232" s="4">
@@ -5325,13 +5810,15 @@
       <c r="D232" s="4">
         <v>4.5436032183929161E-4</v>
       </c>
-      <c r="F232" s="4"/>
+      <c r="F232" s="4">
+        <v>1.6658496614954013E-2</v>
+      </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.6308382270135533E-3</v>
       </c>
       <c r="B233" s="4">
@@ -5343,13 +5830,15 @@
       <c r="D233" s="4">
         <v>3.2831514578944478E-3</v>
       </c>
-      <c r="F233" s="4"/>
+      <c r="F233" s="4">
+        <v>1.6660966908791514E-2</v>
+      </c>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.6379086746957234E-3</v>
       </c>
       <c r="B234" s="4">
@@ -5361,13 +5850,15 @@
       <c r="D234" s="4">
         <v>2.2764437647497956E-3</v>
       </c>
-      <c r="F234" s="4"/>
+      <c r="F234" s="4">
+        <v>1.7073860082897629E-2</v>
+      </c>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9640284880633771E-3</v>
       </c>
       <c r="B235" s="4">
@@ -5379,13 +5870,15 @@
       <c r="D235" s="4">
         <v>4.2327631415408897E-3</v>
       </c>
-      <c r="F235" s="4"/>
+      <c r="F235" s="4">
+        <v>1.7652610164051324E-2</v>
+      </c>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.0265312979183408E-4</v>
       </c>
       <c r="B236" s="4">
@@ -5397,13 +5890,15 @@
       <c r="D236" s="4">
         <v>-2.8267329563257999E-4</v>
       </c>
-      <c r="F236" s="4"/>
+      <c r="F236" s="4">
+        <v>1.7703305666246755E-2</v>
+      </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.2297658823783787E-2</v>
       </c>
       <c r="B237" s="4">
@@ -5415,13 +5910,15 @@
       <c r="D237" s="4">
         <v>-2.2379085927245759E-2</v>
       </c>
-      <c r="F237" s="4"/>
+      <c r="F237" s="4">
+        <v>1.8298367154248912E-2</v>
+      </c>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.1824791091075001E-3</v>
       </c>
       <c r="B238" s="4">
@@ -5433,13 +5930,15 @@
       <c r="D238" s="4">
         <v>4.4836424093353958E-3</v>
       </c>
-      <c r="F238" s="4"/>
+      <c r="F238" s="4">
+        <v>1.8992498893357669E-2</v>
+      </c>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.5864634071652788E-3</v>
       </c>
       <c r="B239" s="4">
@@ -5451,13 +5950,15 @@
       <c r="D239" s="4">
         <v>1.5746855746005987E-2</v>
       </c>
-      <c r="F239" s="4"/>
+      <c r="F239" s="4">
+        <v>1.9214891159848702E-2</v>
+      </c>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.8778521947569297E-2</v>
       </c>
       <c r="B240" s="4">
@@ -5469,13 +5970,15 @@
       <c r="D240" s="4">
         <v>-1.0193395847983773E-2</v>
       </c>
-      <c r="F240" s="4"/>
+      <c r="F240" s="4">
+        <v>1.924649583495372E-2</v>
+      </c>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.0188665130681516E-2</v>
       </c>
       <c r="B241" s="4">
@@ -5487,13 +5990,15 @@
       <c r="D241" s="4">
         <v>2.1000422513174598E-2</v>
       </c>
-      <c r="F241" s="4"/>
+      <c r="F241" s="4">
+        <v>1.9527708933599511E-2</v>
+      </c>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.8517336011403732E-3</v>
       </c>
       <c r="B242" s="4">
@@ -5505,13 +6010,15 @@
       <c r="D242" s="4">
         <v>-8.8242227865258753E-3</v>
       </c>
-      <c r="F242" s="4"/>
+      <c r="F242" s="4">
+        <v>1.971961522852389E-2</v>
+      </c>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.0815331611964853E-2</v>
       </c>
       <c r="B243" s="4">
@@ -5523,13 +6030,15 @@
       <c r="D243" s="4">
         <v>-2.5794733445363746E-2</v>
       </c>
-      <c r="F243" s="4"/>
+      <c r="F243" s="4">
+        <v>1.9889048954077147E-2</v>
+      </c>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.2805856398610878E-3</v>
       </c>
       <c r="B244" s="4">
@@ -5541,13 +6050,15 @@
       <c r="D244" s="4">
         <v>6.2595614276894111E-3</v>
       </c>
-      <c r="F244" s="4"/>
+      <c r="F244" s="4">
+        <v>2.0188665130681516E-2</v>
+      </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2082691458236343E-2</v>
       </c>
       <c r="B245" s="4">
@@ -5559,13 +6070,15 @@
       <c r="D245" s="4">
         <v>-3.1365044680200251E-3</v>
       </c>
-      <c r="F245" s="4"/>
+      <c r="F245" s="4">
+        <v>2.0979357065573821E-2</v>
+      </c>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.4964182916265787E-2</v>
       </c>
       <c r="B246" s="4">
@@ -5577,13 +6090,15 @@
       <c r="D246" s="4">
         <v>-1.046618824096753E-2</v>
       </c>
-      <c r="F246" s="4"/>
+      <c r="F246" s="4">
+        <v>2.1200489419653665E-2</v>
+      </c>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.7381544971020693E-3</v>
       </c>
       <c r="B247" s="4">
@@ -5595,13 +6110,15 @@
       <c r="D247" s="4">
         <v>-1.157462482347971E-3</v>
       </c>
-      <c r="F247" s="4"/>
+      <c r="F247" s="4">
+        <v>2.13106363734448E-2</v>
+      </c>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.8273939558073961E-4</v>
       </c>
       <c r="B248" s="4">
@@ -5613,13 +6130,15 @@
       <c r="D248" s="4">
         <v>-5.3678612518267381E-3</v>
       </c>
-      <c r="F248" s="4"/>
+      <c r="F248" s="4">
+        <v>2.2980487212640482E-2</v>
+      </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.0842441648589891E-2</v>
       </c>
       <c r="B249" s="4">
@@ -5631,13 +6150,15 @@
       <c r="D249" s="4">
         <v>5.3968306901711772E-3</v>
       </c>
-      <c r="F249" s="4"/>
+      <c r="F249" s="4">
+        <v>2.3172117912956827E-2</v>
+      </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.9518513400552081E-4</v>
       </c>
       <c r="B250" s="4">
@@ -5649,13 +6170,15 @@
       <c r="D250" s="4">
         <v>-6.4200849778583225E-3</v>
       </c>
-      <c r="F250" s="4"/>
+      <c r="F250" s="4">
+        <v>2.3302542035919742E-2</v>
+      </c>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.2287493905608334E-2</v>
       </c>
       <c r="B251" s="4">
@@ -5667,13 +6190,15 @@
       <c r="D251" s="4">
         <v>-2.6328861622147381E-2</v>
       </c>
-      <c r="F251" s="4"/>
+      <c r="F251" s="4">
+        <v>2.3903564328131711E-2</v>
+      </c>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.1200489419653665E-2</v>
       </c>
       <c r="B252" s="4">
@@ -5685,13 +6210,15 @@
       <c r="D252" s="4">
         <v>6.9116762100538548E-3</v>
       </c>
-      <c r="F252" s="4"/>
+      <c r="F252" s="4">
+        <v>2.4390069991125543E-2</v>
+      </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4390069991125543E-2</v>
       </c>
       <c r="B253" s="4">
@@ -5703,13 +6230,15 @@
       <c r="D253" s="4">
         <v>1.9635438196158386E-2</v>
       </c>
-      <c r="F253" s="4"/>
+      <c r="F253" s="4">
+        <v>2.6627990396993702E-2</v>
+      </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.9322484265093271E-2</v>
       </c>
       <c r="B254" s="4">
@@ -5721,13 +6250,15 @@
       <c r="D254" s="4">
         <v>-1.8090614317220918E-2</v>
       </c>
-      <c r="F254" s="4"/>
+      <c r="F254" s="4">
+        <v>2.7209612457577539E-2</v>
+      </c>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.5954064678184002E-3</v>
       </c>
       <c r="B255" s="4">
@@ -5739,13 +6270,15 @@
       <c r="D255" s="4">
         <v>-1.0010949150013672E-2</v>
       </c>
-      <c r="F255" s="4"/>
+      <c r="F255" s="4">
+        <v>2.751017945530429E-2</v>
+      </c>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.6627990396993702E-2</v>
       </c>
       <c r="B256" s="4">
@@ -5757,13 +6290,15 @@
       <c r="D256" s="4">
         <v>1.1919398935861809E-2</v>
       </c>
-      <c r="F256" s="4"/>
+      <c r="F256" s="4">
+        <v>2.7525765167474243E-2</v>
+      </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.4175627946763328E-3</v>
       </c>
       <c r="B257" s="4">
@@ -5775,13 +6310,15 @@
       <c r="D257" s="4">
         <v>5.0306095244495325E-3</v>
       </c>
-      <c r="F257" s="4"/>
+      <c r="F257" s="4">
+        <v>3.0317140406559959E-2</v>
+      </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3302542035919742E-2</v>
       </c>
       <c r="B258" s="4">
@@ -5793,13 +6330,15 @@
       <c r="D258" s="4">
         <v>5.9549596652173423E-2</v>
       </c>
-      <c r="F258" s="4"/>
+      <c r="F258" s="4">
+        <v>3.0891217574965796E-2</v>
+      </c>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-1.5633561299712682E-2</v>
       </c>
       <c r="B259" s="4">
@@ -5811,13 +6350,15 @@
       <c r="D259" s="4">
         <v>-5.569038179362302E-3</v>
       </c>
-      <c r="F259" s="4"/>
+      <c r="F259" s="4">
+        <v>3.150690720770373E-2</v>
+      </c>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.4570188132702463E-3</v>
       </c>
       <c r="B260" s="4">
@@ -5829,13 +6370,15 @@
       <c r="D260" s="4">
         <v>-2.6829773872505926E-2</v>
       </c>
-      <c r="F260" s="4"/>
+      <c r="F260" s="4">
+        <v>3.2093639262061907E-2</v>
+      </c>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-3.3204995455694657E-3</v>
       </c>
       <c r="B261" s="4">
@@ -5847,13 +6390,15 @@
       <c r="D261" s="4">
         <v>-2.7701714735019464E-2</v>
       </c>
-      <c r="F261" s="4"/>
+      <c r="F261" s="4">
+        <v>3.2495533350884571E-2</v>
+      </c>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.5446254229996671E-2</v>
       </c>
       <c r="B262" s="4">
@@ -5865,13 +6410,15 @@
       <c r="D262" s="4">
         <v>4.314464976347257E-2</v>
       </c>
-      <c r="F262" s="4"/>
+      <c r="F262" s="4">
+        <v>3.3166591184740669E-2</v>
+      </c>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.2831498698324846E-3</v>
       </c>
       <c r="B263" s="4">
@@ -5883,13 +6430,15 @@
       <c r="D263" s="4">
         <v>1.4465000993131178E-2</v>
       </c>
-      <c r="F263" s="4"/>
+      <c r="F263" s="4">
+        <v>3.5446254229996671E-2</v>
+      </c>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0936808818439829E-3</v>
       </c>
       <c r="B264" s="4">
@@ -5901,13 +6450,15 @@
       <c r="D264" s="4">
         <v>-3.5614892084930815E-3</v>
       </c>
-      <c r="F264" s="4"/>
+      <c r="F264" s="4">
+        <v>3.5565483351509636E-2</v>
+      </c>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.7791440544120035E-3</v>
       </c>
       <c r="B265" s="4">
@@ -5919,13 +6470,15 @@
       <c r="D265" s="4">
         <v>-4.451628654234898E-3</v>
       </c>
-      <c r="F265" s="4"/>
+      <c r="F265" s="4">
+        <v>3.9220176113393505E-2</v>
+      </c>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.1672776619106196E-3</v>
       </c>
       <c r="B266" s="4">
@@ -5937,13 +6490,15 @@
       <c r="D266" s="4">
         <v>-1.4969850269853407E-2</v>
       </c>
-      <c r="F266" s="4"/>
+      <c r="F266" s="4">
+        <v>4.4615547880951373E-2</v>
+      </c>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.8356675786583834E-4</v>
       </c>
       <c r="B267" s="4">
@@ -5955,13 +6510,15 @@
       <c r="D267" s="4">
         <v>-3.0262997275907599E-3</v>
       </c>
-      <c r="F267" s="4"/>
+      <c r="F267" s="4">
+        <v>6.7889623240646652E-2</v>
+      </c>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0005506746191814E-2</v>
       </c>
       <c r="B268" s="4">
@@ -5973,13 +6530,15 @@
       <c r="D268" s="4">
         <v>8.2881987073309734E-3</v>
       </c>
-      <c r="F268" s="4"/>
+      <c r="F268" s="4">
+        <v>7.2524978093910911E-2</v>
+      </c>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.751017945530429E-2</v>
       </c>
       <c r="B269" s="4">
@@ -5991,11 +6550,16 @@
       <c r="D269" s="4">
         <v>3.0157909436793723E-2</v>
       </c>
-      <c r="F269" s="4"/>
+      <c r="F269" s="4">
+        <v>8.3366584720395404E-2</v>
+      </c>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F18:F269">
+    <sortCondition ref="F18:F269"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
